--- a/crawling/data/가천대학교.xlsx
+++ b/crawling/data/가천대학교.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\One_for_One_2nd\One_for_One\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2173E-3690-4804-9224-4439F7771360}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB918D-9518-4A2D-97D1-4DBFEF5D9565}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27B802EE-8B47-475D-9B92-62A5CAFFFF54}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{27B802EE-8B47-475D-9B92-62A5CAFFFF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5983,7 +5983,7 @@
   <dimension ref="A1:I855"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A844" workbookViewId="0">
-      <selection activeCell="J864" sqref="J864"/>
+      <selection activeCell="D856" sqref="D856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6048,7 +6048,9 @@
       <c r="G2" s="1">
         <v>2797</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6077,9 @@
       <c r="G3" s="1">
         <v>2464</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
@@ -6102,7 +6106,9 @@
       <c r="G4" s="1">
         <v>2008</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
@@ -6129,7 +6135,9 @@
       <c r="G5" s="1">
         <v>1849</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
@@ -6156,7 +6164,9 @@
       <c r="G6" s="1">
         <v>1760</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
@@ -6183,7 +6193,9 @@
       <c r="G7" s="1">
         <v>1500</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6210,7 +6222,9 @@
       <c r="G8" s="1">
         <v>1378</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
@@ -6237,7 +6251,9 @@
       <c r="G9" s="1">
         <v>1365</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
@@ -6264,7 +6280,9 @@
       <c r="G10" s="1">
         <v>1076</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6291,7 +6309,9 @@
       <c r="G11" s="1">
         <v>1050</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>15</v>
       </c>
@@ -6318,7 +6338,9 @@
       <c r="G12" s="1">
         <v>852</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
@@ -6345,7 +6367,9 @@
       <c r="G13" s="1">
         <v>758</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
@@ -6372,7 +6396,9 @@
       <c r="G14" s="1">
         <v>739</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>15</v>
       </c>
@@ -6399,7 +6425,9 @@
       <c r="G15" s="1">
         <v>719</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
@@ -6426,7 +6454,9 @@
       <c r="G16" s="1">
         <v>696</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
@@ -6453,7 +6483,9 @@
       <c r="G17" s="1">
         <v>632</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6480,7 +6512,9 @@
       <c r="G18" s="1">
         <v>594</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6507,7 +6541,9 @@
       <c r="G19" s="1">
         <v>581</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6534,7 +6570,9 @@
       <c r="G20" s="1">
         <v>581</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
@@ -6561,7 +6599,9 @@
       <c r="G21" s="1">
         <v>536</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
@@ -6588,7 +6628,9 @@
       <c r="G22" s="1">
         <v>509</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
@@ -6615,7 +6657,9 @@
       <c r="G23" s="1">
         <v>495</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>15</v>
       </c>
@@ -6642,7 +6686,9 @@
       <c r="G24" s="1">
         <v>489</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>15</v>
       </c>
@@ -6669,7 +6715,9 @@
       <c r="G25" s="1">
         <v>488</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>15</v>
       </c>
@@ -6696,7 +6744,9 @@
       <c r="G26" s="1">
         <v>472</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>15</v>
       </c>
@@ -6723,7 +6773,9 @@
       <c r="G27" s="1">
         <v>459</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>15</v>
       </c>
@@ -6750,7 +6802,9 @@
       <c r="G28" s="1">
         <v>438</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
@@ -6777,7 +6831,9 @@
       <c r="G29" s="1">
         <v>409</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
@@ -6804,7 +6860,9 @@
       <c r="G30" s="1">
         <v>406</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
@@ -6831,7 +6889,9 @@
       <c r="G31" s="1">
         <v>399</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6918,9 @@
       <c r="G32" s="1">
         <v>388</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
       </c>
@@ -6885,7 +6947,9 @@
       <c r="G33" s="1">
         <v>382</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
@@ -6912,7 +6976,9 @@
       <c r="G34" s="1">
         <v>341</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
       </c>
@@ -6939,7 +7005,9 @@
       <c r="G35" s="1">
         <v>317</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
       </c>
@@ -6966,7 +7034,9 @@
       <c r="G36" s="1">
         <v>314</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
       </c>
@@ -6993,7 +7063,9 @@
       <c r="G37" s="1">
         <v>311</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>15</v>
       </c>
@@ -7020,7 +7092,9 @@
       <c r="G38" s="1">
         <v>292</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>15</v>
       </c>
@@ -7047,7 +7121,9 @@
       <c r="G39" s="1">
         <v>285</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>15</v>
       </c>
@@ -7074,7 +7150,9 @@
       <c r="G40" s="1">
         <v>282</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>15</v>
       </c>
@@ -7101,7 +7179,9 @@
       <c r="G41" s="1">
         <v>268</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>15</v>
       </c>
@@ -7128,7 +7208,9 @@
       <c r="G42" s="1">
         <v>255</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>15</v>
       </c>
@@ -7155,7 +7237,9 @@
       <c r="G43" s="1">
         <v>217</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>15</v>
       </c>
@@ -7182,7 +7266,9 @@
       <c r="G44" s="1">
         <v>213</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
       <c r="I44" s="1" t="s">
         <v>15</v>
       </c>
@@ -7209,7 +7295,9 @@
       <c r="G45" s="1">
         <v>209</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>15</v>
       </c>
@@ -7236,7 +7324,9 @@
       <c r="G46" s="1">
         <v>206</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>15</v>
       </c>
@@ -7263,7 +7353,9 @@
       <c r="G47" s="1">
         <v>206</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>15</v>
       </c>
@@ -7290,7 +7382,9 @@
       <c r="G48" s="1">
         <v>201</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>15</v>
       </c>
@@ -7317,7 +7411,9 @@
       <c r="G49" s="1">
         <v>184</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
       <c r="I49" s="1" t="s">
         <v>15</v>
       </c>
@@ -7344,7 +7440,9 @@
       <c r="G50" s="1">
         <v>181</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
@@ -7371,7 +7469,9 @@
       <c r="G51" s="1">
         <v>158</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
       <c r="I51" s="1" t="s">
         <v>15</v>
       </c>
@@ -7398,7 +7498,9 @@
       <c r="G52" s="1">
         <v>157</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
@@ -7425,7 +7527,9 @@
       <c r="G53" s="1">
         <v>156</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
       <c r="I53" s="1" t="s">
         <v>15</v>
       </c>
@@ -7452,7 +7556,9 @@
       <c r="G54" s="1">
         <v>133</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
       <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
@@ -7479,7 +7585,9 @@
       <c r="G55" s="1">
         <v>123</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
       <c r="I55" s="1" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +7614,9 @@
       <c r="G56" s="1">
         <v>120</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>15</v>
       </c>
@@ -7533,7 +7643,9 @@
       <c r="G57" s="1">
         <v>117</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
       <c r="I57" s="1" t="s">
         <v>15</v>
       </c>
@@ -7560,7 +7672,9 @@
       <c r="G58" s="1">
         <v>116</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
@@ -7587,7 +7701,9 @@
       <c r="G59" s="1">
         <v>113</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
@@ -7614,7 +7730,9 @@
       <c r="G60" s="1">
         <v>113</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
@@ -7641,7 +7759,9 @@
       <c r="G61" s="1">
         <v>105</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
@@ -7668,7 +7788,9 @@
       <c r="G62" s="1">
         <v>105</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
@@ -7695,7 +7817,9 @@
       <c r="G63" s="1">
         <v>101</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
       <c r="I63" s="1" t="s">
         <v>15</v>
       </c>
@@ -7722,7 +7846,9 @@
       <c r="G64" s="1">
         <v>91</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
@@ -7749,7 +7875,9 @@
       <c r="G65" s="1">
         <v>83</v>
       </c>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
       <c r="I65" s="1" t="s">
         <v>15</v>
       </c>
@@ -7776,7 +7904,9 @@
       <c r="G66" s="1">
         <v>83</v>
       </c>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>15</v>
       </c>
@@ -7803,7 +7933,9 @@
       <c r="G67" s="1">
         <v>80</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>15</v>
       </c>
@@ -7830,7 +7962,9 @@
       <c r="G68" s="1">
         <v>61</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
@@ -7857,7 +7991,9 @@
       <c r="G69" s="1">
         <v>55</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
       <c r="I69" s="1" t="s">
         <v>15</v>
       </c>
@@ -7884,7 +8020,9 @@
       <c r="G70" s="1">
         <v>53</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
       <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
@@ -7911,7 +8049,9 @@
       <c r="G71" s="1">
         <v>52</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
       <c r="I71" s="1" t="s">
         <v>15</v>
       </c>
@@ -7938,7 +8078,9 @@
       <c r="G72" s="1">
         <v>51</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
       <c r="I72" s="1" t="s">
         <v>15</v>
       </c>
@@ -7965,7 +8107,9 @@
       <c r="G73" s="1">
         <v>49</v>
       </c>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
       <c r="I73" s="1" t="s">
         <v>15</v>
       </c>
@@ -7992,7 +8136,9 @@
       <c r="G74" s="1">
         <v>48</v>
       </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
       <c r="I74" s="1" t="s">
         <v>15</v>
       </c>
@@ -8019,7 +8165,9 @@
       <c r="G75" s="1">
         <v>45</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
       <c r="I75" s="1" t="s">
         <v>15</v>
       </c>
@@ -8046,7 +8194,9 @@
       <c r="G76" s="1">
         <v>44</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
       <c r="I76" s="1" t="s">
         <v>15</v>
       </c>
@@ -8073,7 +8223,9 @@
       <c r="G77" s="1">
         <v>39</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
       <c r="I77" s="1" t="s">
         <v>15</v>
       </c>
@@ -8100,7 +8252,9 @@
       <c r="G78" s="1">
         <v>38</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
       <c r="I78" s="1" t="s">
         <v>15</v>
       </c>
@@ -8127,7 +8281,9 @@
       <c r="G79" s="1">
         <v>33</v>
       </c>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
       <c r="I79" s="1" t="s">
         <v>15</v>
       </c>
@@ -8154,7 +8310,9 @@
       <c r="G80" s="1">
         <v>26</v>
       </c>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
       <c r="I80" s="1" t="s">
         <v>15</v>
       </c>
@@ -8181,7 +8339,9 @@
       <c r="G81" s="1">
         <v>25</v>
       </c>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
       <c r="I81" s="1" t="s">
         <v>15</v>
       </c>
@@ -8208,7 +8368,9 @@
       <c r="G82" s="1">
         <v>24</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
       <c r="I82" s="1" t="s">
         <v>15</v>
       </c>
@@ -8235,7 +8397,9 @@
       <c r="G83" s="1">
         <v>23</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
       <c r="I83" s="1" t="s">
         <v>15</v>
       </c>
@@ -8262,7 +8426,9 @@
       <c r="G84" s="1">
         <v>21</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
       <c r="I84" s="1" t="s">
         <v>15</v>
       </c>
@@ -8289,7 +8455,9 @@
       <c r="G85" s="1">
         <v>20</v>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
       <c r="I85" s="1" t="s">
         <v>15</v>
       </c>
@@ -8316,7 +8484,9 @@
       <c r="G86" s="1">
         <v>17</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
       <c r="I86" s="1" t="s">
         <v>15</v>
       </c>
@@ -8343,7 +8513,9 @@
       <c r="G87" s="1">
         <v>17</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
       <c r="I87" s="1" t="s">
         <v>15</v>
       </c>
@@ -8370,7 +8542,9 @@
       <c r="G88" s="1">
         <v>16</v>
       </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
       <c r="I88" s="1" t="s">
         <v>15</v>
       </c>
@@ -8397,7 +8571,9 @@
       <c r="G89" s="1">
         <v>15</v>
       </c>
-      <c r="H89" s="1"/>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
       <c r="I89" s="1" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8600,9 @@
       <c r="G90" s="1">
         <v>12</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
       <c r="I90" s="1" t="s">
         <v>15</v>
       </c>
@@ -8451,7 +8629,9 @@
       <c r="G91" s="1">
         <v>11</v>
       </c>
-      <c r="H91" s="1"/>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
       <c r="I91" s="1" t="s">
         <v>15</v>
       </c>
@@ -8478,7 +8658,9 @@
       <c r="G92" s="1">
         <v>11</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
       <c r="I92" s="1" t="s">
         <v>15</v>
       </c>
@@ -8505,7 +8687,9 @@
       <c r="G93" s="1">
         <v>10</v>
       </c>
-      <c r="H93" s="1"/>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
       <c r="I93" s="1" t="s">
         <v>15</v>
       </c>
@@ -8532,7 +8716,9 @@
       <c r="G94" s="1">
         <v>8</v>
       </c>
-      <c r="H94" s="1"/>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
       <c r="I94" s="1" t="s">
         <v>15</v>
       </c>
@@ -8559,7 +8745,9 @@
       <c r="G95" s="1">
         <v>8</v>
       </c>
-      <c r="H95" s="1"/>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
       <c r="I95" s="1" t="s">
         <v>15</v>
       </c>
@@ -8586,7 +8774,9 @@
       <c r="G96" s="1">
         <v>8</v>
       </c>
-      <c r="H96" s="1"/>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
       <c r="I96" s="1" t="s">
         <v>15</v>
       </c>
@@ -8613,7 +8803,9 @@
       <c r="G97" s="1">
         <v>7</v>
       </c>
-      <c r="H97" s="1"/>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
       <c r="I97" s="1" t="s">
         <v>15</v>
       </c>
@@ -8640,7 +8832,9 @@
       <c r="G98" s="1">
         <v>7</v>
       </c>
-      <c r="H98" s="1"/>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
       <c r="I98" s="1" t="s">
         <v>15</v>
       </c>
@@ -8667,7 +8861,9 @@
       <c r="G99" s="1">
         <v>7</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
       <c r="I99" s="1" t="s">
         <v>15</v>
       </c>
@@ -8694,7 +8890,9 @@
       <c r="G100" s="1">
         <v>7</v>
       </c>
-      <c r="H100" s="1"/>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
       <c r="I100" s="1" t="s">
         <v>15</v>
       </c>
@@ -8721,7 +8919,9 @@
       <c r="G101" s="1">
         <v>6</v>
       </c>
-      <c r="H101" s="1"/>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
       <c r="I101" s="1" t="s">
         <v>15</v>
       </c>
@@ -8748,7 +8948,9 @@
       <c r="G102" s="1">
         <v>6</v>
       </c>
-      <c r="H102" s="1"/>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
       <c r="I102" s="1" t="s">
         <v>15</v>
       </c>
@@ -8775,7 +8977,9 @@
       <c r="G103" s="1">
         <v>6</v>
       </c>
-      <c r="H103" s="1"/>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
       <c r="I103" s="1" t="s">
         <v>15</v>
       </c>
@@ -8802,7 +9006,9 @@
       <c r="G104" s="1">
         <v>5</v>
       </c>
-      <c r="H104" s="1"/>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
       <c r="I104" s="1" t="s">
         <v>15</v>
       </c>
@@ -8829,7 +9035,9 @@
       <c r="G105" s="1">
         <v>5</v>
       </c>
-      <c r="H105" s="1"/>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
       <c r="I105" s="1" t="s">
         <v>15</v>
       </c>
@@ -8856,7 +9064,9 @@
       <c r="G106" s="1">
         <v>5</v>
       </c>
-      <c r="H106" s="1"/>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
       <c r="I106" s="1" t="s">
         <v>15</v>
       </c>
@@ -8883,7 +9093,9 @@
       <c r="G107" s="1">
         <v>5</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
       <c r="I107" s="1" t="s">
         <v>15</v>
       </c>
@@ -8910,7 +9122,9 @@
       <c r="G108" s="1">
         <v>5</v>
       </c>
-      <c r="H108" s="1"/>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
       <c r="I108" s="1" t="s">
         <v>15</v>
       </c>
@@ -8937,7 +9151,9 @@
       <c r="G109" s="1">
         <v>5</v>
       </c>
-      <c r="H109" s="1"/>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
       <c r="I109" s="1" t="s">
         <v>15</v>
       </c>
@@ -8964,7 +9180,9 @@
       <c r="G110" s="1">
         <v>4</v>
       </c>
-      <c r="H110" s="1"/>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
       <c r="I110" s="1" t="s">
         <v>15</v>
       </c>
@@ -8991,7 +9209,9 @@
       <c r="G111" s="1">
         <v>4</v>
       </c>
-      <c r="H111" s="1"/>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
       <c r="I111" s="1" t="s">
         <v>15</v>
       </c>
@@ -9018,7 +9238,9 @@
       <c r="G112" s="1">
         <v>4</v>
       </c>
-      <c r="H112" s="1"/>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
       <c r="I112" s="1" t="s">
         <v>15</v>
       </c>
@@ -9045,7 +9267,9 @@
       <c r="G113" s="1">
         <v>4</v>
       </c>
-      <c r="H113" s="1"/>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
       <c r="I113" s="1" t="s">
         <v>15</v>
       </c>
@@ -9072,7 +9296,9 @@
       <c r="G114" s="1">
         <v>4</v>
       </c>
-      <c r="H114" s="1"/>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
       <c r="I114" s="1" t="s">
         <v>15</v>
       </c>
@@ -9099,7 +9325,9 @@
       <c r="G115" s="1">
         <v>3</v>
       </c>
-      <c r="H115" s="1"/>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
       <c r="I115" s="1" t="s">
         <v>15</v>
       </c>
@@ -9126,7 +9354,9 @@
       <c r="G116" s="1">
         <v>3</v>
       </c>
-      <c r="H116" s="1"/>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
       <c r="I116" s="1" t="s">
         <v>15</v>
       </c>
@@ -9153,7 +9383,9 @@
       <c r="G117" s="1">
         <v>3</v>
       </c>
-      <c r="H117" s="1"/>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
       <c r="I117" s="1" t="s">
         <v>15</v>
       </c>
@@ -9180,7 +9412,9 @@
       <c r="G118" s="1">
         <v>3</v>
       </c>
-      <c r="H118" s="1"/>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
       <c r="I118" s="1" t="s">
         <v>15</v>
       </c>
@@ -9207,7 +9441,9 @@
       <c r="G119" s="1">
         <v>2</v>
       </c>
-      <c r="H119" s="1"/>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
       <c r="I119" s="1" t="s">
         <v>15</v>
       </c>
@@ -9234,7 +9470,9 @@
       <c r="G120" s="1">
         <v>2</v>
       </c>
-      <c r="H120" s="1"/>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
       <c r="I120" s="1" t="s">
         <v>15</v>
       </c>
@@ -9261,7 +9499,9 @@
       <c r="G121" s="1">
         <v>2</v>
       </c>
-      <c r="H121" s="1"/>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
       <c r="I121" s="1" t="s">
         <v>15</v>
       </c>
@@ -9288,7 +9528,9 @@
       <c r="G122" s="1">
         <v>2008</v>
       </c>
-      <c r="H122" s="1"/>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
       <c r="I122" s="1" t="s">
         <v>404</v>
       </c>
@@ -9315,7 +9557,9 @@
       <c r="G123" s="1">
         <v>1760</v>
       </c>
-      <c r="H123" s="1"/>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
       <c r="I123" s="1" t="s">
         <v>404</v>
       </c>
@@ -9342,7 +9586,9 @@
       <c r="G124" s="1">
         <v>1500</v>
       </c>
-      <c r="H124" s="1"/>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
       <c r="I124" s="1" t="s">
         <v>404</v>
       </c>
@@ -9369,7 +9615,9 @@
       <c r="G125" s="1">
         <v>1365</v>
       </c>
-      <c r="H125" s="1"/>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
       <c r="I125" s="1" t="s">
         <v>404</v>
       </c>
@@ -9396,7 +9644,9 @@
       <c r="G126" s="1">
         <v>1347</v>
       </c>
-      <c r="H126" s="1"/>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
       <c r="I126" s="1" t="s">
         <v>404</v>
       </c>
@@ -9423,7 +9673,9 @@
       <c r="G127" s="1">
         <v>1240</v>
       </c>
-      <c r="H127" s="1"/>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
       <c r="I127" s="1" t="s">
         <v>404</v>
       </c>
@@ -9450,7 +9702,9 @@
       <c r="G128" s="1">
         <v>1009</v>
       </c>
-      <c r="H128" s="1"/>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
       <c r="I128" s="1" t="s">
         <v>404</v>
       </c>
@@ -9477,7 +9731,9 @@
       <c r="G129" s="1">
         <v>791</v>
       </c>
-      <c r="H129" s="1"/>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
       <c r="I129" s="1" t="s">
         <v>404</v>
       </c>
@@ -9504,7 +9760,9 @@
       <c r="G130" s="1">
         <v>784</v>
       </c>
-      <c r="H130" s="1"/>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
       <c r="I130" s="1" t="s">
         <v>404</v>
       </c>
@@ -9531,7 +9789,9 @@
       <c r="G131" s="1">
         <v>624</v>
       </c>
-      <c r="H131" s="1"/>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
       <c r="I131" s="1" t="s">
         <v>404</v>
       </c>
@@ -9558,7 +9818,9 @@
       <c r="G132" s="1">
         <v>594</v>
       </c>
-      <c r="H132" s="1"/>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
       <c r="I132" s="1" t="s">
         <v>404</v>
       </c>
@@ -9585,7 +9847,9 @@
       <c r="G133" s="1">
         <v>581</v>
       </c>
-      <c r="H133" s="1"/>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
       <c r="I133" s="1" t="s">
         <v>404</v>
       </c>
@@ -9612,7 +9876,9 @@
       <c r="G134" s="1">
         <v>523</v>
       </c>
-      <c r="H134" s="1"/>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
       <c r="I134" s="1" t="s">
         <v>404</v>
       </c>
@@ -9639,7 +9905,9 @@
       <c r="G135" s="1">
         <v>473</v>
       </c>
-      <c r="H135" s="1"/>
+      <c r="H135" s="1">
+        <v>1</v>
+      </c>
       <c r="I135" s="1" t="s">
         <v>404</v>
       </c>
@@ -9666,7 +9934,9 @@
       <c r="G136" s="1">
         <v>468</v>
       </c>
-      <c r="H136" s="1"/>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
       <c r="I136" s="1" t="s">
         <v>404</v>
       </c>
@@ -9693,7 +9963,9 @@
       <c r="G137" s="1">
         <v>459</v>
       </c>
-      <c r="H137" s="1"/>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
       <c r="I137" s="1" t="s">
         <v>404</v>
       </c>
@@ -9720,7 +9992,9 @@
       <c r="G138" s="1">
         <v>427</v>
       </c>
-      <c r="H138" s="1"/>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
       <c r="I138" s="1" t="s">
         <v>404</v>
       </c>
@@ -9747,7 +10021,9 @@
       <c r="G139" s="1">
         <v>417</v>
       </c>
-      <c r="H139" s="1"/>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
       <c r="I139" s="1" t="s">
         <v>404</v>
       </c>
@@ -9774,7 +10050,9 @@
       <c r="G140" s="1">
         <v>407</v>
       </c>
-      <c r="H140" s="1"/>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
       <c r="I140" s="1" t="s">
         <v>404</v>
       </c>
@@ -9801,7 +10079,9 @@
       <c r="G141" s="1">
         <v>399</v>
       </c>
-      <c r="H141" s="1"/>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
       <c r="I141" s="1" t="s">
         <v>404</v>
       </c>
@@ -9828,7 +10108,9 @@
       <c r="G142" s="1">
         <v>285</v>
       </c>
-      <c r="H142" s="1"/>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
       <c r="I142" s="1" t="s">
         <v>404</v>
       </c>
@@ -9855,7 +10137,9 @@
       <c r="G143" s="1">
         <v>285</v>
       </c>
-      <c r="H143" s="1"/>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
       <c r="I143" s="1" t="s">
         <v>404</v>
       </c>
@@ -9882,7 +10166,9 @@
       <c r="G144" s="1">
         <v>219</v>
       </c>
-      <c r="H144" s="1"/>
+      <c r="H144" s="1">
+        <v>1</v>
+      </c>
       <c r="I144" s="1" t="s">
         <v>404</v>
       </c>
@@ -9909,7 +10195,9 @@
       <c r="G145" s="1">
         <v>217</v>
       </c>
-      <c r="H145" s="1"/>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
       <c r="I145" s="1" t="s">
         <v>404</v>
       </c>
@@ -9936,7 +10224,9 @@
       <c r="G146" s="1">
         <v>209</v>
       </c>
-      <c r="H146" s="1"/>
+      <c r="H146" s="1">
+        <v>1</v>
+      </c>
       <c r="I146" s="1" t="s">
         <v>404</v>
       </c>
@@ -9963,7 +10253,9 @@
       <c r="G147" s="1">
         <v>206</v>
       </c>
-      <c r="H147" s="1"/>
+      <c r="H147" s="1">
+        <v>1</v>
+      </c>
       <c r="I147" s="1" t="s">
         <v>404</v>
       </c>
@@ -9990,7 +10282,9 @@
       <c r="G148" s="1">
         <v>198</v>
       </c>
-      <c r="H148" s="1"/>
+      <c r="H148" s="1">
+        <v>1</v>
+      </c>
       <c r="I148" s="1" t="s">
         <v>404</v>
       </c>
@@ -10017,7 +10311,9 @@
       <c r="G149" s="1">
         <v>184</v>
       </c>
-      <c r="H149" s="1"/>
+      <c r="H149" s="1">
+        <v>1</v>
+      </c>
       <c r="I149" s="1" t="s">
         <v>404</v>
       </c>
@@ -10044,7 +10340,9 @@
       <c r="G150" s="1">
         <v>164</v>
       </c>
-      <c r="H150" s="1"/>
+      <c r="H150" s="1">
+        <v>1</v>
+      </c>
       <c r="I150" s="1" t="s">
         <v>404</v>
       </c>
@@ -10071,7 +10369,9 @@
       <c r="G151" s="1">
         <v>158</v>
       </c>
-      <c r="H151" s="1"/>
+      <c r="H151" s="1">
+        <v>1</v>
+      </c>
       <c r="I151" s="1" t="s">
         <v>404</v>
       </c>
@@ -10098,7 +10398,9 @@
       <c r="G152" s="1">
         <v>146</v>
       </c>
-      <c r="H152" s="1"/>
+      <c r="H152" s="1">
+        <v>1</v>
+      </c>
       <c r="I152" s="1" t="s">
         <v>404</v>
       </c>
@@ -10125,7 +10427,9 @@
       <c r="G153" s="1">
         <v>117</v>
       </c>
-      <c r="H153" s="1"/>
+      <c r="H153" s="1">
+        <v>1</v>
+      </c>
       <c r="I153" s="1" t="s">
         <v>404</v>
       </c>
@@ -10152,7 +10456,9 @@
       <c r="G154" s="1">
         <v>116</v>
       </c>
-      <c r="H154" s="1"/>
+      <c r="H154" s="1">
+        <v>1</v>
+      </c>
       <c r="I154" s="1" t="s">
         <v>404</v>
       </c>
@@ -10179,7 +10485,9 @@
       <c r="G155" s="1">
         <v>105</v>
       </c>
-      <c r="H155" s="1"/>
+      <c r="H155" s="1">
+        <v>1</v>
+      </c>
       <c r="I155" s="1" t="s">
         <v>404</v>
       </c>
@@ -10206,7 +10514,9 @@
       <c r="G156" s="1">
         <v>96</v>
       </c>
-      <c r="H156" s="1"/>
+      <c r="H156" s="1">
+        <v>1</v>
+      </c>
       <c r="I156" s="1" t="s">
         <v>404</v>
       </c>
@@ -10233,7 +10543,9 @@
       <c r="G157" s="1">
         <v>95</v>
       </c>
-      <c r="H157" s="1"/>
+      <c r="H157" s="1">
+        <v>1</v>
+      </c>
       <c r="I157" s="1" t="s">
         <v>404</v>
       </c>
@@ -10260,7 +10572,9 @@
       <c r="G158" s="1">
         <v>92</v>
       </c>
-      <c r="H158" s="1"/>
+      <c r="H158" s="1">
+        <v>1</v>
+      </c>
       <c r="I158" s="1" t="s">
         <v>404</v>
       </c>
@@ -10287,7 +10601,9 @@
       <c r="G159" s="1">
         <v>91</v>
       </c>
-      <c r="H159" s="1"/>
+      <c r="H159" s="1">
+        <v>1</v>
+      </c>
       <c r="I159" s="1" t="s">
         <v>404</v>
       </c>
@@ -10314,7 +10630,9 @@
       <c r="G160" s="1">
         <v>83</v>
       </c>
-      <c r="H160" s="1"/>
+      <c r="H160" s="1">
+        <v>1</v>
+      </c>
       <c r="I160" s="1" t="s">
         <v>404</v>
       </c>
@@ -10341,7 +10659,9 @@
       <c r="G161" s="1">
         <v>80</v>
       </c>
-      <c r="H161" s="1"/>
+      <c r="H161" s="1">
+        <v>1</v>
+      </c>
       <c r="I161" s="1" t="s">
         <v>404</v>
       </c>
@@ -10368,7 +10688,9 @@
       <c r="G162" s="1">
         <v>73</v>
       </c>
-      <c r="H162" s="1"/>
+      <c r="H162" s="1">
+        <v>1</v>
+      </c>
       <c r="I162" s="1" t="s">
         <v>404</v>
       </c>
@@ -10395,7 +10717,9 @@
       <c r="G163" s="1">
         <v>64</v>
       </c>
-      <c r="H163" s="1"/>
+      <c r="H163" s="1">
+        <v>1</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>404</v>
       </c>
@@ -10422,7 +10746,9 @@
       <c r="G164" s="1">
         <v>63</v>
       </c>
-      <c r="H164" s="1"/>
+      <c r="H164" s="1">
+        <v>1</v>
+      </c>
       <c r="I164" s="1" t="s">
         <v>404</v>
       </c>
@@ -10449,7 +10775,9 @@
       <c r="G165" s="1">
         <v>57</v>
       </c>
-      <c r="H165" s="1"/>
+      <c r="H165" s="1">
+        <v>1</v>
+      </c>
       <c r="I165" s="1" t="s">
         <v>404</v>
       </c>
@@ -10476,7 +10804,9 @@
       <c r="G166" s="1">
         <v>55</v>
       </c>
-      <c r="H166" s="1"/>
+      <c r="H166" s="1">
+        <v>1</v>
+      </c>
       <c r="I166" s="1" t="s">
         <v>404</v>
       </c>
@@ -10503,7 +10833,9 @@
       <c r="G167" s="1">
         <v>50</v>
       </c>
-      <c r="H167" s="1"/>
+      <c r="H167" s="1">
+        <v>1</v>
+      </c>
       <c r="I167" s="1" t="s">
         <v>404</v>
       </c>
@@ -10530,7 +10862,9 @@
       <c r="G168" s="1">
         <v>44</v>
       </c>
-      <c r="H168" s="1"/>
+      <c r="H168" s="1">
+        <v>1</v>
+      </c>
       <c r="I168" s="1" t="s">
         <v>404</v>
       </c>
@@ -10557,7 +10891,9 @@
       <c r="G169" s="1">
         <v>44</v>
       </c>
-      <c r="H169" s="1"/>
+      <c r="H169" s="1">
+        <v>1</v>
+      </c>
       <c r="I169" s="1" t="s">
         <v>404</v>
       </c>
@@ -10584,7 +10920,9 @@
       <c r="G170" s="1">
         <v>33</v>
       </c>
-      <c r="H170" s="1"/>
+      <c r="H170" s="1">
+        <v>1</v>
+      </c>
       <c r="I170" s="1" t="s">
         <v>404</v>
       </c>
@@ -10611,7 +10949,9 @@
       <c r="G171" s="1">
         <v>28</v>
       </c>
-      <c r="H171" s="1"/>
+      <c r="H171" s="1">
+        <v>1</v>
+      </c>
       <c r="I171" s="1" t="s">
         <v>404</v>
       </c>
@@ -10638,7 +10978,9 @@
       <c r="G172" s="1">
         <v>27</v>
       </c>
-      <c r="H172" s="1"/>
+      <c r="H172" s="1">
+        <v>1</v>
+      </c>
       <c r="I172" s="1" t="s">
         <v>404</v>
       </c>
@@ -10665,7 +11007,9 @@
       <c r="G173" s="1">
         <v>23</v>
       </c>
-      <c r="H173" s="1"/>
+      <c r="H173" s="1">
+        <v>1</v>
+      </c>
       <c r="I173" s="1" t="s">
         <v>404</v>
       </c>
@@ -10692,7 +11036,9 @@
       <c r="G174" s="1">
         <v>20</v>
       </c>
-      <c r="H174" s="1"/>
+      <c r="H174" s="1">
+        <v>1</v>
+      </c>
       <c r="I174" s="1" t="s">
         <v>404</v>
       </c>
@@ -10719,7 +11065,9 @@
       <c r="G175" s="1">
         <v>19</v>
       </c>
-      <c r="H175" s="1"/>
+      <c r="H175" s="1">
+        <v>1</v>
+      </c>
       <c r="I175" s="1" t="s">
         <v>404</v>
       </c>
@@ -10746,7 +11094,9 @@
       <c r="G176" s="1">
         <v>17</v>
       </c>
-      <c r="H176" s="1"/>
+      <c r="H176" s="1">
+        <v>1</v>
+      </c>
       <c r="I176" s="1" t="s">
         <v>404</v>
       </c>
@@ -10773,7 +11123,9 @@
       <c r="G177" s="1">
         <v>17</v>
       </c>
-      <c r="H177" s="1"/>
+      <c r="H177" s="1">
+        <v>1</v>
+      </c>
       <c r="I177" s="1" t="s">
         <v>404</v>
       </c>
@@ -10800,7 +11152,9 @@
       <c r="G178" s="1">
         <v>16</v>
       </c>
-      <c r="H178" s="1"/>
+      <c r="H178" s="1">
+        <v>1</v>
+      </c>
       <c r="I178" s="1" t="s">
         <v>404</v>
       </c>
@@ -10827,7 +11181,9 @@
       <c r="G179" s="1">
         <v>15</v>
       </c>
-      <c r="H179" s="1"/>
+      <c r="H179" s="1">
+        <v>1</v>
+      </c>
       <c r="I179" s="1" t="s">
         <v>404</v>
       </c>
@@ -10854,7 +11210,9 @@
       <c r="G180" s="1">
         <v>15</v>
       </c>
-      <c r="H180" s="1"/>
+      <c r="H180" s="1">
+        <v>1</v>
+      </c>
       <c r="I180" s="1" t="s">
         <v>404</v>
       </c>
@@ -10881,7 +11239,9 @@
       <c r="G181" s="1">
         <v>10</v>
       </c>
-      <c r="H181" s="1"/>
+      <c r="H181" s="1">
+        <v>1</v>
+      </c>
       <c r="I181" s="1" t="s">
         <v>404</v>
       </c>
@@ -10908,7 +11268,9 @@
       <c r="G182" s="1">
         <v>9</v>
       </c>
-      <c r="H182" s="1"/>
+      <c r="H182" s="1">
+        <v>1</v>
+      </c>
       <c r="I182" s="1" t="s">
         <v>404</v>
       </c>
@@ -10935,7 +11297,9 @@
       <c r="G183" s="1">
         <v>9</v>
       </c>
-      <c r="H183" s="1"/>
+      <c r="H183" s="1">
+        <v>1</v>
+      </c>
       <c r="I183" s="1" t="s">
         <v>404</v>
       </c>
@@ -10962,7 +11326,9 @@
       <c r="G184" s="1">
         <v>8</v>
       </c>
-      <c r="H184" s="1"/>
+      <c r="H184" s="1">
+        <v>1</v>
+      </c>
       <c r="I184" s="1" t="s">
         <v>404</v>
       </c>
@@ -10989,7 +11355,9 @@
       <c r="G185" s="1">
         <v>8</v>
       </c>
-      <c r="H185" s="1"/>
+      <c r="H185" s="1">
+        <v>1</v>
+      </c>
       <c r="I185" s="1" t="s">
         <v>404</v>
       </c>
@@ -11016,7 +11384,9 @@
       <c r="G186" s="1">
         <v>8</v>
       </c>
-      <c r="H186" s="1"/>
+      <c r="H186" s="1">
+        <v>1</v>
+      </c>
       <c r="I186" s="1" t="s">
         <v>404</v>
       </c>
@@ -11043,7 +11413,9 @@
       <c r="G187" s="1">
         <v>8</v>
       </c>
-      <c r="H187" s="1"/>
+      <c r="H187" s="1">
+        <v>1</v>
+      </c>
       <c r="I187" s="1" t="s">
         <v>404</v>
       </c>
@@ -11070,7 +11442,9 @@
       <c r="G188" s="1">
         <v>7</v>
       </c>
-      <c r="H188" s="1"/>
+      <c r="H188" s="1">
+        <v>1</v>
+      </c>
       <c r="I188" s="1" t="s">
         <v>404</v>
       </c>
@@ -11097,7 +11471,9 @@
       <c r="G189" s="1">
         <v>6</v>
       </c>
-      <c r="H189" s="1"/>
+      <c r="H189" s="1">
+        <v>1</v>
+      </c>
       <c r="I189" s="1" t="s">
         <v>404</v>
       </c>
@@ -11124,7 +11500,9 @@
       <c r="G190" s="1">
         <v>6</v>
       </c>
-      <c r="H190" s="1"/>
+      <c r="H190" s="1">
+        <v>1</v>
+      </c>
       <c r="I190" s="1" t="s">
         <v>404</v>
       </c>
@@ -11151,7 +11529,9 @@
       <c r="G191" s="1">
         <v>5</v>
       </c>
-      <c r="H191" s="1"/>
+      <c r="H191" s="1">
+        <v>1</v>
+      </c>
       <c r="I191" s="1" t="s">
         <v>404</v>
       </c>
@@ -11178,7 +11558,9 @@
       <c r="G192" s="1">
         <v>5</v>
       </c>
-      <c r="H192" s="1"/>
+      <c r="H192" s="1">
+        <v>1</v>
+      </c>
       <c r="I192" s="1" t="s">
         <v>404</v>
       </c>
@@ -11205,7 +11587,9 @@
       <c r="G193" s="1">
         <v>5</v>
       </c>
-      <c r="H193" s="1"/>
+      <c r="H193" s="1">
+        <v>1</v>
+      </c>
       <c r="I193" s="1" t="s">
         <v>404</v>
       </c>
@@ -11232,7 +11616,9 @@
       <c r="G194" s="1">
         <v>4</v>
       </c>
-      <c r="H194" s="1"/>
+      <c r="H194" s="1">
+        <v>1</v>
+      </c>
       <c r="I194" s="1" t="s">
         <v>404</v>
       </c>
@@ -11259,7 +11645,9 @@
       <c r="G195" s="1">
         <v>3</v>
       </c>
-      <c r="H195" s="1"/>
+      <c r="H195" s="1">
+        <v>1</v>
+      </c>
       <c r="I195" s="1" t="s">
         <v>404</v>
       </c>
@@ -11286,7 +11674,9 @@
       <c r="G196" s="1">
         <v>3</v>
       </c>
-      <c r="H196" s="1"/>
+      <c r="H196" s="1">
+        <v>1</v>
+      </c>
       <c r="I196" s="1" t="s">
         <v>404</v>
       </c>
@@ -11313,7 +11703,9 @@
       <c r="G197" s="1">
         <v>2</v>
       </c>
-      <c r="H197" s="1"/>
+      <c r="H197" s="1">
+        <v>1</v>
+      </c>
       <c r="I197" s="1" t="s">
         <v>404</v>
       </c>
@@ -11340,7 +11732,9 @@
       <c r="G198" s="1">
         <v>1</v>
       </c>
-      <c r="H198" s="1"/>
+      <c r="H198" s="1">
+        <v>1</v>
+      </c>
       <c r="I198" s="1" t="s">
         <v>404</v>
       </c>
@@ -11367,7 +11761,9 @@
       <c r="G199" s="1">
         <v>1</v>
       </c>
-      <c r="H199" s="1"/>
+      <c r="H199" s="1">
+        <v>1</v>
+      </c>
       <c r="I199" s="1" t="s">
         <v>404</v>
       </c>
@@ -11394,7 +11790,9 @@
       <c r="G200" s="1">
         <v>1</v>
       </c>
-      <c r="H200" s="1"/>
+      <c r="H200" s="1">
+        <v>1</v>
+      </c>
       <c r="I200" s="1" t="s">
         <v>404</v>
       </c>
@@ -11421,7 +11819,9 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
-      <c r="H201" s="1"/>
+      <c r="H201" s="1">
+        <v>1</v>
+      </c>
       <c r="I201" s="1" t="s">
         <v>404</v>
       </c>
@@ -11448,7 +11848,9 @@
       <c r="G202" s="1">
         <v>0</v>
       </c>
-      <c r="H202" s="1"/>
+      <c r="H202" s="1">
+        <v>1</v>
+      </c>
       <c r="I202" s="1" t="s">
         <v>404</v>
       </c>
@@ -11475,7 +11877,9 @@
       <c r="G203" s="1">
         <v>0</v>
       </c>
-      <c r="H203" s="1"/>
+      <c r="H203" s="1">
+        <v>1</v>
+      </c>
       <c r="I203" s="1" t="s">
         <v>404</v>
       </c>
@@ -11502,7 +11906,9 @@
       <c r="G204" s="1">
         <v>0</v>
       </c>
-      <c r="H204" s="1"/>
+      <c r="H204" s="1">
+        <v>1</v>
+      </c>
       <c r="I204" s="1" t="s">
         <v>404</v>
       </c>
@@ -11529,7 +11935,9 @@
       <c r="G205" s="1">
         <v>0</v>
       </c>
-      <c r="H205" s="1"/>
+      <c r="H205" s="1">
+        <v>1</v>
+      </c>
       <c r="I205" s="1" t="s">
         <v>404</v>
       </c>
@@ -11556,7 +11964,9 @@
       <c r="G206" s="1">
         <v>0</v>
       </c>
-      <c r="H206" s="1"/>
+      <c r="H206" s="1">
+        <v>1</v>
+      </c>
       <c r="I206" s="1" t="s">
         <v>404</v>
       </c>
@@ -11583,7 +11993,9 @@
       <c r="G207" s="1">
         <v>0</v>
       </c>
-      <c r="H207" s="1"/>
+      <c r="H207" s="1">
+        <v>1</v>
+      </c>
       <c r="I207" s="1" t="s">
         <v>404</v>
       </c>
@@ -11610,7 +12022,9 @@
       <c r="G208" s="1">
         <v>0</v>
       </c>
-      <c r="H208" s="1"/>
+      <c r="H208" s="1">
+        <v>1</v>
+      </c>
       <c r="I208" s="1" t="s">
         <v>404</v>
       </c>
@@ -11637,7 +12051,9 @@
       <c r="G209" s="1">
         <v>0</v>
       </c>
-      <c r="H209" s="1"/>
+      <c r="H209" s="1">
+        <v>1</v>
+      </c>
       <c r="I209" s="1" t="s">
         <v>404</v>
       </c>
@@ -11664,7 +12080,9 @@
       <c r="G210" s="1">
         <v>0</v>
       </c>
-      <c r="H210" s="1"/>
+      <c r="H210" s="1">
+        <v>1</v>
+      </c>
       <c r="I210" s="1" t="s">
         <v>404</v>
       </c>
@@ -11691,7 +12109,9 @@
       <c r="G211" s="1">
         <v>0</v>
       </c>
-      <c r="H211" s="1"/>
+      <c r="H211" s="1">
+        <v>1</v>
+      </c>
       <c r="I211" s="1" t="s">
         <v>404</v>
       </c>
@@ -11718,7 +12138,9 @@
       <c r="G212" s="1">
         <v>0</v>
       </c>
-      <c r="H212" s="1"/>
+      <c r="H212" s="1">
+        <v>1</v>
+      </c>
       <c r="I212" s="1" t="s">
         <v>404</v>
       </c>
@@ -11745,7 +12167,9 @@
       <c r="G213" s="1">
         <v>0</v>
       </c>
-      <c r="H213" s="1"/>
+      <c r="H213" s="1">
+        <v>1</v>
+      </c>
       <c r="I213" s="1" t="s">
         <v>404</v>
       </c>
@@ -11772,7 +12196,9 @@
       <c r="G214" s="1">
         <v>0</v>
       </c>
-      <c r="H214" s="1"/>
+      <c r="H214" s="1">
+        <v>1</v>
+      </c>
       <c r="I214" s="1" t="s">
         <v>404</v>
       </c>
@@ -11799,7 +12225,9 @@
       <c r="G215" s="1">
         <v>0</v>
       </c>
-      <c r="H215" s="1"/>
+      <c r="H215" s="1">
+        <v>1</v>
+      </c>
       <c r="I215" s="1" t="s">
         <v>404</v>
       </c>
@@ -11826,7 +12254,9 @@
       <c r="G216" s="1">
         <v>0</v>
       </c>
-      <c r="H216" s="1"/>
+      <c r="H216" s="1">
+        <v>1</v>
+      </c>
       <c r="I216" s="1" t="s">
         <v>404</v>
       </c>
@@ -11853,7 +12283,9 @@
       <c r="G217" s="1">
         <v>0</v>
       </c>
-      <c r="H217" s="1"/>
+      <c r="H217" s="1">
+        <v>1</v>
+      </c>
       <c r="I217" s="1" t="s">
         <v>404</v>
       </c>
@@ -11880,7 +12312,9 @@
       <c r="G218" s="1">
         <v>0</v>
       </c>
-      <c r="H218" s="1"/>
+      <c r="H218" s="1">
+        <v>1</v>
+      </c>
       <c r="I218" s="1" t="s">
         <v>404</v>
       </c>
@@ -11907,7 +12341,9 @@
       <c r="G219" s="1">
         <v>610</v>
       </c>
-      <c r="H219" s="1"/>
+      <c r="H219" s="1">
+        <v>1</v>
+      </c>
       <c r="I219" s="1" t="s">
         <v>608</v>
       </c>
@@ -11934,7 +12370,9 @@
       <c r="G220" s="1">
         <v>409</v>
       </c>
-      <c r="H220" s="1"/>
+      <c r="H220" s="1">
+        <v>1</v>
+      </c>
       <c r="I220" s="1" t="s">
         <v>608</v>
       </c>
@@ -11961,7 +12399,9 @@
       <c r="G221" s="1">
         <v>344</v>
       </c>
-      <c r="H221" s="1"/>
+      <c r="H221" s="1">
+        <v>1</v>
+      </c>
       <c r="I221" s="1" t="s">
         <v>608</v>
       </c>
@@ -11988,7 +12428,9 @@
       <c r="G222" s="1">
         <v>333</v>
       </c>
-      <c r="H222" s="1"/>
+      <c r="H222" s="1">
+        <v>1</v>
+      </c>
       <c r="I222" s="1" t="s">
         <v>608</v>
       </c>
@@ -12015,7 +12457,9 @@
       <c r="G223" s="1">
         <v>250</v>
       </c>
-      <c r="H223" s="1"/>
+      <c r="H223" s="1">
+        <v>1</v>
+      </c>
       <c r="I223" s="1" t="s">
         <v>608</v>
       </c>
@@ -12042,7 +12486,9 @@
       <c r="G224" s="1">
         <v>212</v>
       </c>
-      <c r="H224" s="1"/>
+      <c r="H224" s="1">
+        <v>1</v>
+      </c>
       <c r="I224" s="1" t="s">
         <v>608</v>
       </c>
@@ -12069,7 +12515,9 @@
       <c r="G225" s="1">
         <v>206</v>
       </c>
-      <c r="H225" s="1"/>
+      <c r="H225" s="1">
+        <v>1</v>
+      </c>
       <c r="I225" s="1" t="s">
         <v>608</v>
       </c>
@@ -12096,7 +12544,9 @@
       <c r="G226" s="1">
         <v>203</v>
       </c>
-      <c r="H226" s="1"/>
+      <c r="H226" s="1">
+        <v>1</v>
+      </c>
       <c r="I226" s="1" t="s">
         <v>608</v>
       </c>
@@ -12123,7 +12573,9 @@
       <c r="G227" s="1">
         <v>174</v>
       </c>
-      <c r="H227" s="1"/>
+      <c r="H227" s="1">
+        <v>1</v>
+      </c>
       <c r="I227" s="1" t="s">
         <v>608</v>
       </c>
@@ -12150,7 +12602,9 @@
       <c r="G228" s="1">
         <v>156</v>
       </c>
-      <c r="H228" s="1"/>
+      <c r="H228" s="1">
+        <v>1</v>
+      </c>
       <c r="I228" s="1" t="s">
         <v>608</v>
       </c>
@@ -12177,7 +12631,9 @@
       <c r="G229" s="1">
         <v>152</v>
       </c>
-      <c r="H229" s="1"/>
+      <c r="H229" s="1">
+        <v>1</v>
+      </c>
       <c r="I229" s="1" t="s">
         <v>608</v>
       </c>
@@ -12204,7 +12660,9 @@
       <c r="G230" s="1">
         <v>139</v>
       </c>
-      <c r="H230" s="1"/>
+      <c r="H230" s="1">
+        <v>1</v>
+      </c>
       <c r="I230" s="1" t="s">
         <v>608</v>
       </c>
@@ -12231,7 +12689,9 @@
       <c r="G231" s="1">
         <v>73</v>
       </c>
-      <c r="H231" s="1"/>
+      <c r="H231" s="1">
+        <v>1</v>
+      </c>
       <c r="I231" s="1" t="s">
         <v>608</v>
       </c>
@@ -12258,7 +12718,9 @@
       <c r="G232" s="1">
         <v>70</v>
       </c>
-      <c r="H232" s="1"/>
+      <c r="H232" s="1">
+        <v>1</v>
+      </c>
       <c r="I232" s="1" t="s">
         <v>608</v>
       </c>
@@ -12285,7 +12747,9 @@
       <c r="G233" s="1">
         <v>59</v>
       </c>
-      <c r="H233" s="1"/>
+      <c r="H233" s="1">
+        <v>1</v>
+      </c>
       <c r="I233" s="1" t="s">
         <v>608</v>
       </c>
@@ -12312,7 +12776,9 @@
       <c r="G234" s="1">
         <v>53</v>
       </c>
-      <c r="H234" s="1"/>
+      <c r="H234" s="1">
+        <v>1</v>
+      </c>
       <c r="I234" s="1" t="s">
         <v>608</v>
       </c>
@@ -12339,7 +12805,9 @@
       <c r="G235" s="1">
         <v>43</v>
       </c>
-      <c r="H235" s="1"/>
+      <c r="H235" s="1">
+        <v>1</v>
+      </c>
       <c r="I235" s="1" t="s">
         <v>608</v>
       </c>
@@ -12366,7 +12834,9 @@
       <c r="G236" s="1">
         <v>30</v>
       </c>
-      <c r="H236" s="1"/>
+      <c r="H236" s="1">
+        <v>1</v>
+      </c>
       <c r="I236" s="1" t="s">
         <v>608</v>
       </c>
@@ -12393,7 +12863,9 @@
       <c r="G237" s="1">
         <v>30</v>
       </c>
-      <c r="H237" s="1"/>
+      <c r="H237" s="1">
+        <v>1</v>
+      </c>
       <c r="I237" s="1" t="s">
         <v>608</v>
       </c>
@@ -12420,7 +12892,9 @@
       <c r="G238" s="1">
         <v>24</v>
       </c>
-      <c r="H238" s="1"/>
+      <c r="H238" s="1">
+        <v>1</v>
+      </c>
       <c r="I238" s="1" t="s">
         <v>608</v>
       </c>
@@ -12447,7 +12921,9 @@
       <c r="G239" s="1">
         <v>15</v>
       </c>
-      <c r="H239" s="1"/>
+      <c r="H239" s="1">
+        <v>1</v>
+      </c>
       <c r="I239" s="1" t="s">
         <v>608</v>
       </c>
@@ -12474,7 +12950,9 @@
       <c r="G240" s="1">
         <v>15</v>
       </c>
-      <c r="H240" s="1"/>
+      <c r="H240" s="1">
+        <v>1</v>
+      </c>
       <c r="I240" s="1" t="s">
         <v>608</v>
       </c>
@@ -12501,7 +12979,9 @@
       <c r="G241" s="1">
         <v>11</v>
       </c>
-      <c r="H241" s="1"/>
+      <c r="H241" s="1">
+        <v>1</v>
+      </c>
       <c r="I241" s="1" t="s">
         <v>608</v>
       </c>
@@ -12528,7 +13008,9 @@
       <c r="G242" s="1">
         <v>8</v>
       </c>
-      <c r="H242" s="1"/>
+      <c r="H242" s="1">
+        <v>1</v>
+      </c>
       <c r="I242" s="1" t="s">
         <v>608</v>
       </c>
@@ -12555,7 +13037,9 @@
       <c r="G243" s="1">
         <v>7</v>
       </c>
-      <c r="H243" s="1"/>
+      <c r="H243" s="1">
+        <v>1</v>
+      </c>
       <c r="I243" s="1" t="s">
         <v>608</v>
       </c>
@@ -12582,7 +13066,9 @@
       <c r="G244" s="1">
         <v>4</v>
       </c>
-      <c r="H244" s="1"/>
+      <c r="H244" s="1">
+        <v>1</v>
+      </c>
       <c r="I244" s="1" t="s">
         <v>608</v>
       </c>
@@ -12609,7 +13095,9 @@
       <c r="G245" s="1">
         <v>3</v>
       </c>
-      <c r="H245" s="1"/>
+      <c r="H245" s="1">
+        <v>1</v>
+      </c>
       <c r="I245" s="1" t="s">
         <v>608</v>
       </c>
@@ -12636,7 +13124,9 @@
       <c r="G246" s="1">
         <v>3</v>
       </c>
-      <c r="H246" s="1"/>
+      <c r="H246" s="1">
+        <v>1</v>
+      </c>
       <c r="I246" s="1" t="s">
         <v>608</v>
       </c>
@@ -12663,7 +13153,9 @@
       <c r="G247" s="1">
         <v>3</v>
       </c>
-      <c r="H247" s="1"/>
+      <c r="H247" s="1">
+        <v>1</v>
+      </c>
       <c r="I247" s="1" t="s">
         <v>608</v>
       </c>
@@ -12690,7 +13182,9 @@
       <c r="G248" s="1">
         <v>2</v>
       </c>
-      <c r="H248" s="1"/>
+      <c r="H248" s="1">
+        <v>1</v>
+      </c>
       <c r="I248" s="1" t="s">
         <v>608</v>
       </c>
@@ -12717,7 +13211,9 @@
       <c r="G249" s="1">
         <v>1</v>
       </c>
-      <c r="H249" s="1"/>
+      <c r="H249" s="1">
+        <v>1</v>
+      </c>
       <c r="I249" s="1" t="s">
         <v>608</v>
       </c>
@@ -12744,7 +13240,9 @@
       <c r="G250" s="1">
         <v>1</v>
       </c>
-      <c r="H250" s="1"/>
+      <c r="H250" s="1">
+        <v>1</v>
+      </c>
       <c r="I250" s="1" t="s">
         <v>608</v>
       </c>
@@ -12771,7 +13269,9 @@
       <c r="G251" s="1">
         <v>1</v>
       </c>
-      <c r="H251" s="1"/>
+      <c r="H251" s="1">
+        <v>1</v>
+      </c>
       <c r="I251" s="1" t="s">
         <v>608</v>
       </c>
@@ -12798,7 +13298,9 @@
       <c r="G252" s="1">
         <v>1</v>
       </c>
-      <c r="H252" s="1"/>
+      <c r="H252" s="1">
+        <v>1</v>
+      </c>
       <c r="I252" s="1" t="s">
         <v>608</v>
       </c>
@@ -12825,7 +13327,9 @@
       <c r="G253" s="1">
         <v>1</v>
       </c>
-      <c r="H253" s="1"/>
+      <c r="H253" s="1">
+        <v>1</v>
+      </c>
       <c r="I253" s="1" t="s">
         <v>608</v>
       </c>
@@ -12852,7 +13356,9 @@
       <c r="G254" s="1">
         <v>1</v>
       </c>
-      <c r="H254" s="1"/>
+      <c r="H254" s="1">
+        <v>1</v>
+      </c>
       <c r="I254" s="1" t="s">
         <v>608</v>
       </c>
@@ -12879,7 +13385,9 @@
       <c r="G255" s="1">
         <v>1</v>
       </c>
-      <c r="H255" s="1"/>
+      <c r="H255" s="1">
+        <v>1</v>
+      </c>
       <c r="I255" s="1" t="s">
         <v>608</v>
       </c>
@@ -12906,7 +13414,9 @@
       <c r="G256" s="1">
         <v>0</v>
       </c>
-      <c r="H256" s="1"/>
+      <c r="H256" s="1">
+        <v>1</v>
+      </c>
       <c r="I256" s="1" t="s">
         <v>608</v>
       </c>
@@ -12933,7 +13443,9 @@
       <c r="G257" s="1">
         <v>0</v>
       </c>
-      <c r="H257" s="1"/>
+      <c r="H257" s="1">
+        <v>1</v>
+      </c>
       <c r="I257" s="1" t="s">
         <v>608</v>
       </c>
@@ -12960,7 +13472,9 @@
       <c r="G258" s="1">
         <v>0</v>
       </c>
-      <c r="H258" s="1"/>
+      <c r="H258" s="1">
+        <v>1</v>
+      </c>
       <c r="I258" s="1" t="s">
         <v>608</v>
       </c>
@@ -12987,7 +13501,9 @@
       <c r="G259" s="1">
         <v>0</v>
       </c>
-      <c r="H259" s="1"/>
+      <c r="H259" s="1">
+        <v>1</v>
+      </c>
       <c r="I259" s="1" t="s">
         <v>608</v>
       </c>
@@ -13014,7 +13530,9 @@
       <c r="G260" s="1">
         <v>0</v>
       </c>
-      <c r="H260" s="1"/>
+      <c r="H260" s="1">
+        <v>1</v>
+      </c>
       <c r="I260" s="1" t="s">
         <v>608</v>
       </c>
@@ -13041,7 +13559,9 @@
       <c r="G261" s="1">
         <v>0</v>
       </c>
-      <c r="H261" s="1"/>
+      <c r="H261" s="1">
+        <v>1</v>
+      </c>
       <c r="I261" s="1" t="s">
         <v>608</v>
       </c>
@@ -13068,7 +13588,9 @@
       <c r="G262" s="1">
         <v>0</v>
       </c>
-      <c r="H262" s="1"/>
+      <c r="H262" s="1">
+        <v>1</v>
+      </c>
       <c r="I262" s="1" t="s">
         <v>608</v>
       </c>
@@ -13095,7 +13617,9 @@
       <c r="G263" s="1">
         <v>0</v>
       </c>
-      <c r="H263" s="1"/>
+      <c r="H263" s="1">
+        <v>1</v>
+      </c>
       <c r="I263" s="1" t="s">
         <v>608</v>
       </c>
@@ -13122,7 +13646,9 @@
       <c r="G264" s="1">
         <v>2111</v>
       </c>
-      <c r="H264" s="1"/>
+      <c r="H264" s="1">
+        <v>1</v>
+      </c>
       <c r="I264" s="1" t="s">
         <v>739</v>
       </c>
@@ -13149,7 +13675,9 @@
       <c r="G265" s="1">
         <v>1181</v>
       </c>
-      <c r="H265" s="1"/>
+      <c r="H265" s="1">
+        <v>1</v>
+      </c>
       <c r="I265" s="1" t="s">
         <v>739</v>
       </c>
@@ -13176,7 +13704,9 @@
       <c r="G266" s="1">
         <v>1126</v>
       </c>
-      <c r="H266" s="1"/>
+      <c r="H266" s="1">
+        <v>1</v>
+      </c>
       <c r="I266" s="1" t="s">
         <v>739</v>
       </c>
@@ -13203,7 +13733,9 @@
       <c r="G267" s="1">
         <v>1050</v>
       </c>
-      <c r="H267" s="1"/>
+      <c r="H267" s="1">
+        <v>1</v>
+      </c>
       <c r="I267" s="1" t="s">
         <v>739</v>
       </c>
@@ -13230,7 +13762,9 @@
       <c r="G268" s="1">
         <v>1040</v>
       </c>
-      <c r="H268" s="1"/>
+      <c r="H268" s="1">
+        <v>1</v>
+      </c>
       <c r="I268" s="1" t="s">
         <v>739</v>
       </c>
@@ -13257,7 +13791,9 @@
       <c r="G269" s="1">
         <v>886</v>
       </c>
-      <c r="H269" s="1"/>
+      <c r="H269" s="1">
+        <v>1</v>
+      </c>
       <c r="I269" s="1" t="s">
         <v>739</v>
       </c>
@@ -13284,7 +13820,9 @@
       <c r="G270" s="1">
         <v>852</v>
       </c>
-      <c r="H270" s="1"/>
+      <c r="H270" s="1">
+        <v>1</v>
+      </c>
       <c r="I270" s="1" t="s">
         <v>739</v>
       </c>
@@ -13311,7 +13849,9 @@
       <c r="G271" s="1">
         <v>848</v>
       </c>
-      <c r="H271" s="1"/>
+      <c r="H271" s="1">
+        <v>1</v>
+      </c>
       <c r="I271" s="1" t="s">
         <v>739</v>
       </c>
@@ -13338,7 +13878,9 @@
       <c r="G272" s="1">
         <v>843</v>
       </c>
-      <c r="H272" s="1"/>
+      <c r="H272" s="1">
+        <v>1</v>
+      </c>
       <c r="I272" s="1" t="s">
         <v>739</v>
       </c>
@@ -13365,7 +13907,9 @@
       <c r="G273" s="1">
         <v>814</v>
       </c>
-      <c r="H273" s="1"/>
+      <c r="H273" s="1">
+        <v>1</v>
+      </c>
       <c r="I273" s="1" t="s">
         <v>739</v>
       </c>
@@ -13392,7 +13936,9 @@
       <c r="G274" s="1">
         <v>802</v>
       </c>
-      <c r="H274" s="1"/>
+      <c r="H274" s="1">
+        <v>1</v>
+      </c>
       <c r="I274" s="1" t="s">
         <v>739</v>
       </c>
@@ -13419,7 +13965,9 @@
       <c r="G275" s="1">
         <v>788</v>
       </c>
-      <c r="H275" s="1"/>
+      <c r="H275" s="1">
+        <v>1</v>
+      </c>
       <c r="I275" s="1" t="s">
         <v>739</v>
       </c>
@@ -13446,7 +13994,9 @@
       <c r="G276" s="1">
         <v>761</v>
       </c>
-      <c r="H276" s="1"/>
+      <c r="H276" s="1">
+        <v>1</v>
+      </c>
       <c r="I276" s="1" t="s">
         <v>739</v>
       </c>
@@ -13473,7 +14023,9 @@
       <c r="G277" s="1">
         <v>696</v>
       </c>
-      <c r="H277" s="1"/>
+      <c r="H277" s="1">
+        <v>1</v>
+      </c>
       <c r="I277" s="1" t="s">
         <v>739</v>
       </c>
@@ -13500,7 +14052,9 @@
       <c r="G278" s="1">
         <v>693</v>
       </c>
-      <c r="H278" s="1"/>
+      <c r="H278" s="1">
+        <v>1</v>
+      </c>
       <c r="I278" s="1" t="s">
         <v>739</v>
       </c>
@@ -13527,7 +14081,9 @@
       <c r="G279" s="1">
         <v>617</v>
       </c>
-      <c r="H279" s="1"/>
+      <c r="H279" s="1">
+        <v>1</v>
+      </c>
       <c r="I279" s="1" t="s">
         <v>739</v>
       </c>
@@ -13554,7 +14110,9 @@
       <c r="G280" s="1">
         <v>545</v>
       </c>
-      <c r="H280" s="1"/>
+      <c r="H280" s="1">
+        <v>1</v>
+      </c>
       <c r="I280" s="1" t="s">
         <v>739</v>
       </c>
@@ -13581,7 +14139,9 @@
       <c r="G281" s="1">
         <v>540</v>
       </c>
-      <c r="H281" s="1"/>
+      <c r="H281" s="1">
+        <v>1</v>
+      </c>
       <c r="I281" s="1" t="s">
         <v>739</v>
       </c>
@@ -13608,7 +14168,9 @@
       <c r="G282" s="1">
         <v>503</v>
       </c>
-      <c r="H282" s="1"/>
+      <c r="H282" s="1">
+        <v>1</v>
+      </c>
       <c r="I282" s="1" t="s">
         <v>739</v>
       </c>
@@ -13635,7 +14197,9 @@
       <c r="G283" s="1">
         <v>491</v>
       </c>
-      <c r="H283" s="1"/>
+      <c r="H283" s="1">
+        <v>1</v>
+      </c>
       <c r="I283" s="1" t="s">
         <v>739</v>
       </c>
@@ -13662,7 +14226,9 @@
       <c r="G284" s="1">
         <v>448</v>
       </c>
-      <c r="H284" s="1"/>
+      <c r="H284" s="1">
+        <v>1</v>
+      </c>
       <c r="I284" s="1" t="s">
         <v>739</v>
       </c>
@@ -13689,7 +14255,9 @@
       <c r="G285" s="1">
         <v>446</v>
       </c>
-      <c r="H285" s="1"/>
+      <c r="H285" s="1">
+        <v>1</v>
+      </c>
       <c r="I285" s="1" t="s">
         <v>739</v>
       </c>
@@ -13716,7 +14284,9 @@
       <c r="G286" s="1">
         <v>435</v>
       </c>
-      <c r="H286" s="1"/>
+      <c r="H286" s="1">
+        <v>1</v>
+      </c>
       <c r="I286" s="1" t="s">
         <v>739</v>
       </c>
@@ -13743,7 +14313,9 @@
       <c r="G287" s="1">
         <v>415</v>
       </c>
-      <c r="H287" s="1"/>
+      <c r="H287" s="1">
+        <v>1</v>
+      </c>
       <c r="I287" s="1" t="s">
         <v>739</v>
       </c>
@@ -13770,7 +14342,9 @@
       <c r="G288" s="1">
         <v>396</v>
       </c>
-      <c r="H288" s="1"/>
+      <c r="H288" s="1">
+        <v>1</v>
+      </c>
       <c r="I288" s="1" t="s">
         <v>739</v>
       </c>
@@ -13797,7 +14371,9 @@
       <c r="G289" s="1">
         <v>388</v>
       </c>
-      <c r="H289" s="1"/>
+      <c r="H289" s="1">
+        <v>1</v>
+      </c>
       <c r="I289" s="1" t="s">
         <v>739</v>
       </c>
@@ -13824,7 +14400,9 @@
       <c r="G290" s="1">
         <v>368</v>
       </c>
-      <c r="H290" s="1"/>
+      <c r="H290" s="1">
+        <v>1</v>
+      </c>
       <c r="I290" s="1" t="s">
         <v>739</v>
       </c>
@@ -13851,7 +14429,9 @@
       <c r="G291" s="1">
         <v>344</v>
       </c>
-      <c r="H291" s="1"/>
+      <c r="H291" s="1">
+        <v>1</v>
+      </c>
       <c r="I291" s="1" t="s">
         <v>739</v>
       </c>
@@ -13878,7 +14458,9 @@
       <c r="G292" s="1">
         <v>326</v>
       </c>
-      <c r="H292" s="1"/>
+      <c r="H292" s="1">
+        <v>1</v>
+      </c>
       <c r="I292" s="1" t="s">
         <v>739</v>
       </c>
@@ -13905,7 +14487,9 @@
       <c r="G293" s="1">
         <v>322</v>
       </c>
-      <c r="H293" s="1"/>
+      <c r="H293" s="1">
+        <v>1</v>
+      </c>
       <c r="I293" s="1" t="s">
         <v>739</v>
       </c>
@@ -13932,7 +14516,9 @@
       <c r="G294" s="1">
         <v>321</v>
       </c>
-      <c r="H294" s="1"/>
+      <c r="H294" s="1">
+        <v>1</v>
+      </c>
       <c r="I294" s="1" t="s">
         <v>739</v>
       </c>
@@ -13959,7 +14545,9 @@
       <c r="G295" s="1">
         <v>315</v>
       </c>
-      <c r="H295" s="1"/>
+      <c r="H295" s="1">
+        <v>1</v>
+      </c>
       <c r="I295" s="1" t="s">
         <v>739</v>
       </c>
@@ -13986,7 +14574,9 @@
       <c r="G296" s="1">
         <v>308</v>
       </c>
-      <c r="H296" s="1"/>
+      <c r="H296" s="1">
+        <v>1</v>
+      </c>
       <c r="I296" s="1" t="s">
         <v>739</v>
       </c>
@@ -14013,7 +14603,9 @@
       <c r="G297" s="1">
         <v>308</v>
       </c>
-      <c r="H297" s="1"/>
+      <c r="H297" s="1">
+        <v>1</v>
+      </c>
       <c r="I297" s="1" t="s">
         <v>739</v>
       </c>
@@ -14040,7 +14632,9 @@
       <c r="G298" s="1">
         <v>296</v>
       </c>
-      <c r="H298" s="1"/>
+      <c r="H298" s="1">
+        <v>1</v>
+      </c>
       <c r="I298" s="1" t="s">
         <v>739</v>
       </c>
@@ -14067,7 +14661,9 @@
       <c r="G299" s="1">
         <v>292</v>
       </c>
-      <c r="H299" s="1"/>
+      <c r="H299" s="1">
+        <v>1</v>
+      </c>
       <c r="I299" s="1" t="s">
         <v>739</v>
       </c>
@@ -14094,7 +14690,9 @@
       <c r="G300" s="1">
         <v>292</v>
       </c>
-      <c r="H300" s="1"/>
+      <c r="H300" s="1">
+        <v>1</v>
+      </c>
       <c r="I300" s="1" t="s">
         <v>739</v>
       </c>
@@ -14121,7 +14719,9 @@
       <c r="G301" s="1">
         <v>285</v>
       </c>
-      <c r="H301" s="1"/>
+      <c r="H301" s="1">
+        <v>1</v>
+      </c>
       <c r="I301" s="1" t="s">
         <v>739</v>
       </c>
@@ -14148,7 +14748,9 @@
       <c r="G302" s="1">
         <v>284</v>
       </c>
-      <c r="H302" s="1"/>
+      <c r="H302" s="1">
+        <v>1</v>
+      </c>
       <c r="I302" s="1" t="s">
         <v>739</v>
       </c>
@@ -14175,7 +14777,9 @@
       <c r="G303" s="1">
         <v>283</v>
       </c>
-      <c r="H303" s="1"/>
+      <c r="H303" s="1">
+        <v>1</v>
+      </c>
       <c r="I303" s="1" t="s">
         <v>739</v>
       </c>
@@ -14202,7 +14806,9 @@
       <c r="G304" s="1">
         <v>274</v>
       </c>
-      <c r="H304" s="1"/>
+      <c r="H304" s="1">
+        <v>1</v>
+      </c>
       <c r="I304" s="1" t="s">
         <v>739</v>
       </c>
@@ -14229,7 +14835,9 @@
       <c r="G305" s="1">
         <v>267</v>
       </c>
-      <c r="H305" s="1"/>
+      <c r="H305" s="1">
+        <v>1</v>
+      </c>
       <c r="I305" s="1" t="s">
         <v>739</v>
       </c>
@@ -14256,7 +14864,9 @@
       <c r="G306" s="1">
         <v>258</v>
       </c>
-      <c r="H306" s="1"/>
+      <c r="H306" s="1">
+        <v>1</v>
+      </c>
       <c r="I306" s="1" t="s">
         <v>739</v>
       </c>
@@ -14283,7 +14893,9 @@
       <c r="G307" s="1">
         <v>255</v>
       </c>
-      <c r="H307" s="1"/>
+      <c r="H307" s="1">
+        <v>1</v>
+      </c>
       <c r="I307" s="1" t="s">
         <v>739</v>
       </c>
@@ -14310,7 +14922,9 @@
       <c r="G308" s="1">
         <v>250</v>
       </c>
-      <c r="H308" s="1"/>
+      <c r="H308" s="1">
+        <v>1</v>
+      </c>
       <c r="I308" s="1" t="s">
         <v>739</v>
       </c>
@@ -14337,7 +14951,9 @@
       <c r="G309" s="1">
         <v>240</v>
       </c>
-      <c r="H309" s="1"/>
+      <c r="H309" s="1">
+        <v>1</v>
+      </c>
       <c r="I309" s="1" t="s">
         <v>739</v>
       </c>
@@ -14364,7 +14980,9 @@
       <c r="G310" s="1">
         <v>236</v>
       </c>
-      <c r="H310" s="1"/>
+      <c r="H310" s="1">
+        <v>1</v>
+      </c>
       <c r="I310" s="1" t="s">
         <v>739</v>
       </c>
@@ -14391,7 +15009,9 @@
       <c r="G311" s="1">
         <v>231</v>
       </c>
-      <c r="H311" s="1"/>
+      <c r="H311" s="1">
+        <v>1</v>
+      </c>
       <c r="I311" s="1" t="s">
         <v>739</v>
       </c>
@@ -14418,7 +15038,9 @@
       <c r="G312" s="1">
         <v>229</v>
       </c>
-      <c r="H312" s="1"/>
+      <c r="H312" s="1">
+        <v>1</v>
+      </c>
       <c r="I312" s="1" t="s">
         <v>739</v>
       </c>
@@ -14445,7 +15067,9 @@
       <c r="G313" s="1">
         <v>213</v>
       </c>
-      <c r="H313" s="1"/>
+      <c r="H313" s="1">
+        <v>1</v>
+      </c>
       <c r="I313" s="1" t="s">
         <v>739</v>
       </c>
@@ -14472,7 +15096,9 @@
       <c r="G314" s="1">
         <v>209</v>
       </c>
-      <c r="H314" s="1"/>
+      <c r="H314" s="1">
+        <v>1</v>
+      </c>
       <c r="I314" s="1" t="s">
         <v>739</v>
       </c>
@@ -14499,7 +15125,9 @@
       <c r="G315" s="1">
         <v>206</v>
       </c>
-      <c r="H315" s="1"/>
+      <c r="H315" s="1">
+        <v>1</v>
+      </c>
       <c r="I315" s="1" t="s">
         <v>739</v>
       </c>
@@ -14526,7 +15154,9 @@
       <c r="G316" s="1">
         <v>200</v>
       </c>
-      <c r="H316" s="1"/>
+      <c r="H316" s="1">
+        <v>1</v>
+      </c>
       <c r="I316" s="1" t="s">
         <v>739</v>
       </c>
@@ -14553,7 +15183,9 @@
       <c r="G317" s="1">
         <v>194</v>
       </c>
-      <c r="H317" s="1"/>
+      <c r="H317" s="1">
+        <v>1</v>
+      </c>
       <c r="I317" s="1" t="s">
         <v>739</v>
       </c>
@@ -14580,7 +15212,9 @@
       <c r="G318" s="1">
         <v>191</v>
       </c>
-      <c r="H318" s="1"/>
+      <c r="H318" s="1">
+        <v>1</v>
+      </c>
       <c r="I318" s="1" t="s">
         <v>739</v>
       </c>
@@ -14607,7 +15241,9 @@
       <c r="G319" s="1">
         <v>191</v>
       </c>
-      <c r="H319" s="1"/>
+      <c r="H319" s="1">
+        <v>1</v>
+      </c>
       <c r="I319" s="1" t="s">
         <v>739</v>
       </c>
@@ -14634,7 +15270,9 @@
       <c r="G320" s="1">
         <v>190</v>
       </c>
-      <c r="H320" s="1"/>
+      <c r="H320" s="1">
+        <v>1</v>
+      </c>
       <c r="I320" s="1" t="s">
         <v>739</v>
       </c>
@@ -14661,7 +15299,9 @@
       <c r="G321" s="1">
         <v>180</v>
       </c>
-      <c r="H321" s="1"/>
+      <c r="H321" s="1">
+        <v>1</v>
+      </c>
       <c r="I321" s="1" t="s">
         <v>739</v>
       </c>
@@ -14688,7 +15328,9 @@
       <c r="G322" s="1">
         <v>179</v>
       </c>
-      <c r="H322" s="1"/>
+      <c r="H322" s="1">
+        <v>1</v>
+      </c>
       <c r="I322" s="1" t="s">
         <v>739</v>
       </c>
@@ -14715,7 +15357,9 @@
       <c r="G323" s="1">
         <v>176</v>
       </c>
-      <c r="H323" s="1"/>
+      <c r="H323" s="1">
+        <v>1</v>
+      </c>
       <c r="I323" s="1" t="s">
         <v>739</v>
       </c>
@@ -14742,7 +15386,9 @@
       <c r="G324" s="1">
         <v>173</v>
       </c>
-      <c r="H324" s="1"/>
+      <c r="H324" s="1">
+        <v>1</v>
+      </c>
       <c r="I324" s="1" t="s">
         <v>739</v>
       </c>
@@ -14769,7 +15415,9 @@
       <c r="G325" s="1">
         <v>172</v>
       </c>
-      <c r="H325" s="1"/>
+      <c r="H325" s="1">
+        <v>1</v>
+      </c>
       <c r="I325" s="1" t="s">
         <v>739</v>
       </c>
@@ -14796,7 +15444,9 @@
       <c r="G326" s="1">
         <v>171</v>
       </c>
-      <c r="H326" s="1"/>
+      <c r="H326" s="1">
+        <v>1</v>
+      </c>
       <c r="I326" s="1" t="s">
         <v>739</v>
       </c>
@@ -14823,7 +15473,9 @@
       <c r="G327" s="1">
         <v>170</v>
       </c>
-      <c r="H327" s="1"/>
+      <c r="H327" s="1">
+        <v>1</v>
+      </c>
       <c r="I327" s="1" t="s">
         <v>739</v>
       </c>
@@ -14850,7 +15502,9 @@
       <c r="G328" s="1">
         <v>164</v>
       </c>
-      <c r="H328" s="1"/>
+      <c r="H328" s="1">
+        <v>1</v>
+      </c>
       <c r="I328" s="1" t="s">
         <v>739</v>
       </c>
@@ -14877,7 +15531,9 @@
       <c r="G329" s="1">
         <v>160</v>
       </c>
-      <c r="H329" s="1"/>
+      <c r="H329" s="1">
+        <v>1</v>
+      </c>
       <c r="I329" s="1" t="s">
         <v>739</v>
       </c>
@@ -14904,7 +15560,9 @@
       <c r="G330" s="1">
         <v>160</v>
       </c>
-      <c r="H330" s="1"/>
+      <c r="H330" s="1">
+        <v>1</v>
+      </c>
       <c r="I330" s="1" t="s">
         <v>739</v>
       </c>
@@ -14931,7 +15589,9 @@
       <c r="G331" s="1">
         <v>159</v>
       </c>
-      <c r="H331" s="1"/>
+      <c r="H331" s="1">
+        <v>1</v>
+      </c>
       <c r="I331" s="1" t="s">
         <v>739</v>
       </c>
@@ -14958,7 +15618,9 @@
       <c r="G332" s="1">
         <v>152</v>
       </c>
-      <c r="H332" s="1"/>
+      <c r="H332" s="1">
+        <v>1</v>
+      </c>
       <c r="I332" s="1" t="s">
         <v>739</v>
       </c>
@@ -14985,7 +15647,9 @@
       <c r="G333" s="1">
         <v>147</v>
       </c>
-      <c r="H333" s="1"/>
+      <c r="H333" s="1">
+        <v>1</v>
+      </c>
       <c r="I333" s="1" t="s">
         <v>739</v>
       </c>
@@ -15012,7 +15676,9 @@
       <c r="G334" s="1">
         <v>137</v>
       </c>
-      <c r="H334" s="1"/>
+      <c r="H334" s="1">
+        <v>1</v>
+      </c>
       <c r="I334" s="1" t="s">
         <v>739</v>
       </c>
@@ -15039,7 +15705,9 @@
       <c r="G335" s="1">
         <v>131</v>
       </c>
-      <c r="H335" s="1"/>
+      <c r="H335" s="1">
+        <v>1</v>
+      </c>
       <c r="I335" s="1" t="s">
         <v>739</v>
       </c>
@@ -15066,7 +15734,9 @@
       <c r="G336" s="1">
         <v>129</v>
       </c>
-      <c r="H336" s="1"/>
+      <c r="H336" s="1">
+        <v>1</v>
+      </c>
       <c r="I336" s="1" t="s">
         <v>739</v>
       </c>
@@ -15093,7 +15763,9 @@
       <c r="G337" s="1">
         <v>124</v>
       </c>
-      <c r="H337" s="1"/>
+      <c r="H337" s="1">
+        <v>1</v>
+      </c>
       <c r="I337" s="1" t="s">
         <v>739</v>
       </c>
@@ -15120,7 +15792,9 @@
       <c r="G338" s="1">
         <v>124</v>
       </c>
-      <c r="H338" s="1"/>
+      <c r="H338" s="1">
+        <v>1</v>
+      </c>
       <c r="I338" s="1" t="s">
         <v>739</v>
       </c>
@@ -15147,7 +15821,9 @@
       <c r="G339" s="1">
         <v>122</v>
       </c>
-      <c r="H339" s="1"/>
+      <c r="H339" s="1">
+        <v>1</v>
+      </c>
       <c r="I339" s="1" t="s">
         <v>739</v>
       </c>
@@ -15174,7 +15850,9 @@
       <c r="G340" s="1">
         <v>115</v>
       </c>
-      <c r="H340" s="1"/>
+      <c r="H340" s="1">
+        <v>1</v>
+      </c>
       <c r="I340" s="1" t="s">
         <v>739</v>
       </c>
@@ -15201,7 +15879,9 @@
       <c r="G341" s="1">
         <v>113</v>
       </c>
-      <c r="H341" s="1"/>
+      <c r="H341" s="1">
+        <v>1</v>
+      </c>
       <c r="I341" s="1" t="s">
         <v>739</v>
       </c>
@@ -15228,7 +15908,9 @@
       <c r="G342" s="1">
         <v>112</v>
       </c>
-      <c r="H342" s="1"/>
+      <c r="H342" s="1">
+        <v>1</v>
+      </c>
       <c r="I342" s="1" t="s">
         <v>739</v>
       </c>
@@ -15255,7 +15937,9 @@
       <c r="G343" s="1">
         <v>112</v>
       </c>
-      <c r="H343" s="1"/>
+      <c r="H343" s="1">
+        <v>1</v>
+      </c>
       <c r="I343" s="1" t="s">
         <v>739</v>
       </c>
@@ -15282,7 +15966,9 @@
       <c r="G344" s="1">
         <v>111</v>
       </c>
-      <c r="H344" s="1"/>
+      <c r="H344" s="1">
+        <v>1</v>
+      </c>
       <c r="I344" s="1" t="s">
         <v>739</v>
       </c>
@@ -15309,7 +15995,9 @@
       <c r="G345" s="1">
         <v>109</v>
       </c>
-      <c r="H345" s="1"/>
+      <c r="H345" s="1">
+        <v>1</v>
+      </c>
       <c r="I345" s="1" t="s">
         <v>739</v>
       </c>
@@ -15336,7 +16024,9 @@
       <c r="G346" s="1">
         <v>108</v>
       </c>
-      <c r="H346" s="1"/>
+      <c r="H346" s="1">
+        <v>1</v>
+      </c>
       <c r="I346" s="1" t="s">
         <v>739</v>
       </c>
@@ -15363,7 +16053,9 @@
       <c r="G347" s="1">
         <v>108</v>
       </c>
-      <c r="H347" s="1"/>
+      <c r="H347" s="1">
+        <v>1</v>
+      </c>
       <c r="I347" s="1" t="s">
         <v>739</v>
       </c>
@@ -15390,7 +16082,9 @@
       <c r="G348" s="1">
         <v>103</v>
       </c>
-      <c r="H348" s="1"/>
+      <c r="H348" s="1">
+        <v>1</v>
+      </c>
       <c r="I348" s="1" t="s">
         <v>739</v>
       </c>
@@ -15417,7 +16111,9 @@
       <c r="G349" s="1">
         <v>100</v>
       </c>
-      <c r="H349" s="1"/>
+      <c r="H349" s="1">
+        <v>1</v>
+      </c>
       <c r="I349" s="1" t="s">
         <v>739</v>
       </c>
@@ -15444,7 +16140,9 @@
       <c r="G350" s="1">
         <v>98</v>
       </c>
-      <c r="H350" s="1"/>
+      <c r="H350" s="1">
+        <v>1</v>
+      </c>
       <c r="I350" s="1" t="s">
         <v>739</v>
       </c>
@@ -15471,7 +16169,9 @@
       <c r="G351" s="1">
         <v>94</v>
       </c>
-      <c r="H351" s="1"/>
+      <c r="H351" s="1">
+        <v>1</v>
+      </c>
       <c r="I351" s="1" t="s">
         <v>739</v>
       </c>
@@ -15498,7 +16198,9 @@
       <c r="G352" s="1">
         <v>94</v>
       </c>
-      <c r="H352" s="1"/>
+      <c r="H352" s="1">
+        <v>1</v>
+      </c>
       <c r="I352" s="1" t="s">
         <v>739</v>
       </c>
@@ -15525,7 +16227,9 @@
       <c r="G353" s="1">
         <v>92</v>
       </c>
-      <c r="H353" s="1"/>
+      <c r="H353" s="1">
+        <v>1</v>
+      </c>
       <c r="I353" s="1" t="s">
         <v>739</v>
       </c>
@@ -15552,7 +16256,9 @@
       <c r="G354" s="1">
         <v>92</v>
       </c>
-      <c r="H354" s="1"/>
+      <c r="H354" s="1">
+        <v>1</v>
+      </c>
       <c r="I354" s="1" t="s">
         <v>739</v>
       </c>
@@ -15579,7 +16285,9 @@
       <c r="G355" s="1">
         <v>91</v>
       </c>
-      <c r="H355" s="1"/>
+      <c r="H355" s="1">
+        <v>1</v>
+      </c>
       <c r="I355" s="1" t="s">
         <v>739</v>
       </c>
@@ -15606,7 +16314,9 @@
       <c r="G356" s="1">
         <v>91</v>
       </c>
-      <c r="H356" s="1"/>
+      <c r="H356" s="1">
+        <v>1</v>
+      </c>
       <c r="I356" s="1" t="s">
         <v>739</v>
       </c>
@@ -15633,7 +16343,9 @@
       <c r="G357" s="1">
         <v>90</v>
       </c>
-      <c r="H357" s="1"/>
+      <c r="H357" s="1">
+        <v>1</v>
+      </c>
       <c r="I357" s="1" t="s">
         <v>739</v>
       </c>
@@ -15660,7 +16372,9 @@
       <c r="G358" s="1">
         <v>88</v>
       </c>
-      <c r="H358" s="1"/>
+      <c r="H358" s="1">
+        <v>1</v>
+      </c>
       <c r="I358" s="1" t="s">
         <v>739</v>
       </c>
@@ -15687,7 +16401,9 @@
       <c r="G359" s="1">
         <v>86</v>
       </c>
-      <c r="H359" s="1"/>
+      <c r="H359" s="1">
+        <v>1</v>
+      </c>
       <c r="I359" s="1" t="s">
         <v>739</v>
       </c>
@@ -15714,7 +16430,9 @@
       <c r="G360" s="1">
         <v>85</v>
       </c>
-      <c r="H360" s="1"/>
+      <c r="H360" s="1">
+        <v>1</v>
+      </c>
       <c r="I360" s="1" t="s">
         <v>739</v>
       </c>
@@ -15741,7 +16459,9 @@
       <c r="G361" s="1">
         <v>84</v>
       </c>
-      <c r="H361" s="1"/>
+      <c r="H361" s="1">
+        <v>1</v>
+      </c>
       <c r="I361" s="1" t="s">
         <v>739</v>
       </c>
@@ -15768,7 +16488,9 @@
       <c r="G362" s="1">
         <v>84</v>
       </c>
-      <c r="H362" s="1"/>
+      <c r="H362" s="1">
+        <v>1</v>
+      </c>
       <c r="I362" s="1" t="s">
         <v>739</v>
       </c>
@@ -15795,7 +16517,9 @@
       <c r="G363" s="1">
         <v>83</v>
       </c>
-      <c r="H363" s="1"/>
+      <c r="H363" s="1">
+        <v>1</v>
+      </c>
       <c r="I363" s="1" t="s">
         <v>739</v>
       </c>
@@ -15822,7 +16546,9 @@
       <c r="G364" s="1">
         <v>83</v>
       </c>
-      <c r="H364" s="1"/>
+      <c r="H364" s="1">
+        <v>1</v>
+      </c>
       <c r="I364" s="1" t="s">
         <v>739</v>
       </c>
@@ -15849,7 +16575,9 @@
       <c r="G365" s="1">
         <v>79</v>
       </c>
-      <c r="H365" s="1"/>
+      <c r="H365" s="1">
+        <v>1</v>
+      </c>
       <c r="I365" s="1" t="s">
         <v>739</v>
       </c>
@@ -15876,7 +16604,9 @@
       <c r="G366" s="1">
         <v>70</v>
       </c>
-      <c r="H366" s="1"/>
+      <c r="H366" s="1">
+        <v>1</v>
+      </c>
       <c r="I366" s="1" t="s">
         <v>739</v>
       </c>
@@ -15903,7 +16633,9 @@
       <c r="G367" s="1">
         <v>70</v>
       </c>
-      <c r="H367" s="1"/>
+      <c r="H367" s="1">
+        <v>1</v>
+      </c>
       <c r="I367" s="1" t="s">
         <v>739</v>
       </c>
@@ -15930,7 +16662,9 @@
       <c r="G368" s="1">
         <v>58</v>
       </c>
-      <c r="H368" s="1"/>
+      <c r="H368" s="1">
+        <v>1</v>
+      </c>
       <c r="I368" s="1" t="s">
         <v>739</v>
       </c>
@@ -15957,7 +16691,9 @@
       <c r="G369" s="1">
         <v>58</v>
       </c>
-      <c r="H369" s="1"/>
+      <c r="H369" s="1">
+        <v>1</v>
+      </c>
       <c r="I369" s="1" t="s">
         <v>739</v>
       </c>
@@ -15984,7 +16720,9 @@
       <c r="G370" s="1">
         <v>26</v>
       </c>
-      <c r="H370" s="1"/>
+      <c r="H370" s="1">
+        <v>1</v>
+      </c>
       <c r="I370" s="1" t="s">
         <v>739</v>
       </c>
@@ -16011,7 +16749,9 @@
       <c r="G371" s="1">
         <v>26</v>
       </c>
-      <c r="H371" s="1"/>
+      <c r="H371" s="1">
+        <v>1</v>
+      </c>
       <c r="I371" s="1" t="s">
         <v>739</v>
       </c>
@@ -16038,7 +16778,9 @@
       <c r="G372" s="1">
         <v>17</v>
       </c>
-      <c r="H372" s="1"/>
+      <c r="H372" s="1">
+        <v>1</v>
+      </c>
       <c r="I372" s="1" t="s">
         <v>739</v>
       </c>
@@ -16065,7 +16807,9 @@
       <c r="G373" s="1">
         <v>16</v>
       </c>
-      <c r="H373" s="1"/>
+      <c r="H373" s="1">
+        <v>1</v>
+      </c>
       <c r="I373" s="1" t="s">
         <v>739</v>
       </c>
@@ -16092,7 +16836,9 @@
       <c r="G374" s="1">
         <v>15</v>
       </c>
-      <c r="H374" s="1"/>
+      <c r="H374" s="1">
+        <v>1</v>
+      </c>
       <c r="I374" s="1" t="s">
         <v>739</v>
       </c>
@@ -16119,7 +16865,9 @@
       <c r="G375" s="1">
         <v>13</v>
       </c>
-      <c r="H375" s="1"/>
+      <c r="H375" s="1">
+        <v>1</v>
+      </c>
       <c r="I375" s="1" t="s">
         <v>739</v>
       </c>
@@ -16146,7 +16894,9 @@
       <c r="G376" s="1">
         <v>12</v>
       </c>
-      <c r="H376" s="1"/>
+      <c r="H376" s="1">
+        <v>1</v>
+      </c>
       <c r="I376" s="1" t="s">
         <v>739</v>
       </c>
@@ -16173,7 +16923,9 @@
       <c r="G377" s="1">
         <v>6</v>
       </c>
-      <c r="H377" s="1"/>
+      <c r="H377" s="1">
+        <v>1</v>
+      </c>
       <c r="I377" s="1" t="s">
         <v>739</v>
       </c>
@@ -16200,7 +16952,9 @@
       <c r="G378" s="1">
         <v>5</v>
       </c>
-      <c r="H378" s="1"/>
+      <c r="H378" s="1">
+        <v>1</v>
+      </c>
       <c r="I378" s="1" t="s">
         <v>739</v>
       </c>
@@ -16227,7 +16981,9 @@
       <c r="G379" s="1">
         <v>3</v>
       </c>
-      <c r="H379" s="1"/>
+      <c r="H379" s="1">
+        <v>1</v>
+      </c>
       <c r="I379" s="1" t="s">
         <v>739</v>
       </c>
@@ -16254,7 +17010,9 @@
       <c r="G380" s="1">
         <v>1</v>
       </c>
-      <c r="H380" s="1"/>
+      <c r="H380" s="1">
+        <v>1</v>
+      </c>
       <c r="I380" s="1" t="s">
         <v>739</v>
       </c>
@@ -16281,7 +17039,9 @@
       <c r="G381" s="1">
         <v>1</v>
       </c>
-      <c r="H381" s="1"/>
+      <c r="H381" s="1">
+        <v>1</v>
+      </c>
       <c r="I381" s="1" t="s">
         <v>739</v>
       </c>
@@ -16308,7 +17068,9 @@
       <c r="G382" s="1">
         <v>0</v>
       </c>
-      <c r="H382" s="1"/>
+      <c r="H382" s="1">
+        <v>1</v>
+      </c>
       <c r="I382" s="1" t="s">
         <v>739</v>
       </c>
@@ -16335,7 +17097,9 @@
       <c r="G383" s="1">
         <v>0</v>
       </c>
-      <c r="H383" s="1"/>
+      <c r="H383" s="1">
+        <v>1</v>
+      </c>
       <c r="I383" s="1" t="s">
         <v>739</v>
       </c>
@@ -16362,7 +17126,9 @@
       <c r="G384" s="1">
         <v>1447</v>
       </c>
-      <c r="H384" s="1"/>
+      <c r="H384" s="1">
+        <v>1</v>
+      </c>
       <c r="I384" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16389,7 +17155,9 @@
       <c r="G385" s="1">
         <v>1126</v>
       </c>
-      <c r="H385" s="1"/>
+      <c r="H385" s="1">
+        <v>1</v>
+      </c>
       <c r="I385" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16416,7 +17184,9 @@
       <c r="G386" s="1">
         <v>1040</v>
       </c>
-      <c r="H386" s="1"/>
+      <c r="H386" s="1">
+        <v>1</v>
+      </c>
       <c r="I386" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16443,7 +17213,9 @@
       <c r="G387" s="1">
         <v>730</v>
       </c>
-      <c r="H387" s="1"/>
+      <c r="H387" s="1">
+        <v>1</v>
+      </c>
       <c r="I387" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16470,7 +17242,9 @@
       <c r="G388" s="1">
         <v>624</v>
       </c>
-      <c r="H388" s="1"/>
+      <c r="H388" s="1">
+        <v>1</v>
+      </c>
       <c r="I388" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16497,7 +17271,9 @@
       <c r="G389" s="1">
         <v>545</v>
       </c>
-      <c r="H389" s="1"/>
+      <c r="H389" s="1">
+        <v>1</v>
+      </c>
       <c r="I389" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16524,7 +17300,9 @@
       <c r="G390" s="1">
         <v>493</v>
       </c>
-      <c r="H390" s="1"/>
+      <c r="H390" s="1">
+        <v>1</v>
+      </c>
       <c r="I390" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16551,7 +17329,9 @@
       <c r="G391" s="1">
         <v>388</v>
       </c>
-      <c r="H391" s="1"/>
+      <c r="H391" s="1">
+        <v>1</v>
+      </c>
       <c r="I391" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16578,7 +17358,9 @@
       <c r="G392" s="1">
         <v>361</v>
       </c>
-      <c r="H392" s="1"/>
+      <c r="H392" s="1">
+        <v>1</v>
+      </c>
       <c r="I392" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16605,7 +17387,9 @@
       <c r="G393" s="1">
         <v>322</v>
       </c>
-      <c r="H393" s="1"/>
+      <c r="H393" s="1">
+        <v>1</v>
+      </c>
       <c r="I393" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16632,7 +17416,9 @@
       <c r="G394" s="1">
         <v>295</v>
       </c>
-      <c r="H394" s="1"/>
+      <c r="H394" s="1">
+        <v>1</v>
+      </c>
       <c r="I394" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16659,7 +17445,9 @@
       <c r="G395" s="1">
         <v>292</v>
       </c>
-      <c r="H395" s="1"/>
+      <c r="H395" s="1">
+        <v>1</v>
+      </c>
       <c r="I395" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16686,7 +17474,9 @@
       <c r="G396" s="1">
         <v>284</v>
       </c>
-      <c r="H396" s="1"/>
+      <c r="H396" s="1">
+        <v>1</v>
+      </c>
       <c r="I396" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16713,7 +17503,9 @@
       <c r="G397" s="1">
         <v>283</v>
       </c>
-      <c r="H397" s="1"/>
+      <c r="H397" s="1">
+        <v>1</v>
+      </c>
       <c r="I397" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16740,7 +17532,9 @@
       <c r="G398" s="1">
         <v>271</v>
       </c>
-      <c r="H398" s="1"/>
+      <c r="H398" s="1">
+        <v>1</v>
+      </c>
       <c r="I398" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16767,7 +17561,9 @@
       <c r="G399" s="1">
         <v>236</v>
       </c>
-      <c r="H399" s="1"/>
+      <c r="H399" s="1">
+        <v>1</v>
+      </c>
       <c r="I399" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16794,7 +17590,9 @@
       <c r="G400" s="1">
         <v>216</v>
       </c>
-      <c r="H400" s="1"/>
+      <c r="H400" s="1">
+        <v>1</v>
+      </c>
       <c r="I400" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16821,7 +17619,9 @@
       <c r="G401" s="1">
         <v>190</v>
       </c>
-      <c r="H401" s="1"/>
+      <c r="H401" s="1">
+        <v>1</v>
+      </c>
       <c r="I401" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16848,7 +17648,9 @@
       <c r="G402" s="1">
         <v>185</v>
       </c>
-      <c r="H402" s="1"/>
+      <c r="H402" s="1">
+        <v>1</v>
+      </c>
       <c r="I402" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16875,7 +17677,9 @@
       <c r="G403" s="1">
         <v>180</v>
       </c>
-      <c r="H403" s="1"/>
+      <c r="H403" s="1">
+        <v>1</v>
+      </c>
       <c r="I403" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16902,7 +17706,9 @@
       <c r="G404" s="1">
         <v>169</v>
       </c>
-      <c r="H404" s="1"/>
+      <c r="H404" s="1">
+        <v>1</v>
+      </c>
       <c r="I404" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16929,7 +17735,9 @@
       <c r="G405" s="1">
         <v>164</v>
       </c>
-      <c r="H405" s="1"/>
+      <c r="H405" s="1">
+        <v>1</v>
+      </c>
       <c r="I405" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16956,7 +17764,9 @@
       <c r="G406" s="1">
         <v>140</v>
       </c>
-      <c r="H406" s="1"/>
+      <c r="H406" s="1">
+        <v>1</v>
+      </c>
       <c r="I406" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16983,7 +17793,9 @@
       <c r="G407" s="1">
         <v>130</v>
       </c>
-      <c r="H407" s="1"/>
+      <c r="H407" s="1">
+        <v>1</v>
+      </c>
       <c r="I407" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17010,7 +17822,9 @@
       <c r="G408" s="1">
         <v>115</v>
       </c>
-      <c r="H408" s="1"/>
+      <c r="H408" s="1">
+        <v>1</v>
+      </c>
       <c r="I408" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17037,7 +17851,9 @@
       <c r="G409" s="1">
         <v>113</v>
       </c>
-      <c r="H409" s="1"/>
+      <c r="H409" s="1">
+        <v>1</v>
+      </c>
       <c r="I409" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17064,7 +17880,9 @@
       <c r="G410" s="1">
         <v>100</v>
       </c>
-      <c r="H410" s="1"/>
+      <c r="H410" s="1">
+        <v>1</v>
+      </c>
       <c r="I410" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17091,7 +17909,9 @@
       <c r="G411" s="1">
         <v>98</v>
       </c>
-      <c r="H411" s="1"/>
+      <c r="H411" s="1">
+        <v>1</v>
+      </c>
       <c r="I411" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17118,7 +17938,9 @@
       <c r="G412" s="1">
         <v>98</v>
       </c>
-      <c r="H412" s="1"/>
+      <c r="H412" s="1">
+        <v>1</v>
+      </c>
       <c r="I412" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17145,7 +17967,9 @@
       <c r="G413" s="1">
         <v>91</v>
       </c>
-      <c r="H413" s="1"/>
+      <c r="H413" s="1">
+        <v>1</v>
+      </c>
       <c r="I413" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17172,7 +17996,9 @@
       <c r="G414" s="1">
         <v>91</v>
       </c>
-      <c r="H414" s="1"/>
+      <c r="H414" s="1">
+        <v>1</v>
+      </c>
       <c r="I414" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17199,7 +18025,9 @@
       <c r="G415" s="1">
         <v>88</v>
       </c>
-      <c r="H415" s="1"/>
+      <c r="H415" s="1">
+        <v>1</v>
+      </c>
       <c r="I415" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17226,7 +18054,9 @@
       <c r="G416" s="1">
         <v>84</v>
       </c>
-      <c r="H416" s="1"/>
+      <c r="H416" s="1">
+        <v>1</v>
+      </c>
       <c r="I416" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17253,7 +18083,9 @@
       <c r="G417" s="1">
         <v>78</v>
       </c>
-      <c r="H417" s="1"/>
+      <c r="H417" s="1">
+        <v>1</v>
+      </c>
       <c r="I417" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17280,7 +18112,9 @@
       <c r="G418" s="1">
         <v>68</v>
       </c>
-      <c r="H418" s="1"/>
+      <c r="H418" s="1">
+        <v>1</v>
+      </c>
       <c r="I418" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17307,7 +18141,9 @@
       <c r="G419" s="1">
         <v>66</v>
       </c>
-      <c r="H419" s="1"/>
+      <c r="H419" s="1">
+        <v>1</v>
+      </c>
       <c r="I419" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17334,7 +18170,9 @@
       <c r="G420" s="1">
         <v>63</v>
       </c>
-      <c r="H420" s="1"/>
+      <c r="H420" s="1">
+        <v>1</v>
+      </c>
       <c r="I420" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17361,7 +18199,9 @@
       <c r="G421" s="1">
         <v>61</v>
       </c>
-      <c r="H421" s="1"/>
+      <c r="H421" s="1">
+        <v>1</v>
+      </c>
       <c r="I421" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17388,7 +18228,9 @@
       <c r="G422" s="1">
         <v>50</v>
       </c>
-      <c r="H422" s="1"/>
+      <c r="H422" s="1">
+        <v>1</v>
+      </c>
       <c r="I422" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17415,7 +18257,9 @@
       <c r="G423" s="1">
         <v>50</v>
       </c>
-      <c r="H423" s="1"/>
+      <c r="H423" s="1">
+        <v>1</v>
+      </c>
       <c r="I423" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17442,7 +18286,9 @@
       <c r="G424" s="1">
         <v>49</v>
       </c>
-      <c r="H424" s="1"/>
+      <c r="H424" s="1">
+        <v>1</v>
+      </c>
       <c r="I424" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17469,7 +18315,9 @@
       <c r="G425" s="1">
         <v>48</v>
       </c>
-      <c r="H425" s="1"/>
+      <c r="H425" s="1">
+        <v>1</v>
+      </c>
       <c r="I425" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17496,7 +18344,9 @@
       <c r="G426" s="1">
         <v>40</v>
       </c>
-      <c r="H426" s="1"/>
+      <c r="H426" s="1">
+        <v>1</v>
+      </c>
       <c r="I426" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17523,7 +18373,9 @@
       <c r="G427" s="1">
         <v>39</v>
       </c>
-      <c r="H427" s="1"/>
+      <c r="H427" s="1">
+        <v>1</v>
+      </c>
       <c r="I427" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17550,7 +18402,9 @@
       <c r="G428" s="1">
         <v>37</v>
       </c>
-      <c r="H428" s="1"/>
+      <c r="H428" s="1">
+        <v>1</v>
+      </c>
       <c r="I428" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17577,7 +18431,9 @@
       <c r="G429" s="1">
         <v>35</v>
       </c>
-      <c r="H429" s="1"/>
+      <c r="H429" s="1">
+        <v>1</v>
+      </c>
       <c r="I429" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17604,7 +18460,9 @@
       <c r="G430" s="1">
         <v>34</v>
       </c>
-      <c r="H430" s="1"/>
+      <c r="H430" s="1">
+        <v>1</v>
+      </c>
       <c r="I430" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17631,7 +18489,9 @@
       <c r="G431" s="1">
         <v>32</v>
       </c>
-      <c r="H431" s="1"/>
+      <c r="H431" s="1">
+        <v>1</v>
+      </c>
       <c r="I431" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17658,7 +18518,9 @@
       <c r="G432" s="1">
         <v>31</v>
       </c>
-      <c r="H432" s="1"/>
+      <c r="H432" s="1">
+        <v>1</v>
+      </c>
       <c r="I432" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17685,7 +18547,9 @@
       <c r="G433" s="1">
         <v>28</v>
       </c>
-      <c r="H433" s="1"/>
+      <c r="H433" s="1">
+        <v>1</v>
+      </c>
       <c r="I433" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17712,7 +18576,9 @@
       <c r="G434" s="1">
         <v>28</v>
       </c>
-      <c r="H434" s="1"/>
+      <c r="H434" s="1">
+        <v>1</v>
+      </c>
       <c r="I434" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17739,7 +18605,9 @@
       <c r="G435" s="1">
         <v>28</v>
       </c>
-      <c r="H435" s="1"/>
+      <c r="H435" s="1">
+        <v>1</v>
+      </c>
       <c r="I435" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17766,7 +18634,9 @@
       <c r="G436" s="1">
         <v>27</v>
       </c>
-      <c r="H436" s="1"/>
+      <c r="H436" s="1">
+        <v>1</v>
+      </c>
       <c r="I436" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17793,7 +18663,9 @@
       <c r="G437" s="1">
         <v>27</v>
       </c>
-      <c r="H437" s="1"/>
+      <c r="H437" s="1">
+        <v>1</v>
+      </c>
       <c r="I437" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17820,7 +18692,9 @@
       <c r="G438" s="1">
         <v>26</v>
       </c>
-      <c r="H438" s="1"/>
+      <c r="H438" s="1">
+        <v>1</v>
+      </c>
       <c r="I438" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17847,7 +18721,9 @@
       <c r="G439" s="1">
         <v>23</v>
       </c>
-      <c r="H439" s="1"/>
+      <c r="H439" s="1">
+        <v>1</v>
+      </c>
       <c r="I439" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17874,7 +18750,9 @@
       <c r="G440" s="1">
         <v>19</v>
       </c>
-      <c r="H440" s="1"/>
+      <c r="H440" s="1">
+        <v>1</v>
+      </c>
       <c r="I440" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17901,7 +18779,9 @@
       <c r="G441" s="1">
         <v>19</v>
       </c>
-      <c r="H441" s="1"/>
+      <c r="H441" s="1">
+        <v>1</v>
+      </c>
       <c r="I441" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17928,7 +18808,9 @@
       <c r="G442" s="1">
         <v>15</v>
       </c>
-      <c r="H442" s="1"/>
+      <c r="H442" s="1">
+        <v>1</v>
+      </c>
       <c r="I442" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17955,7 +18837,9 @@
       <c r="G443" s="1">
         <v>14</v>
       </c>
-      <c r="H443" s="1"/>
+      <c r="H443" s="1">
+        <v>1</v>
+      </c>
       <c r="I443" s="1" t="s">
         <v>1065</v>
       </c>
@@ -17982,7 +18866,9 @@
       <c r="G444" s="1">
         <v>11</v>
       </c>
-      <c r="H444" s="1"/>
+      <c r="H444" s="1">
+        <v>1</v>
+      </c>
       <c r="I444" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18009,7 +18895,9 @@
       <c r="G445" s="1">
         <v>10</v>
       </c>
-      <c r="H445" s="1"/>
+      <c r="H445" s="1">
+        <v>1</v>
+      </c>
       <c r="I445" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18036,7 +18924,9 @@
       <c r="G446" s="1">
         <v>10</v>
       </c>
-      <c r="H446" s="1"/>
+      <c r="H446" s="1">
+        <v>1</v>
+      </c>
       <c r="I446" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18063,7 +18953,9 @@
       <c r="G447" s="1">
         <v>10</v>
       </c>
-      <c r="H447" s="1"/>
+      <c r="H447" s="1">
+        <v>1</v>
+      </c>
       <c r="I447" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18090,7 +18982,9 @@
       <c r="G448" s="1">
         <v>9</v>
       </c>
-      <c r="H448" s="1"/>
+      <c r="H448" s="1">
+        <v>1</v>
+      </c>
       <c r="I448" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18117,7 +19011,9 @@
       <c r="G449" s="1">
         <v>8</v>
       </c>
-      <c r="H449" s="1"/>
+      <c r="H449" s="1">
+        <v>1</v>
+      </c>
       <c r="I449" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18144,7 +19040,9 @@
       <c r="G450" s="1">
         <v>6</v>
       </c>
-      <c r="H450" s="1"/>
+      <c r="H450" s="1">
+        <v>1</v>
+      </c>
       <c r="I450" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18171,7 +19069,9 @@
       <c r="G451" s="1">
         <v>6</v>
       </c>
-      <c r="H451" s="1"/>
+      <c r="H451" s="1">
+        <v>1</v>
+      </c>
       <c r="I451" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18198,7 +19098,9 @@
       <c r="G452" s="1">
         <v>6</v>
       </c>
-      <c r="H452" s="1"/>
+      <c r="H452" s="1">
+        <v>1</v>
+      </c>
       <c r="I452" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18225,7 +19127,9 @@
       <c r="G453" s="1">
         <v>5</v>
       </c>
-      <c r="H453" s="1"/>
+      <c r="H453" s="1">
+        <v>1</v>
+      </c>
       <c r="I453" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18252,7 +19156,9 @@
       <c r="G454" s="1">
         <v>5</v>
       </c>
-      <c r="H454" s="1"/>
+      <c r="H454" s="1">
+        <v>1</v>
+      </c>
       <c r="I454" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18279,7 +19185,9 @@
       <c r="G455" s="1">
         <v>3</v>
       </c>
-      <c r="H455" s="1"/>
+      <c r="H455" s="1">
+        <v>1</v>
+      </c>
       <c r="I455" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18306,7 +19214,9 @@
       <c r="G456" s="1">
         <v>3</v>
       </c>
-      <c r="H456" s="1"/>
+      <c r="H456" s="1">
+        <v>1</v>
+      </c>
       <c r="I456" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18333,7 +19243,9 @@
       <c r="G457" s="1">
         <v>2</v>
       </c>
-      <c r="H457" s="1"/>
+      <c r="H457" s="1">
+        <v>1</v>
+      </c>
       <c r="I457" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18360,7 +19272,9 @@
       <c r="G458" s="1">
         <v>2</v>
       </c>
-      <c r="H458" s="1"/>
+      <c r="H458" s="1">
+        <v>1</v>
+      </c>
       <c r="I458" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18387,7 +19301,9 @@
       <c r="G459" s="1">
         <v>2</v>
       </c>
-      <c r="H459" s="1"/>
+      <c r="H459" s="1">
+        <v>1</v>
+      </c>
       <c r="I459" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18414,7 +19330,9 @@
       <c r="G460" s="1">
         <v>2</v>
       </c>
-      <c r="H460" s="1"/>
+      <c r="H460" s="1">
+        <v>1</v>
+      </c>
       <c r="I460" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18441,7 +19359,9 @@
       <c r="G461" s="1">
         <v>1</v>
       </c>
-      <c r="H461" s="1"/>
+      <c r="H461" s="1">
+        <v>1</v>
+      </c>
       <c r="I461" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18468,7 +19388,9 @@
       <c r="G462" s="1">
         <v>1</v>
       </c>
-      <c r="H462" s="1"/>
+      <c r="H462" s="1">
+        <v>1</v>
+      </c>
       <c r="I462" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18495,7 +19417,9 @@
       <c r="G463" s="1">
         <v>1</v>
       </c>
-      <c r="H463" s="1"/>
+      <c r="H463" s="1">
+        <v>1</v>
+      </c>
       <c r="I463" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18522,7 +19446,9 @@
       <c r="G464" s="1">
         <v>1</v>
       </c>
-      <c r="H464" s="1"/>
+      <c r="H464" s="1">
+        <v>1</v>
+      </c>
       <c r="I464" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18549,7 +19475,9 @@
       <c r="G465" s="1">
         <v>0</v>
       </c>
-      <c r="H465" s="1"/>
+      <c r="H465" s="1">
+        <v>1</v>
+      </c>
       <c r="I465" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18576,7 +19504,9 @@
       <c r="G466" s="1">
         <v>0</v>
       </c>
-      <c r="H466" s="1"/>
+      <c r="H466" s="1">
+        <v>1</v>
+      </c>
       <c r="I466" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18603,7 +19533,9 @@
       <c r="G467" s="1">
         <v>0</v>
       </c>
-      <c r="H467" s="1"/>
+      <c r="H467" s="1">
+        <v>1</v>
+      </c>
       <c r="I467" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18630,7 +19562,9 @@
       <c r="G468" s="1">
         <v>0</v>
       </c>
-      <c r="H468" s="1"/>
+      <c r="H468" s="1">
+        <v>1</v>
+      </c>
       <c r="I468" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18657,7 +19591,9 @@
       <c r="G469" s="1">
         <v>0</v>
       </c>
-      <c r="H469" s="1"/>
+      <c r="H469" s="1">
+        <v>1</v>
+      </c>
       <c r="I469" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18684,7 +19620,9 @@
       <c r="G470" s="1">
         <v>0</v>
       </c>
-      <c r="H470" s="1"/>
+      <c r="H470" s="1">
+        <v>1</v>
+      </c>
       <c r="I470" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18711,7 +19649,9 @@
       <c r="G471" s="1">
         <v>0</v>
       </c>
-      <c r="H471" s="1"/>
+      <c r="H471" s="1">
+        <v>1</v>
+      </c>
       <c r="I471" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18738,7 +19678,9 @@
       <c r="G472" s="1">
         <v>0</v>
       </c>
-      <c r="H472" s="1"/>
+      <c r="H472" s="1">
+        <v>1</v>
+      </c>
       <c r="I472" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18765,7 +19707,9 @@
       <c r="G473" s="1">
         <v>0</v>
       </c>
-      <c r="H473" s="1"/>
+      <c r="H473" s="1">
+        <v>1</v>
+      </c>
       <c r="I473" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18792,7 +19736,9 @@
       <c r="G474" s="1">
         <v>0</v>
       </c>
-      <c r="H474" s="1"/>
+      <c r="H474" s="1">
+        <v>1</v>
+      </c>
       <c r="I474" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18819,7 +19765,9 @@
       <c r="G475" s="1">
         <v>0</v>
       </c>
-      <c r="H475" s="1"/>
+      <c r="H475" s="1">
+        <v>1</v>
+      </c>
       <c r="I475" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18846,7 +19794,9 @@
       <c r="G476" s="1">
         <v>0</v>
       </c>
-      <c r="H476" s="1"/>
+      <c r="H476" s="1">
+        <v>1</v>
+      </c>
       <c r="I476" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18873,7 +19823,9 @@
       <c r="G477" s="1">
         <v>0</v>
       </c>
-      <c r="H477" s="1"/>
+      <c r="H477" s="1">
+        <v>1</v>
+      </c>
       <c r="I477" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18900,7 +19852,9 @@
       <c r="G478" s="1">
         <v>0</v>
       </c>
-      <c r="H478" s="1"/>
+      <c r="H478" s="1">
+        <v>1</v>
+      </c>
       <c r="I478" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18927,7 +19881,9 @@
       <c r="G479" s="1">
         <v>0</v>
       </c>
-      <c r="H479" s="1"/>
+      <c r="H479" s="1">
+        <v>1</v>
+      </c>
       <c r="I479" s="1" t="s">
         <v>1065</v>
       </c>
@@ -18954,7 +19910,9 @@
       <c r="G480" s="1">
         <v>2111</v>
       </c>
-      <c r="H480" s="1"/>
+      <c r="H480" s="1">
+        <v>1</v>
+      </c>
       <c r="I480" s="1" t="s">
         <v>1284</v>
       </c>
@@ -18981,7 +19939,9 @@
       <c r="G481" s="1">
         <v>1624</v>
       </c>
-      <c r="H481" s="1"/>
+      <c r="H481" s="1">
+        <v>1</v>
+      </c>
       <c r="I481" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19008,7 +19968,9 @@
       <c r="G482" s="1">
         <v>1067</v>
       </c>
-      <c r="H482" s="1"/>
+      <c r="H482" s="1">
+        <v>1</v>
+      </c>
       <c r="I482" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19035,7 +19997,9 @@
       <c r="G483" s="1">
         <v>860</v>
       </c>
-      <c r="H483" s="1"/>
+      <c r="H483" s="1">
+        <v>1</v>
+      </c>
       <c r="I483" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19062,7 +20026,9 @@
       <c r="G484" s="1">
         <v>817</v>
       </c>
-      <c r="H484" s="1"/>
+      <c r="H484" s="1">
+        <v>1</v>
+      </c>
       <c r="I484" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19089,7 +20055,9 @@
       <c r="G485" s="1">
         <v>547</v>
       </c>
-      <c r="H485" s="1"/>
+      <c r="H485" s="1">
+        <v>1</v>
+      </c>
       <c r="I485" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19116,7 +20084,9 @@
       <c r="G486" s="1">
         <v>503</v>
       </c>
-      <c r="H486" s="1"/>
+      <c r="H486" s="1">
+        <v>1</v>
+      </c>
       <c r="I486" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19143,7 +20113,9 @@
       <c r="G487" s="1">
         <v>415</v>
       </c>
-      <c r="H487" s="1"/>
+      <c r="H487" s="1">
+        <v>1</v>
+      </c>
       <c r="I487" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19170,7 +20142,9 @@
       <c r="G488" s="1">
         <v>373</v>
       </c>
-      <c r="H488" s="1"/>
+      <c r="H488" s="1">
+        <v>1</v>
+      </c>
       <c r="I488" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19197,7 +20171,9 @@
       <c r="G489" s="1">
         <v>337</v>
       </c>
-      <c r="H489" s="1"/>
+      <c r="H489" s="1">
+        <v>1</v>
+      </c>
       <c r="I489" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19224,7 +20200,9 @@
       <c r="G490" s="1">
         <v>331</v>
       </c>
-      <c r="H490" s="1"/>
+      <c r="H490" s="1">
+        <v>1</v>
+      </c>
       <c r="I490" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19251,7 +20229,9 @@
       <c r="G491" s="1">
         <v>213</v>
       </c>
-      <c r="H491" s="1"/>
+      <c r="H491" s="1">
+        <v>1</v>
+      </c>
       <c r="I491" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19278,7 +20258,9 @@
       <c r="G492" s="1">
         <v>198</v>
       </c>
-      <c r="H492" s="1"/>
+      <c r="H492" s="1">
+        <v>1</v>
+      </c>
       <c r="I492" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19305,7 +20287,9 @@
       <c r="G493" s="1">
         <v>129</v>
       </c>
-      <c r="H493" s="1"/>
+      <c r="H493" s="1">
+        <v>1</v>
+      </c>
       <c r="I493" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19332,7 +20316,9 @@
       <c r="G494" s="1">
         <v>118</v>
       </c>
-      <c r="H494" s="1"/>
+      <c r="H494" s="1">
+        <v>1</v>
+      </c>
       <c r="I494" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19359,7 +20345,9 @@
       <c r="G495" s="1">
         <v>111</v>
       </c>
-      <c r="H495" s="1"/>
+      <c r="H495" s="1">
+        <v>1</v>
+      </c>
       <c r="I495" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19386,7 +20374,9 @@
       <c r="G496" s="1">
         <v>109</v>
       </c>
-      <c r="H496" s="1"/>
+      <c r="H496" s="1">
+        <v>1</v>
+      </c>
       <c r="I496" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19413,7 +20403,9 @@
       <c r="G497" s="1">
         <v>91</v>
       </c>
-      <c r="H497" s="1"/>
+      <c r="H497" s="1">
+        <v>1</v>
+      </c>
       <c r="I497" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19440,7 +20432,9 @@
       <c r="G498" s="1">
         <v>87</v>
       </c>
-      <c r="H498" s="1"/>
+      <c r="H498" s="1">
+        <v>1</v>
+      </c>
       <c r="I498" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19467,7 +20461,9 @@
       <c r="G499" s="1">
         <v>77</v>
       </c>
-      <c r="H499" s="1"/>
+      <c r="H499" s="1">
+        <v>1</v>
+      </c>
       <c r="I499" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19494,7 +20490,9 @@
       <c r="G500" s="1">
         <v>48</v>
       </c>
-      <c r="H500" s="1"/>
+      <c r="H500" s="1">
+        <v>1</v>
+      </c>
       <c r="I500" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19521,7 +20519,9 @@
       <c r="G501" s="1">
         <v>47</v>
       </c>
-      <c r="H501" s="1"/>
+      <c r="H501" s="1">
+        <v>1</v>
+      </c>
       <c r="I501" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19548,7 +20548,9 @@
       <c r="G502" s="1">
         <v>39</v>
       </c>
-      <c r="H502" s="1"/>
+      <c r="H502" s="1">
+        <v>1</v>
+      </c>
       <c r="I502" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19575,7 +20577,9 @@
       <c r="G503" s="1">
         <v>37</v>
       </c>
-      <c r="H503" s="1"/>
+      <c r="H503" s="1">
+        <v>1</v>
+      </c>
       <c r="I503" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19602,7 +20606,9 @@
       <c r="G504" s="1">
         <v>36</v>
       </c>
-      <c r="H504" s="1"/>
+      <c r="H504" s="1">
+        <v>1</v>
+      </c>
       <c r="I504" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19629,7 +20635,9 @@
       <c r="G505" s="1">
         <v>35</v>
       </c>
-      <c r="H505" s="1"/>
+      <c r="H505" s="1">
+        <v>1</v>
+      </c>
       <c r="I505" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19656,7 +20664,9 @@
       <c r="G506" s="1">
         <v>31</v>
       </c>
-      <c r="H506" s="1"/>
+      <c r="H506" s="1">
+        <v>1</v>
+      </c>
       <c r="I506" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19683,7 +20693,9 @@
       <c r="G507" s="1">
         <v>28</v>
       </c>
-      <c r="H507" s="1"/>
+      <c r="H507" s="1">
+        <v>1</v>
+      </c>
       <c r="I507" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19710,7 +20722,9 @@
       <c r="G508" s="1">
         <v>27</v>
       </c>
-      <c r="H508" s="1"/>
+      <c r="H508" s="1">
+        <v>1</v>
+      </c>
       <c r="I508" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19737,7 +20751,9 @@
       <c r="G509" s="1">
         <v>26</v>
       </c>
-      <c r="H509" s="1"/>
+      <c r="H509" s="1">
+        <v>1</v>
+      </c>
       <c r="I509" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19764,7 +20780,9 @@
       <c r="G510" s="1">
         <v>24</v>
       </c>
-      <c r="H510" s="1"/>
+      <c r="H510" s="1">
+        <v>1</v>
+      </c>
       <c r="I510" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19791,7 +20809,9 @@
       <c r="G511" s="1">
         <v>23</v>
       </c>
-      <c r="H511" s="1"/>
+      <c r="H511" s="1">
+        <v>1</v>
+      </c>
       <c r="I511" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19818,7 +20838,9 @@
       <c r="G512" s="1">
         <v>22</v>
       </c>
-      <c r="H512" s="1"/>
+      <c r="H512" s="1">
+        <v>1</v>
+      </c>
       <c r="I512" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19845,7 +20867,9 @@
       <c r="G513" s="1">
         <v>22</v>
       </c>
-      <c r="H513" s="1"/>
+      <c r="H513" s="1">
+        <v>1</v>
+      </c>
       <c r="I513" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19872,7 +20896,9 @@
       <c r="G514" s="1">
         <v>20</v>
       </c>
-      <c r="H514" s="1"/>
+      <c r="H514" s="1">
+        <v>1</v>
+      </c>
       <c r="I514" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19899,7 +20925,9 @@
       <c r="G515" s="1">
         <v>20</v>
       </c>
-      <c r="H515" s="1"/>
+      <c r="H515" s="1">
+        <v>1</v>
+      </c>
       <c r="I515" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19926,7 +20954,9 @@
       <c r="G516" s="1">
         <v>18</v>
       </c>
-      <c r="H516" s="1"/>
+      <c r="H516" s="1">
+        <v>1</v>
+      </c>
       <c r="I516" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19953,7 +20983,9 @@
       <c r="G517" s="1">
         <v>15</v>
       </c>
-      <c r="H517" s="1"/>
+      <c r="H517" s="1">
+        <v>1</v>
+      </c>
       <c r="I517" s="1" t="s">
         <v>1284</v>
       </c>
@@ -19980,7 +21012,9 @@
       <c r="G518" s="1">
         <v>15</v>
       </c>
-      <c r="H518" s="1"/>
+      <c r="H518" s="1">
+        <v>1</v>
+      </c>
       <c r="I518" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20007,7 +21041,9 @@
       <c r="G519" s="1">
         <v>12</v>
       </c>
-      <c r="H519" s="1"/>
+      <c r="H519" s="1">
+        <v>1</v>
+      </c>
       <c r="I519" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20034,7 +21070,9 @@
       <c r="G520" s="1">
         <v>10</v>
       </c>
-      <c r="H520" s="1"/>
+      <c r="H520" s="1">
+        <v>1</v>
+      </c>
       <c r="I520" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20061,7 +21099,9 @@
       <c r="G521" s="1">
         <v>10</v>
       </c>
-      <c r="H521" s="1"/>
+      <c r="H521" s="1">
+        <v>1</v>
+      </c>
       <c r="I521" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20088,7 +21128,9 @@
       <c r="G522" s="1">
         <v>8</v>
       </c>
-      <c r="H522" s="1"/>
+      <c r="H522" s="1">
+        <v>1</v>
+      </c>
       <c r="I522" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20115,7 +21157,9 @@
       <c r="G523" s="1">
         <v>5</v>
       </c>
-      <c r="H523" s="1"/>
+      <c r="H523" s="1">
+        <v>1</v>
+      </c>
       <c r="I523" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20142,7 +21186,9 @@
       <c r="G524" s="1">
         <v>5</v>
       </c>
-      <c r="H524" s="1"/>
+      <c r="H524" s="1">
+        <v>1</v>
+      </c>
       <c r="I524" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20169,7 +21215,9 @@
       <c r="G525" s="1">
         <v>5</v>
       </c>
-      <c r="H525" s="1"/>
+      <c r="H525" s="1">
+        <v>1</v>
+      </c>
       <c r="I525" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20196,7 +21244,9 @@
       <c r="G526" s="1">
         <v>4</v>
       </c>
-      <c r="H526" s="1"/>
+      <c r="H526" s="1">
+        <v>1</v>
+      </c>
       <c r="I526" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20223,7 +21273,9 @@
       <c r="G527" s="1">
         <v>4</v>
       </c>
-      <c r="H527" s="1"/>
+      <c r="H527" s="1">
+        <v>1</v>
+      </c>
       <c r="I527" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20250,7 +21302,9 @@
       <c r="G528" s="1">
         <v>4</v>
       </c>
-      <c r="H528" s="1"/>
+      <c r="H528" s="1">
+        <v>1</v>
+      </c>
       <c r="I528" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20277,7 +21331,9 @@
       <c r="G529" s="1">
         <v>3</v>
       </c>
-      <c r="H529" s="1"/>
+      <c r="H529" s="1">
+        <v>1</v>
+      </c>
       <c r="I529" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20304,7 +21360,9 @@
       <c r="G530" s="1">
         <v>3</v>
       </c>
-      <c r="H530" s="1"/>
+      <c r="H530" s="1">
+        <v>1</v>
+      </c>
       <c r="I530" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20331,7 +21389,9 @@
       <c r="G531" s="1">
         <v>3</v>
       </c>
-      <c r="H531" s="1"/>
+      <c r="H531" s="1">
+        <v>1</v>
+      </c>
       <c r="I531" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20358,7 +21418,9 @@
       <c r="G532" s="1">
         <v>2</v>
       </c>
-      <c r="H532" s="1"/>
+      <c r="H532" s="1">
+        <v>1</v>
+      </c>
       <c r="I532" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20385,7 +21447,9 @@
       <c r="G533" s="1">
         <v>2</v>
       </c>
-      <c r="H533" s="1"/>
+      <c r="H533" s="1">
+        <v>1</v>
+      </c>
       <c r="I533" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20412,7 +21476,9 @@
       <c r="G534" s="1">
         <v>2</v>
       </c>
-      <c r="H534" s="1"/>
+      <c r="H534" s="1">
+        <v>1</v>
+      </c>
       <c r="I534" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20439,7 +21505,9 @@
       <c r="G535" s="1">
         <v>2</v>
       </c>
-      <c r="H535" s="1"/>
+      <c r="H535" s="1">
+        <v>1</v>
+      </c>
       <c r="I535" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20466,7 +21534,9 @@
       <c r="G536" s="1">
         <v>1</v>
       </c>
-      <c r="H536" s="1"/>
+      <c r="H536" s="1">
+        <v>1</v>
+      </c>
       <c r="I536" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20493,7 +21563,9 @@
       <c r="G537" s="1">
         <v>1</v>
       </c>
-      <c r="H537" s="1"/>
+      <c r="H537" s="1">
+        <v>1</v>
+      </c>
       <c r="I537" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20520,7 +21592,9 @@
       <c r="G538" s="1">
         <v>1</v>
       </c>
-      <c r="H538" s="1"/>
+      <c r="H538" s="1">
+        <v>1</v>
+      </c>
       <c r="I538" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20547,7 +21621,9 @@
       <c r="G539" s="1">
         <v>0</v>
       </c>
-      <c r="H539" s="1"/>
+      <c r="H539" s="1">
+        <v>1</v>
+      </c>
       <c r="I539" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20574,7 +21650,9 @@
       <c r="G540" s="1">
         <v>0</v>
       </c>
-      <c r="H540" s="1"/>
+      <c r="H540" s="1">
+        <v>1</v>
+      </c>
       <c r="I540" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20601,7 +21679,9 @@
       <c r="G541" s="1">
         <v>0</v>
       </c>
-      <c r="H541" s="1"/>
+      <c r="H541" s="1">
+        <v>1</v>
+      </c>
       <c r="I541" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20628,7 +21708,9 @@
       <c r="G542" s="1">
         <v>0</v>
       </c>
-      <c r="H542" s="1"/>
+      <c r="H542" s="1">
+        <v>1</v>
+      </c>
       <c r="I542" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20655,7 +21737,9 @@
       <c r="G543" s="1">
         <v>0</v>
       </c>
-      <c r="H543" s="1"/>
+      <c r="H543" s="1">
+        <v>1</v>
+      </c>
       <c r="I543" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20682,7 +21766,9 @@
       <c r="G544" s="1">
         <v>0</v>
       </c>
-      <c r="H544" s="1"/>
+      <c r="H544" s="1">
+        <v>1</v>
+      </c>
       <c r="I544" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20709,7 +21795,9 @@
       <c r="G545" s="1">
         <v>0</v>
       </c>
-      <c r="H545" s="1"/>
+      <c r="H545" s="1">
+        <v>1</v>
+      </c>
       <c r="I545" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20736,7 +21824,9 @@
       <c r="G546" s="1">
         <v>0</v>
       </c>
-      <c r="H546" s="1"/>
+      <c r="H546" s="1">
+        <v>1</v>
+      </c>
       <c r="I546" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20763,7 +21853,9 @@
       <c r="G547" s="1">
         <v>0</v>
       </c>
-      <c r="H547" s="1"/>
+      <c r="H547" s="1">
+        <v>1</v>
+      </c>
       <c r="I547" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20790,7 +21882,9 @@
       <c r="G548" s="1">
         <v>0</v>
       </c>
-      <c r="H548" s="1"/>
+      <c r="H548" s="1">
+        <v>1</v>
+      </c>
       <c r="I548" s="1" t="s">
         <v>1284</v>
       </c>
@@ -20817,7 +21911,9 @@
       <c r="G549" s="1">
         <v>2797</v>
       </c>
-      <c r="H549" s="1"/>
+      <c r="H549" s="1">
+        <v>1</v>
+      </c>
       <c r="I549" s="1" t="s">
         <v>1456</v>
       </c>
@@ -20844,7 +21940,9 @@
       <c r="G550" s="1">
         <v>2464</v>
       </c>
-      <c r="H550" s="1"/>
+      <c r="H550" s="1">
+        <v>1</v>
+      </c>
       <c r="I550" s="1" t="s">
         <v>1456</v>
       </c>
@@ -20871,7 +21969,9 @@
       <c r="G551" s="1">
         <v>2111</v>
       </c>
-      <c r="H551" s="1"/>
+      <c r="H551" s="1">
+        <v>1</v>
+      </c>
       <c r="I551" s="1" t="s">
         <v>1456</v>
       </c>
@@ -20898,7 +21998,9 @@
       <c r="G552" s="1">
         <v>1849</v>
       </c>
-      <c r="H552" s="1"/>
+      <c r="H552" s="1">
+        <v>1</v>
+      </c>
       <c r="I552" s="1" t="s">
         <v>1456</v>
       </c>
@@ -20925,7 +22027,9 @@
       <c r="G553" s="1">
         <v>1624</v>
       </c>
-      <c r="H553" s="1"/>
+      <c r="H553" s="1">
+        <v>1</v>
+      </c>
       <c r="I553" s="1" t="s">
         <v>1456</v>
       </c>
@@ -20952,7 +22056,9 @@
       <c r="G554" s="1">
         <v>1378</v>
       </c>
-      <c r="H554" s="1"/>
+      <c r="H554" s="1">
+        <v>1</v>
+      </c>
       <c r="I554" s="1" t="s">
         <v>1456</v>
       </c>
@@ -20979,7 +22085,9 @@
       <c r="G555" s="1">
         <v>1351</v>
       </c>
-      <c r="H555" s="1"/>
+      <c r="H555" s="1">
+        <v>1</v>
+      </c>
       <c r="I555" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21006,7 +22114,9 @@
       <c r="G556" s="1">
         <v>1240</v>
       </c>
-      <c r="H556" s="1"/>
+      <c r="H556" s="1">
+        <v>1</v>
+      </c>
       <c r="I556" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21033,7 +22143,9 @@
       <c r="G557" s="1">
         <v>1181</v>
       </c>
-      <c r="H557" s="1"/>
+      <c r="H557" s="1">
+        <v>1</v>
+      </c>
       <c r="I557" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21060,7 +22172,9 @@
       <c r="G558" s="1">
         <v>1050</v>
       </c>
-      <c r="H558" s="1"/>
+      <c r="H558" s="1">
+        <v>1</v>
+      </c>
       <c r="I558" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21087,7 +22201,9 @@
       <c r="G559" s="1">
         <v>860</v>
       </c>
-      <c r="H559" s="1"/>
+      <c r="H559" s="1">
+        <v>1</v>
+      </c>
       <c r="I559" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21114,7 +22230,9 @@
       <c r="G560" s="1">
         <v>852</v>
       </c>
-      <c r="H560" s="1"/>
+      <c r="H560" s="1">
+        <v>1</v>
+      </c>
       <c r="I560" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21141,7 +22259,9 @@
       <c r="G561" s="1">
         <v>843</v>
       </c>
-      <c r="H561" s="1"/>
+      <c r="H561" s="1">
+        <v>1</v>
+      </c>
       <c r="I561" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21168,7 +22288,9 @@
       <c r="G562" s="1">
         <v>817</v>
       </c>
-      <c r="H562" s="1"/>
+      <c r="H562" s="1">
+        <v>1</v>
+      </c>
       <c r="I562" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21195,7 +22317,9 @@
       <c r="G563" s="1">
         <v>814</v>
       </c>
-      <c r="H563" s="1"/>
+      <c r="H563" s="1">
+        <v>1</v>
+      </c>
       <c r="I563" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21222,7 +22346,9 @@
       <c r="G564" s="1">
         <v>802</v>
       </c>
-      <c r="H564" s="1"/>
+      <c r="H564" s="1">
+        <v>1</v>
+      </c>
       <c r="I564" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21249,7 +22375,9 @@
       <c r="G565" s="1">
         <v>788</v>
       </c>
-      <c r="H565" s="1"/>
+      <c r="H565" s="1">
+        <v>1</v>
+      </c>
       <c r="I565" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21276,7 +22404,9 @@
       <c r="G566" s="1">
         <v>761</v>
       </c>
-      <c r="H566" s="1"/>
+      <c r="H566" s="1">
+        <v>1</v>
+      </c>
       <c r="I566" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21303,7 +22433,9 @@
       <c r="G567" s="1">
         <v>696</v>
       </c>
-      <c r="H567" s="1"/>
+      <c r="H567" s="1">
+        <v>1</v>
+      </c>
       <c r="I567" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21330,7 +22462,9 @@
       <c r="G568" s="1">
         <v>693</v>
       </c>
-      <c r="H568" s="1"/>
+      <c r="H568" s="1">
+        <v>1</v>
+      </c>
       <c r="I568" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21357,7 +22491,9 @@
       <c r="G569" s="1">
         <v>594</v>
       </c>
-      <c r="H569" s="1"/>
+      <c r="H569" s="1">
+        <v>1</v>
+      </c>
       <c r="I569" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21384,7 +22520,9 @@
       <c r="G570" s="1">
         <v>547</v>
       </c>
-      <c r="H570" s="1"/>
+      <c r="H570" s="1">
+        <v>1</v>
+      </c>
       <c r="I570" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21411,7 +22549,9 @@
       <c r="G571" s="1">
         <v>547</v>
       </c>
-      <c r="H571" s="1"/>
+      <c r="H571" s="1">
+        <v>1</v>
+      </c>
       <c r="I571" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21438,7 +22578,9 @@
       <c r="G572" s="1">
         <v>540</v>
       </c>
-      <c r="H572" s="1"/>
+      <c r="H572" s="1">
+        <v>1</v>
+      </c>
       <c r="I572" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21465,7 +22607,9 @@
       <c r="G573" s="1">
         <v>489</v>
       </c>
-      <c r="H573" s="1"/>
+      <c r="H573" s="1">
+        <v>1</v>
+      </c>
       <c r="I573" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21492,7 +22636,9 @@
       <c r="G574" s="1">
         <v>448</v>
       </c>
-      <c r="H574" s="1"/>
+      <c r="H574" s="1">
+        <v>1</v>
+      </c>
       <c r="I574" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21519,7 +22665,9 @@
       <c r="G575" s="1">
         <v>438</v>
       </c>
-      <c r="H575" s="1"/>
+      <c r="H575" s="1">
+        <v>1</v>
+      </c>
       <c r="I575" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21546,7 +22694,9 @@
       <c r="G576" s="1">
         <v>435</v>
       </c>
-      <c r="H576" s="1"/>
+      <c r="H576" s="1">
+        <v>1</v>
+      </c>
       <c r="I576" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21573,7 +22723,9 @@
       <c r="G577" s="1">
         <v>415</v>
       </c>
-      <c r="H577" s="1"/>
+      <c r="H577" s="1">
+        <v>1</v>
+      </c>
       <c r="I577" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21600,7 +22752,9 @@
       <c r="G578" s="1">
         <v>396</v>
       </c>
-      <c r="H578" s="1"/>
+      <c r="H578" s="1">
+        <v>1</v>
+      </c>
       <c r="I578" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21627,7 +22781,9 @@
       <c r="G579" s="1">
         <v>374</v>
       </c>
-      <c r="H579" s="1"/>
+      <c r="H579" s="1">
+        <v>1</v>
+      </c>
       <c r="I579" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21654,7 +22810,9 @@
       <c r="G580" s="1">
         <v>373</v>
       </c>
-      <c r="H580" s="1"/>
+      <c r="H580" s="1">
+        <v>1</v>
+      </c>
       <c r="I580" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21681,7 +22839,9 @@
       <c r="G581" s="1">
         <v>337</v>
       </c>
-      <c r="H581" s="1"/>
+      <c r="H581" s="1">
+        <v>1</v>
+      </c>
       <c r="I581" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21708,7 +22868,9 @@
       <c r="G582" s="1">
         <v>331</v>
       </c>
-      <c r="H582" s="1"/>
+      <c r="H582" s="1">
+        <v>1</v>
+      </c>
       <c r="I582" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21735,7 +22897,9 @@
       <c r="G583" s="1">
         <v>322</v>
       </c>
-      <c r="H583" s="1"/>
+      <c r="H583" s="1">
+        <v>1</v>
+      </c>
       <c r="I583" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21762,7 +22926,9 @@
       <c r="G584" s="1">
         <v>321</v>
       </c>
-      <c r="H584" s="1"/>
+      <c r="H584" s="1">
+        <v>1</v>
+      </c>
       <c r="I584" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21789,7 +22955,9 @@
       <c r="G585" s="1">
         <v>317</v>
       </c>
-      <c r="H585" s="1"/>
+      <c r="H585" s="1">
+        <v>1</v>
+      </c>
       <c r="I585" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21816,7 +22984,9 @@
       <c r="G586" s="1">
         <v>315</v>
       </c>
-      <c r="H586" s="1"/>
+      <c r="H586" s="1">
+        <v>1</v>
+      </c>
       <c r="I586" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21843,7 +23013,9 @@
       <c r="G587" s="1">
         <v>311</v>
       </c>
-      <c r="H587" s="1"/>
+      <c r="H587" s="1">
+        <v>1</v>
+      </c>
       <c r="I587" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21870,7 +23042,9 @@
       <c r="G588" s="1">
         <v>308</v>
       </c>
-      <c r="H588" s="1"/>
+      <c r="H588" s="1">
+        <v>1</v>
+      </c>
       <c r="I588" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21897,7 +23071,9 @@
       <c r="G589" s="1">
         <v>308</v>
       </c>
-      <c r="H589" s="1"/>
+      <c r="H589" s="1">
+        <v>1</v>
+      </c>
       <c r="I589" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21924,7 +23100,9 @@
       <c r="G590" s="1">
         <v>307</v>
       </c>
-      <c r="H590" s="1"/>
+      <c r="H590" s="1">
+        <v>1</v>
+      </c>
       <c r="I590" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21951,7 +23129,9 @@
       <c r="G591" s="1">
         <v>296</v>
       </c>
-      <c r="H591" s="1"/>
+      <c r="H591" s="1">
+        <v>1</v>
+      </c>
       <c r="I591" s="1" t="s">
         <v>1456</v>
       </c>
@@ -21978,7 +23158,9 @@
       <c r="G592" s="1">
         <v>295</v>
       </c>
-      <c r="H592" s="1"/>
+      <c r="H592" s="1">
+        <v>1</v>
+      </c>
       <c r="I592" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22005,7 +23187,9 @@
       <c r="G593" s="1">
         <v>293</v>
       </c>
-      <c r="H593" s="1"/>
+      <c r="H593" s="1">
+        <v>1</v>
+      </c>
       <c r="I593" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22032,7 +23216,9 @@
       <c r="G594" s="1">
         <v>292</v>
       </c>
-      <c r="H594" s="1"/>
+      <c r="H594" s="1">
+        <v>1</v>
+      </c>
       <c r="I594" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22059,7 +23245,9 @@
       <c r="G595" s="1">
         <v>282</v>
       </c>
-      <c r="H595" s="1"/>
+      <c r="H595" s="1">
+        <v>1</v>
+      </c>
       <c r="I595" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22086,7 +23274,9 @@
       <c r="G596" s="1">
         <v>274</v>
       </c>
-      <c r="H596" s="1"/>
+      <c r="H596" s="1">
+        <v>1</v>
+      </c>
       <c r="I596" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22113,7 +23303,9 @@
       <c r="G597" s="1">
         <v>268</v>
       </c>
-      <c r="H597" s="1"/>
+      <c r="H597" s="1">
+        <v>1</v>
+      </c>
       <c r="I597" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22140,7 +23332,9 @@
       <c r="G598" s="1">
         <v>267</v>
       </c>
-      <c r="H598" s="1"/>
+      <c r="H598" s="1">
+        <v>1</v>
+      </c>
       <c r="I598" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22167,7 +23361,9 @@
       <c r="G599" s="1">
         <v>258</v>
       </c>
-      <c r="H599" s="1"/>
+      <c r="H599" s="1">
+        <v>1</v>
+      </c>
       <c r="I599" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22194,7 +23390,9 @@
       <c r="G600" s="1">
         <v>255</v>
       </c>
-      <c r="H600" s="1"/>
+      <c r="H600" s="1">
+        <v>1</v>
+      </c>
       <c r="I600" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22221,7 +23419,9 @@
       <c r="G601" s="1">
         <v>250</v>
       </c>
-      <c r="H601" s="1"/>
+      <c r="H601" s="1">
+        <v>1</v>
+      </c>
       <c r="I601" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22248,7 +23448,9 @@
       <c r="G602" s="1">
         <v>240</v>
       </c>
-      <c r="H602" s="1"/>
+      <c r="H602" s="1">
+        <v>1</v>
+      </c>
       <c r="I602" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22275,7 +23477,9 @@
       <c r="G603" s="1">
         <v>236</v>
       </c>
-      <c r="H603" s="1"/>
+      <c r="H603" s="1">
+        <v>1</v>
+      </c>
       <c r="I603" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22302,7 +23506,9 @@
       <c r="G604" s="1">
         <v>236</v>
       </c>
-      <c r="H604" s="1"/>
+      <c r="H604" s="1">
+        <v>1</v>
+      </c>
       <c r="I604" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22329,7 +23535,9 @@
       <c r="G605" s="1">
         <v>231</v>
       </c>
-      <c r="H605" s="1"/>
+      <c r="H605" s="1">
+        <v>1</v>
+      </c>
       <c r="I605" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22356,7 +23564,9 @@
       <c r="G606" s="1">
         <v>229</v>
       </c>
-      <c r="H606" s="1"/>
+      <c r="H606" s="1">
+        <v>1</v>
+      </c>
       <c r="I606" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22383,7 +23593,9 @@
       <c r="G607" s="1">
         <v>216</v>
       </c>
-      <c r="H607" s="1"/>
+      <c r="H607" s="1">
+        <v>1</v>
+      </c>
       <c r="I607" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22410,7 +23622,9 @@
       <c r="G608" s="1">
         <v>214</v>
       </c>
-      <c r="H608" s="1"/>
+      <c r="H608" s="1">
+        <v>1</v>
+      </c>
       <c r="I608" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22437,7 +23651,9 @@
       <c r="G609" s="1">
         <v>209</v>
       </c>
-      <c r="H609" s="1"/>
+      <c r="H609" s="1">
+        <v>1</v>
+      </c>
       <c r="I609" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22464,7 +23680,9 @@
       <c r="G610" s="1">
         <v>209</v>
       </c>
-      <c r="H610" s="1"/>
+      <c r="H610" s="1">
+        <v>1</v>
+      </c>
       <c r="I610" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22491,7 +23709,9 @@
       <c r="G611" s="1">
         <v>206</v>
       </c>
-      <c r="H611" s="1"/>
+      <c r="H611" s="1">
+        <v>1</v>
+      </c>
       <c r="I611" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22518,7 +23738,9 @@
       <c r="G612" s="1">
         <v>206</v>
       </c>
-      <c r="H612" s="1"/>
+      <c r="H612" s="1">
+        <v>1</v>
+      </c>
       <c r="I612" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22545,7 +23767,9 @@
       <c r="G613" s="1">
         <v>206</v>
       </c>
-      <c r="H613" s="1"/>
+      <c r="H613" s="1">
+        <v>1</v>
+      </c>
       <c r="I613" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22572,7 +23796,9 @@
       <c r="G614" s="1">
         <v>203</v>
       </c>
-      <c r="H614" s="1"/>
+      <c r="H614" s="1">
+        <v>1</v>
+      </c>
       <c r="I614" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22599,7 +23825,9 @@
       <c r="G615" s="1">
         <v>200</v>
       </c>
-      <c r="H615" s="1"/>
+      <c r="H615" s="1">
+        <v>1</v>
+      </c>
       <c r="I615" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22626,7 +23854,9 @@
       <c r="G616" s="1">
         <v>198</v>
       </c>
-      <c r="H616" s="1"/>
+      <c r="H616" s="1">
+        <v>1</v>
+      </c>
       <c r="I616" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22653,7 +23883,9 @@
       <c r="G617" s="1">
         <v>190</v>
       </c>
-      <c r="H617" s="1"/>
+      <c r="H617" s="1">
+        <v>1</v>
+      </c>
       <c r="I617" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22680,7 +23912,9 @@
       <c r="G618" s="1">
         <v>185</v>
       </c>
-      <c r="H618" s="1"/>
+      <c r="H618" s="1">
+        <v>1</v>
+      </c>
       <c r="I618" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22707,7 +23941,9 @@
       <c r="G619" s="1">
         <v>173</v>
       </c>
-      <c r="H619" s="1"/>
+      <c r="H619" s="1">
+        <v>1</v>
+      </c>
       <c r="I619" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22734,7 +23970,9 @@
       <c r="G620" s="1">
         <v>171</v>
       </c>
-      <c r="H620" s="1"/>
+      <c r="H620" s="1">
+        <v>1</v>
+      </c>
       <c r="I620" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22761,7 +23999,9 @@
       <c r="G621" s="1">
         <v>171</v>
       </c>
-      <c r="H621" s="1"/>
+      <c r="H621" s="1">
+        <v>1</v>
+      </c>
       <c r="I621" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22788,7 +24028,9 @@
       <c r="G622" s="1">
         <v>170</v>
       </c>
-      <c r="H622" s="1"/>
+      <c r="H622" s="1">
+        <v>1</v>
+      </c>
       <c r="I622" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22815,7 +24057,9 @@
       <c r="G623" s="1">
         <v>169</v>
       </c>
-      <c r="H623" s="1"/>
+      <c r="H623" s="1">
+        <v>1</v>
+      </c>
       <c r="I623" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22842,7 +24086,9 @@
       <c r="G624" s="1">
         <v>161</v>
       </c>
-      <c r="H624" s="1"/>
+      <c r="H624" s="1">
+        <v>1</v>
+      </c>
       <c r="I624" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22869,7 +24115,9 @@
       <c r="G625" s="1">
         <v>160</v>
       </c>
-      <c r="H625" s="1"/>
+      <c r="H625" s="1">
+        <v>1</v>
+      </c>
       <c r="I625" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22896,7 +24144,9 @@
       <c r="G626" s="1">
         <v>160</v>
       </c>
-      <c r="H626" s="1"/>
+      <c r="H626" s="1">
+        <v>1</v>
+      </c>
       <c r="I626" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22923,7 +24173,9 @@
       <c r="G627" s="1">
         <v>120</v>
       </c>
-      <c r="H627" s="1"/>
+      <c r="H627" s="1">
+        <v>1</v>
+      </c>
       <c r="I627" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22950,7 +24202,9 @@
       <c r="G628" s="1">
         <v>112</v>
       </c>
-      <c r="H628" s="1"/>
+      <c r="H628" s="1">
+        <v>1</v>
+      </c>
       <c r="I628" s="1" t="s">
         <v>1456</v>
       </c>
@@ -22977,7 +24231,9 @@
       <c r="G629" s="1">
         <v>108</v>
       </c>
-      <c r="H629" s="1"/>
+      <c r="H629" s="1">
+        <v>1</v>
+      </c>
       <c r="I629" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23004,7 +24260,9 @@
       <c r="G630" s="1">
         <v>103</v>
       </c>
-      <c r="H630" s="1"/>
+      <c r="H630" s="1">
+        <v>1</v>
+      </c>
       <c r="I630" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23031,7 +24289,9 @@
       <c r="G631" s="1">
         <v>85</v>
       </c>
-      <c r="H631" s="1"/>
+      <c r="H631" s="1">
+        <v>1</v>
+      </c>
       <c r="I631" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23058,7 +24318,9 @@
       <c r="G632" s="1">
         <v>83</v>
       </c>
-      <c r="H632" s="1"/>
+      <c r="H632" s="1">
+        <v>1</v>
+      </c>
       <c r="I632" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23085,7 +24347,9 @@
       <c r="G633" s="1">
         <v>70</v>
       </c>
-      <c r="H633" s="1"/>
+      <c r="H633" s="1">
+        <v>1</v>
+      </c>
       <c r="I633" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23112,7 +24376,9 @@
       <c r="G634" s="1">
         <v>70</v>
       </c>
-      <c r="H634" s="1"/>
+      <c r="H634" s="1">
+        <v>1</v>
+      </c>
       <c r="I634" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23139,7 +24405,9 @@
       <c r="G635" s="1">
         <v>66</v>
       </c>
-      <c r="H635" s="1"/>
+      <c r="H635" s="1">
+        <v>1</v>
+      </c>
       <c r="I635" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23166,7 +24434,9 @@
       <c r="G636" s="1">
         <v>59</v>
       </c>
-      <c r="H636" s="1"/>
+      <c r="H636" s="1">
+        <v>1</v>
+      </c>
       <c r="I636" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23193,7 +24463,9 @@
       <c r="G637" s="1">
         <v>58</v>
       </c>
-      <c r="H637" s="1"/>
+      <c r="H637" s="1">
+        <v>1</v>
+      </c>
       <c r="I637" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23220,7 +24492,9 @@
       <c r="G638" s="1">
         <v>58</v>
       </c>
-      <c r="H638" s="1"/>
+      <c r="H638" s="1">
+        <v>1</v>
+      </c>
       <c r="I638" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23247,7 +24521,9 @@
       <c r="G639" s="1">
         <v>55</v>
       </c>
-      <c r="H639" s="1"/>
+      <c r="H639" s="1">
+        <v>1</v>
+      </c>
       <c r="I639" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23274,7 +24550,9 @@
       <c r="G640" s="1">
         <v>55</v>
       </c>
-      <c r="H640" s="1"/>
+      <c r="H640" s="1">
+        <v>1</v>
+      </c>
       <c r="I640" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23301,7 +24579,9 @@
       <c r="G641" s="1">
         <v>52</v>
       </c>
-      <c r="H641" s="1"/>
+      <c r="H641" s="1">
+        <v>1</v>
+      </c>
       <c r="I641" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23328,7 +24608,9 @@
       <c r="G642" s="1">
         <v>50</v>
       </c>
-      <c r="H642" s="1"/>
+      <c r="H642" s="1">
+        <v>1</v>
+      </c>
       <c r="I642" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23355,7 +24637,9 @@
       <c r="G643" s="1">
         <v>45</v>
       </c>
-      <c r="H643" s="1"/>
+      <c r="H643" s="1">
+        <v>1</v>
+      </c>
       <c r="I643" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23382,7 +24666,9 @@
       <c r="G644" s="1">
         <v>44</v>
       </c>
-      <c r="H644" s="1"/>
+      <c r="H644" s="1">
+        <v>1</v>
+      </c>
       <c r="I644" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23409,7 +24695,9 @@
       <c r="G645" s="1">
         <v>39</v>
       </c>
-      <c r="H645" s="1"/>
+      <c r="H645" s="1">
+        <v>1</v>
+      </c>
       <c r="I645" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23436,7 +24724,9 @@
       <c r="G646" s="1">
         <v>34</v>
       </c>
-      <c r="H646" s="1"/>
+      <c r="H646" s="1">
+        <v>1</v>
+      </c>
       <c r="I646" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23463,7 +24753,9 @@
       <c r="G647" s="1">
         <v>33</v>
       </c>
-      <c r="H647" s="1"/>
+      <c r="H647" s="1">
+        <v>1</v>
+      </c>
       <c r="I647" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23490,7 +24782,9 @@
       <c r="G648" s="1">
         <v>28</v>
       </c>
-      <c r="H648" s="1"/>
+      <c r="H648" s="1">
+        <v>1</v>
+      </c>
       <c r="I648" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23517,7 +24811,9 @@
       <c r="G649" s="1">
         <v>26</v>
       </c>
-      <c r="H649" s="1"/>
+      <c r="H649" s="1">
+        <v>1</v>
+      </c>
       <c r="I649" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23544,7 +24840,9 @@
       <c r="G650" s="1">
         <v>26</v>
       </c>
-      <c r="H650" s="1"/>
+      <c r="H650" s="1">
+        <v>1</v>
+      </c>
       <c r="I650" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23571,7 +24869,9 @@
       <c r="G651" s="1">
         <v>23</v>
       </c>
-      <c r="H651" s="1"/>
+      <c r="H651" s="1">
+        <v>1</v>
+      </c>
       <c r="I651" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23598,7 +24898,9 @@
       <c r="G652" s="1">
         <v>17</v>
       </c>
-      <c r="H652" s="1"/>
+      <c r="H652" s="1">
+        <v>1</v>
+      </c>
       <c r="I652" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23625,7 +24927,9 @@
       <c r="G653" s="1">
         <v>16</v>
       </c>
-      <c r="H653" s="1"/>
+      <c r="H653" s="1">
+        <v>1</v>
+      </c>
       <c r="I653" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23652,7 +24956,9 @@
       <c r="G654" s="1">
         <v>15</v>
       </c>
-      <c r="H654" s="1"/>
+      <c r="H654" s="1">
+        <v>1</v>
+      </c>
       <c r="I654" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23679,7 +24985,9 @@
       <c r="G655" s="1">
         <v>13</v>
       </c>
-      <c r="H655" s="1"/>
+      <c r="H655" s="1">
+        <v>1</v>
+      </c>
       <c r="I655" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23706,7 +25014,9 @@
       <c r="G656" s="1">
         <v>12</v>
       </c>
-      <c r="H656" s="1"/>
+      <c r="H656" s="1">
+        <v>1</v>
+      </c>
       <c r="I656" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23733,7 +25043,9 @@
       <c r="G657" s="1">
         <v>10</v>
       </c>
-      <c r="H657" s="1"/>
+      <c r="H657" s="1">
+        <v>1</v>
+      </c>
       <c r="I657" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23760,7 +25072,9 @@
       <c r="G658" s="1">
         <v>7</v>
       </c>
-      <c r="H658" s="1"/>
+      <c r="H658" s="1">
+        <v>1</v>
+      </c>
       <c r="I658" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23787,7 +25101,9 @@
       <c r="G659" s="1">
         <v>6</v>
       </c>
-      <c r="H659" s="1"/>
+      <c r="H659" s="1">
+        <v>1</v>
+      </c>
       <c r="I659" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23814,7 +25130,9 @@
       <c r="G660" s="1">
         <v>6</v>
       </c>
-      <c r="H660" s="1"/>
+      <c r="H660" s="1">
+        <v>1</v>
+      </c>
       <c r="I660" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23841,7 +25159,9 @@
       <c r="G661" s="1">
         <v>3</v>
       </c>
-      <c r="H661" s="1"/>
+      <c r="H661" s="1">
+        <v>1</v>
+      </c>
       <c r="I661" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23868,7 +25188,9 @@
       <c r="G662" s="1">
         <v>2</v>
       </c>
-      <c r="H662" s="1"/>
+      <c r="H662" s="1">
+        <v>1</v>
+      </c>
       <c r="I662" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23895,7 +25217,9 @@
       <c r="G663" s="1">
         <v>1</v>
       </c>
-      <c r="H663" s="1"/>
+      <c r="H663" s="1">
+        <v>1</v>
+      </c>
       <c r="I663" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23922,7 +25246,9 @@
       <c r="G664" s="1">
         <v>1</v>
       </c>
-      <c r="H664" s="1"/>
+      <c r="H664" s="1">
+        <v>1</v>
+      </c>
       <c r="I664" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23949,7 +25275,9 @@
       <c r="G665" s="1">
         <v>0</v>
       </c>
-      <c r="H665" s="1"/>
+      <c r="H665" s="1">
+        <v>1</v>
+      </c>
       <c r="I665" s="1" t="s">
         <v>1456</v>
       </c>
@@ -23976,7 +25304,9 @@
       <c r="G666" s="1">
         <v>0</v>
       </c>
-      <c r="H666" s="1"/>
+      <c r="H666" s="1">
+        <v>1</v>
+      </c>
       <c r="I666" s="1" t="s">
         <v>1456</v>
       </c>
@@ -24003,7 +25333,9 @@
       <c r="G667" s="1">
         <v>0</v>
       </c>
-      <c r="H667" s="1"/>
+      <c r="H667" s="1">
+        <v>1</v>
+      </c>
       <c r="I667" s="1" t="s">
         <v>1456</v>
       </c>
@@ -24030,7 +25362,9 @@
       <c r="G668" s="1">
         <v>0</v>
       </c>
-      <c r="H668" s="1"/>
+      <c r="H668" s="1">
+        <v>1</v>
+      </c>
       <c r="I668" s="1" t="s">
         <v>1456</v>
       </c>
@@ -24057,7 +25391,9 @@
       <c r="G669" s="1">
         <v>1849</v>
       </c>
-      <c r="H669" s="1"/>
+      <c r="H669" s="1">
+        <v>1</v>
+      </c>
       <c r="I669" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24084,7 +25420,9 @@
       <c r="G670" s="1">
         <v>1447</v>
       </c>
-      <c r="H670" s="1"/>
+      <c r="H670" s="1">
+        <v>1</v>
+      </c>
       <c r="I670" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24111,7 +25449,9 @@
       <c r="G671" s="1">
         <v>1351</v>
       </c>
-      <c r="H671" s="1"/>
+      <c r="H671" s="1">
+        <v>1</v>
+      </c>
       <c r="I671" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24138,7 +25478,9 @@
       <c r="G672" s="1">
         <v>1126</v>
       </c>
-      <c r="H672" s="1"/>
+      <c r="H672" s="1">
+        <v>1</v>
+      </c>
       <c r="I672" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24165,7 +25507,9 @@
       <c r="G673" s="1">
         <v>802</v>
       </c>
-      <c r="H673" s="1"/>
+      <c r="H673" s="1">
+        <v>1</v>
+      </c>
       <c r="I673" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24192,7 +25536,9 @@
       <c r="G674" s="1">
         <v>693</v>
       </c>
-      <c r="H674" s="1"/>
+      <c r="H674" s="1">
+        <v>1</v>
+      </c>
       <c r="I674" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24219,7 +25565,9 @@
       <c r="G675" s="1">
         <v>689</v>
       </c>
-      <c r="H675" s="1"/>
+      <c r="H675" s="1">
+        <v>1</v>
+      </c>
       <c r="I675" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24246,7 +25594,9 @@
       <c r="G676" s="1">
         <v>656</v>
       </c>
-      <c r="H676" s="1"/>
+      <c r="H676" s="1">
+        <v>1</v>
+      </c>
       <c r="I676" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24273,7 +25623,9 @@
       <c r="G677" s="1">
         <v>547</v>
       </c>
-      <c r="H677" s="1"/>
+      <c r="H677" s="1">
+        <v>1</v>
+      </c>
       <c r="I677" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24300,7 +25652,9 @@
       <c r="G678" s="1">
         <v>493</v>
       </c>
-      <c r="H678" s="1"/>
+      <c r="H678" s="1">
+        <v>1</v>
+      </c>
       <c r="I678" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24327,7 +25681,9 @@
       <c r="G679" s="1">
         <v>435</v>
       </c>
-      <c r="H679" s="1"/>
+      <c r="H679" s="1">
+        <v>1</v>
+      </c>
       <c r="I679" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24354,7 +25710,9 @@
       <c r="G680" s="1">
         <v>409</v>
       </c>
-      <c r="H680" s="1"/>
+      <c r="H680" s="1">
+        <v>1</v>
+      </c>
       <c r="I680" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24381,7 +25739,9 @@
       <c r="G681" s="1">
         <v>388</v>
       </c>
-      <c r="H681" s="1"/>
+      <c r="H681" s="1">
+        <v>1</v>
+      </c>
       <c r="I681" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24408,7 +25768,9 @@
       <c r="G682" s="1">
         <v>374</v>
       </c>
-      <c r="H682" s="1"/>
+      <c r="H682" s="1">
+        <v>1</v>
+      </c>
       <c r="I682" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24435,7 +25797,9 @@
       <c r="G683" s="1">
         <v>355</v>
       </c>
-      <c r="H683" s="1"/>
+      <c r="H683" s="1">
+        <v>1</v>
+      </c>
       <c r="I683" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24462,7 +25826,9 @@
       <c r="G684" s="1">
         <v>330</v>
       </c>
-      <c r="H684" s="1"/>
+      <c r="H684" s="1">
+        <v>1</v>
+      </c>
       <c r="I684" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24489,7 +25855,9 @@
       <c r="G685" s="1">
         <v>292</v>
       </c>
-      <c r="H685" s="1"/>
+      <c r="H685" s="1">
+        <v>1</v>
+      </c>
       <c r="I685" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24516,7 +25884,9 @@
       <c r="G686" s="1">
         <v>284</v>
       </c>
-      <c r="H686" s="1"/>
+      <c r="H686" s="1">
+        <v>1</v>
+      </c>
       <c r="I686" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24543,7 +25913,9 @@
       <c r="G687" s="1">
         <v>274</v>
       </c>
-      <c r="H687" s="1"/>
+      <c r="H687" s="1">
+        <v>1</v>
+      </c>
       <c r="I687" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24570,7 +25942,9 @@
       <c r="G688" s="1">
         <v>268</v>
       </c>
-      <c r="H688" s="1"/>
+      <c r="H688" s="1">
+        <v>1</v>
+      </c>
       <c r="I688" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24597,7 +25971,9 @@
       <c r="G689" s="1">
         <v>258</v>
       </c>
-      <c r="H689" s="1"/>
+      <c r="H689" s="1">
+        <v>1</v>
+      </c>
       <c r="I689" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24624,7 +26000,9 @@
       <c r="G690" s="1">
         <v>231</v>
       </c>
-      <c r="H690" s="1"/>
+      <c r="H690" s="1">
+        <v>1</v>
+      </c>
       <c r="I690" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24651,7 +26029,9 @@
       <c r="G691" s="1">
         <v>217</v>
       </c>
-      <c r="H691" s="1"/>
+      <c r="H691" s="1">
+        <v>1</v>
+      </c>
       <c r="I691" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24678,7 +26058,9 @@
       <c r="G692" s="1">
         <v>213</v>
       </c>
-      <c r="H692" s="1"/>
+      <c r="H692" s="1">
+        <v>1</v>
+      </c>
       <c r="I692" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24705,7 +26087,9 @@
       <c r="G693" s="1">
         <v>206</v>
       </c>
-      <c r="H693" s="1"/>
+      <c r="H693" s="1">
+        <v>1</v>
+      </c>
       <c r="I693" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24732,7 +26116,9 @@
       <c r="G694" s="1">
         <v>183</v>
       </c>
-      <c r="H694" s="1"/>
+      <c r="H694" s="1">
+        <v>1</v>
+      </c>
       <c r="I694" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24759,7 +26145,9 @@
       <c r="G695" s="1">
         <v>180</v>
       </c>
-      <c r="H695" s="1"/>
+      <c r="H695" s="1">
+        <v>1</v>
+      </c>
       <c r="I695" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24786,7 +26174,9 @@
       <c r="G696" s="1">
         <v>172</v>
       </c>
-      <c r="H696" s="1"/>
+      <c r="H696" s="1">
+        <v>1</v>
+      </c>
       <c r="I696" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24813,7 +26203,9 @@
       <c r="G697" s="1">
         <v>171</v>
       </c>
-      <c r="H697" s="1"/>
+      <c r="H697" s="1">
+        <v>1</v>
+      </c>
       <c r="I697" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24840,7 +26232,9 @@
       <c r="G698" s="1">
         <v>161</v>
       </c>
-      <c r="H698" s="1"/>
+      <c r="H698" s="1">
+        <v>1</v>
+      </c>
       <c r="I698" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24867,7 +26261,9 @@
       <c r="G699" s="1">
         <v>153</v>
       </c>
-      <c r="H699" s="1"/>
+      <c r="H699" s="1">
+        <v>1</v>
+      </c>
       <c r="I699" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24894,7 +26290,9 @@
       <c r="G700" s="1">
         <v>152</v>
       </c>
-      <c r="H700" s="1"/>
+      <c r="H700" s="1">
+        <v>1</v>
+      </c>
       <c r="I700" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24921,7 +26319,9 @@
       <c r="G701" s="1">
         <v>147</v>
       </c>
-      <c r="H701" s="1"/>
+      <c r="H701" s="1">
+        <v>1</v>
+      </c>
       <c r="I701" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24948,7 +26348,9 @@
       <c r="G702" s="1">
         <v>129</v>
       </c>
-      <c r="H702" s="1"/>
+      <c r="H702" s="1">
+        <v>1</v>
+      </c>
       <c r="I702" s="1" t="s">
         <v>1509</v>
       </c>
@@ -24975,7 +26377,9 @@
       <c r="G703" s="1">
         <v>115</v>
       </c>
-      <c r="H703" s="1"/>
+      <c r="H703" s="1">
+        <v>1</v>
+      </c>
       <c r="I703" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25002,7 +26406,9 @@
       <c r="G704" s="1">
         <v>106</v>
       </c>
-      <c r="H704" s="1"/>
+      <c r="H704" s="1">
+        <v>1</v>
+      </c>
       <c r="I704" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25029,7 +26435,9 @@
       <c r="G705" s="1">
         <v>92</v>
       </c>
-      <c r="H705" s="1"/>
+      <c r="H705" s="1">
+        <v>1</v>
+      </c>
       <c r="I705" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25056,7 +26464,9 @@
       <c r="G706" s="1">
         <v>92</v>
       </c>
-      <c r="H706" s="1"/>
+      <c r="H706" s="1">
+        <v>1</v>
+      </c>
       <c r="I706" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25083,7 +26493,9 @@
       <c r="G707" s="1">
         <v>91</v>
       </c>
-      <c r="H707" s="1"/>
+      <c r="H707" s="1">
+        <v>1</v>
+      </c>
       <c r="I707" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25110,7 +26522,9 @@
       <c r="G708" s="1">
         <v>83</v>
       </c>
-      <c r="H708" s="1"/>
+      <c r="H708" s="1">
+        <v>1</v>
+      </c>
       <c r="I708" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25137,7 +26551,9 @@
       <c r="G709" s="1">
         <v>78</v>
       </c>
-      <c r="H709" s="1"/>
+      <c r="H709" s="1">
+        <v>1</v>
+      </c>
       <c r="I709" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25164,7 +26580,9 @@
       <c r="G710" s="1">
         <v>73</v>
       </c>
-      <c r="H710" s="1"/>
+      <c r="H710" s="1">
+        <v>1</v>
+      </c>
       <c r="I710" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25191,7 +26609,9 @@
       <c r="G711" s="1">
         <v>61</v>
       </c>
-      <c r="H711" s="1"/>
+      <c r="H711" s="1">
+        <v>1</v>
+      </c>
       <c r="I711" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25218,7 +26638,9 @@
       <c r="G712" s="1">
         <v>58</v>
       </c>
-      <c r="H712" s="1"/>
+      <c r="H712" s="1">
+        <v>1</v>
+      </c>
       <c r="I712" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25245,7 +26667,9 @@
       <c r="G713" s="1">
         <v>57</v>
       </c>
-      <c r="H713" s="1"/>
+      <c r="H713" s="1">
+        <v>1</v>
+      </c>
       <c r="I713" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25272,7 +26696,9 @@
       <c r="G714" s="1">
         <v>55</v>
       </c>
-      <c r="H714" s="1"/>
+      <c r="H714" s="1">
+        <v>1</v>
+      </c>
       <c r="I714" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25299,7 +26725,9 @@
       <c r="G715" s="1">
         <v>55</v>
       </c>
-      <c r="H715" s="1"/>
+      <c r="H715" s="1">
+        <v>1</v>
+      </c>
       <c r="I715" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25326,7 +26754,9 @@
       <c r="G716" s="1">
         <v>53</v>
       </c>
-      <c r="H716" s="1"/>
+      <c r="H716" s="1">
+        <v>1</v>
+      </c>
       <c r="I716" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25353,7 +26783,9 @@
       <c r="G717" s="1">
         <v>52</v>
       </c>
-      <c r="H717" s="1"/>
+      <c r="H717" s="1">
+        <v>1</v>
+      </c>
       <c r="I717" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25380,7 +26812,9 @@
       <c r="G718" s="1">
         <v>50</v>
       </c>
-      <c r="H718" s="1"/>
+      <c r="H718" s="1">
+        <v>1</v>
+      </c>
       <c r="I718" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25407,7 +26841,9 @@
       <c r="G719" s="1">
         <v>49</v>
       </c>
-      <c r="H719" s="1"/>
+      <c r="H719" s="1">
+        <v>1</v>
+      </c>
       <c r="I719" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25434,7 +26870,9 @@
       <c r="G720" s="1">
         <v>48</v>
       </c>
-      <c r="H720" s="1"/>
+      <c r="H720" s="1">
+        <v>1</v>
+      </c>
       <c r="I720" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25461,7 +26899,9 @@
       <c r="G721" s="1">
         <v>46</v>
       </c>
-      <c r="H721" s="1"/>
+      <c r="H721" s="1">
+        <v>1</v>
+      </c>
       <c r="I721" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25488,7 +26928,9 @@
       <c r="G722" s="1">
         <v>42</v>
       </c>
-      <c r="H722" s="1"/>
+      <c r="H722" s="1">
+        <v>1</v>
+      </c>
       <c r="I722" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25515,7 +26957,9 @@
       <c r="G723" s="1">
         <v>41</v>
       </c>
-      <c r="H723" s="1"/>
+      <c r="H723" s="1">
+        <v>1</v>
+      </c>
       <c r="I723" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25542,7 +26986,9 @@
       <c r="G724" s="1">
         <v>40</v>
       </c>
-      <c r="H724" s="1"/>
+      <c r="H724" s="1">
+        <v>1</v>
+      </c>
       <c r="I724" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25569,7 +27015,9 @@
       <c r="G725" s="1">
         <v>37</v>
       </c>
-      <c r="H725" s="1"/>
+      <c r="H725" s="1">
+        <v>1</v>
+      </c>
       <c r="I725" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25596,7 +27044,9 @@
       <c r="G726" s="1">
         <v>36</v>
       </c>
-      <c r="H726" s="1"/>
+      <c r="H726" s="1">
+        <v>1</v>
+      </c>
       <c r="I726" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25623,7 +27073,9 @@
       <c r="G727" s="1">
         <v>35</v>
       </c>
-      <c r="H727" s="1"/>
+      <c r="H727" s="1">
+        <v>1</v>
+      </c>
       <c r="I727" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25650,7 +27102,9 @@
       <c r="G728" s="1">
         <v>34</v>
       </c>
-      <c r="H728" s="1"/>
+      <c r="H728" s="1">
+        <v>1</v>
+      </c>
       <c r="I728" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25677,7 +27131,9 @@
       <c r="G729" s="1">
         <v>34</v>
       </c>
-      <c r="H729" s="1"/>
+      <c r="H729" s="1">
+        <v>1</v>
+      </c>
       <c r="I729" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25704,7 +27160,9 @@
       <c r="G730" s="1">
         <v>32</v>
       </c>
-      <c r="H730" s="1"/>
+      <c r="H730" s="1">
+        <v>1</v>
+      </c>
       <c r="I730" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25731,7 +27189,9 @@
       <c r="G731" s="1">
         <v>32</v>
       </c>
-      <c r="H731" s="1"/>
+      <c r="H731" s="1">
+        <v>1</v>
+      </c>
       <c r="I731" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25758,7 +27218,9 @@
       <c r="G732" s="1">
         <v>29</v>
       </c>
-      <c r="H732" s="1"/>
+      <c r="H732" s="1">
+        <v>1</v>
+      </c>
       <c r="I732" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25785,7 +27247,9 @@
       <c r="G733" s="1">
         <v>27</v>
       </c>
-      <c r="H733" s="1"/>
+      <c r="H733" s="1">
+        <v>1</v>
+      </c>
       <c r="I733" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25812,7 +27276,9 @@
       <c r="G734" s="1">
         <v>25</v>
       </c>
-      <c r="H734" s="1"/>
+      <c r="H734" s="1">
+        <v>1</v>
+      </c>
       <c r="I734" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25839,7 +27305,9 @@
       <c r="G735" s="1">
         <v>25</v>
       </c>
-      <c r="H735" s="1"/>
+      <c r="H735" s="1">
+        <v>1</v>
+      </c>
       <c r="I735" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25866,7 +27334,9 @@
       <c r="G736" s="1">
         <v>24</v>
       </c>
-      <c r="H736" s="1"/>
+      <c r="H736" s="1">
+        <v>1</v>
+      </c>
       <c r="I736" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25893,7 +27363,9 @@
       <c r="G737" s="1">
         <v>21</v>
       </c>
-      <c r="H737" s="1"/>
+      <c r="H737" s="1">
+        <v>1</v>
+      </c>
       <c r="I737" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25920,7 +27392,9 @@
       <c r="G738" s="1">
         <v>20</v>
       </c>
-      <c r="H738" s="1"/>
+      <c r="H738" s="1">
+        <v>1</v>
+      </c>
       <c r="I738" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25947,7 +27421,9 @@
       <c r="G739" s="1">
         <v>19</v>
       </c>
-      <c r="H739" s="1"/>
+      <c r="H739" s="1">
+        <v>1</v>
+      </c>
       <c r="I739" s="1" t="s">
         <v>1509</v>
       </c>
@@ -25974,7 +27450,9 @@
       <c r="G740" s="1">
         <v>16</v>
       </c>
-      <c r="H740" s="1"/>
+      <c r="H740" s="1">
+        <v>1</v>
+      </c>
       <c r="I740" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26001,7 +27479,9 @@
       <c r="G741" s="1">
         <v>14</v>
       </c>
-      <c r="H741" s="1"/>
+      <c r="H741" s="1">
+        <v>1</v>
+      </c>
       <c r="I741" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26028,7 +27508,9 @@
       <c r="G742" s="1">
         <v>13</v>
       </c>
-      <c r="H742" s="1"/>
+      <c r="H742" s="1">
+        <v>1</v>
+      </c>
       <c r="I742" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26055,7 +27537,9 @@
       <c r="G743" s="1">
         <v>10</v>
       </c>
-      <c r="H743" s="1"/>
+      <c r="H743" s="1">
+        <v>1</v>
+      </c>
       <c r="I743" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26082,7 +27566,9 @@
       <c r="G744" s="1">
         <v>9</v>
       </c>
-      <c r="H744" s="1"/>
+      <c r="H744" s="1">
+        <v>1</v>
+      </c>
       <c r="I744" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26109,7 +27595,9 @@
       <c r="G745" s="1">
         <v>9</v>
       </c>
-      <c r="H745" s="1"/>
+      <c r="H745" s="1">
+        <v>1</v>
+      </c>
       <c r="I745" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26136,7 +27624,9 @@
       <c r="G746" s="1">
         <v>8</v>
       </c>
-      <c r="H746" s="1"/>
+      <c r="H746" s="1">
+        <v>1</v>
+      </c>
       <c r="I746" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26163,7 +27653,9 @@
       <c r="G747" s="1">
         <v>8</v>
       </c>
-      <c r="H747" s="1"/>
+      <c r="H747" s="1">
+        <v>1</v>
+      </c>
       <c r="I747" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26190,7 +27682,9 @@
       <c r="G748" s="1">
         <v>7</v>
       </c>
-      <c r="H748" s="1"/>
+      <c r="H748" s="1">
+        <v>1</v>
+      </c>
       <c r="I748" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26217,7 +27711,9 @@
       <c r="G749" s="1">
         <v>7</v>
       </c>
-      <c r="H749" s="1"/>
+      <c r="H749" s="1">
+        <v>1</v>
+      </c>
       <c r="I749" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26244,7 +27740,9 @@
       <c r="G750" s="1">
         <v>7</v>
       </c>
-      <c r="H750" s="1"/>
+      <c r="H750" s="1">
+        <v>1</v>
+      </c>
       <c r="I750" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26271,7 +27769,9 @@
       <c r="G751" s="1">
         <v>6</v>
       </c>
-      <c r="H751" s="1"/>
+      <c r="H751" s="1">
+        <v>1</v>
+      </c>
       <c r="I751" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26298,7 +27798,9 @@
       <c r="G752" s="1">
         <v>6</v>
       </c>
-      <c r="H752" s="1"/>
+      <c r="H752" s="1">
+        <v>1</v>
+      </c>
       <c r="I752" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26325,7 +27827,9 @@
       <c r="G753" s="1">
         <v>6</v>
       </c>
-      <c r="H753" s="1"/>
+      <c r="H753" s="1">
+        <v>1</v>
+      </c>
       <c r="I753" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26352,7 +27856,9 @@
       <c r="G754" s="1">
         <v>6</v>
       </c>
-      <c r="H754" s="1"/>
+      <c r="H754" s="1">
+        <v>1</v>
+      </c>
       <c r="I754" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26379,7 +27885,9 @@
       <c r="G755" s="1">
         <v>6</v>
       </c>
-      <c r="H755" s="1"/>
+      <c r="H755" s="1">
+        <v>1</v>
+      </c>
       <c r="I755" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26406,7 +27914,9 @@
       <c r="G756" s="1">
         <v>6</v>
       </c>
-      <c r="H756" s="1"/>
+      <c r="H756" s="1">
+        <v>1</v>
+      </c>
       <c r="I756" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26433,7 +27943,9 @@
       <c r="G757" s="1">
         <v>5</v>
       </c>
-      <c r="H757" s="1"/>
+      <c r="H757" s="1">
+        <v>1</v>
+      </c>
       <c r="I757" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26460,7 +27972,9 @@
       <c r="G758" s="1">
         <v>5</v>
       </c>
-      <c r="H758" s="1"/>
+      <c r="H758" s="1">
+        <v>1</v>
+      </c>
       <c r="I758" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26487,7 +28001,9 @@
       <c r="G759" s="1">
         <v>5</v>
       </c>
-      <c r="H759" s="1"/>
+      <c r="H759" s="1">
+        <v>1</v>
+      </c>
       <c r="I759" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26514,7 +28030,9 @@
       <c r="G760" s="1">
         <v>4</v>
       </c>
-      <c r="H760" s="1"/>
+      <c r="H760" s="1">
+        <v>1</v>
+      </c>
       <c r="I760" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26541,7 +28059,9 @@
       <c r="G761" s="1">
         <v>4</v>
       </c>
-      <c r="H761" s="1"/>
+      <c r="H761" s="1">
+        <v>1</v>
+      </c>
       <c r="I761" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26568,7 +28088,9 @@
       <c r="G762" s="1">
         <v>4</v>
       </c>
-      <c r="H762" s="1"/>
+      <c r="H762" s="1">
+        <v>1</v>
+      </c>
       <c r="I762" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26595,7 +28117,9 @@
       <c r="G763" s="1">
         <v>4</v>
       </c>
-      <c r="H763" s="1"/>
+      <c r="H763" s="1">
+        <v>1</v>
+      </c>
       <c r="I763" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26622,7 +28146,9 @@
       <c r="G764" s="1">
         <v>4</v>
       </c>
-      <c r="H764" s="1"/>
+      <c r="H764" s="1">
+        <v>1</v>
+      </c>
       <c r="I764" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26649,7 +28175,9 @@
       <c r="G765" s="1">
         <v>3</v>
       </c>
-      <c r="H765" s="1"/>
+      <c r="H765" s="1">
+        <v>1</v>
+      </c>
       <c r="I765" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26676,7 +28204,9 @@
       <c r="G766" s="1">
         <v>3</v>
       </c>
-      <c r="H766" s="1"/>
+      <c r="H766" s="1">
+        <v>1</v>
+      </c>
       <c r="I766" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26703,7 +28233,9 @@
       <c r="G767" s="1">
         <v>3</v>
       </c>
-      <c r="H767" s="1"/>
+      <c r="H767" s="1">
+        <v>1</v>
+      </c>
       <c r="I767" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26730,7 +28262,9 @@
       <c r="G768" s="1">
         <v>2</v>
       </c>
-      <c r="H768" s="1"/>
+      <c r="H768" s="1">
+        <v>1</v>
+      </c>
       <c r="I768" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26757,7 +28291,9 @@
       <c r="G769" s="1">
         <v>2</v>
       </c>
-      <c r="H769" s="1"/>
+      <c r="H769" s="1">
+        <v>1</v>
+      </c>
       <c r="I769" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26784,7 +28320,9 @@
       <c r="G770" s="1">
         <v>2</v>
       </c>
-      <c r="H770" s="1"/>
+      <c r="H770" s="1">
+        <v>1</v>
+      </c>
       <c r="I770" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26811,7 +28349,9 @@
       <c r="G771" s="1">
         <v>1</v>
       </c>
-      <c r="H771" s="1"/>
+      <c r="H771" s="1">
+        <v>1</v>
+      </c>
       <c r="I771" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26838,7 +28378,9 @@
       <c r="G772" s="1">
         <v>1</v>
       </c>
-      <c r="H772" s="1"/>
+      <c r="H772" s="1">
+        <v>1</v>
+      </c>
       <c r="I772" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26865,7 +28407,9 @@
       <c r="G773" s="1">
         <v>1</v>
       </c>
-      <c r="H773" s="1"/>
+      <c r="H773" s="1">
+        <v>1</v>
+      </c>
       <c r="I773" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26892,7 +28436,9 @@
       <c r="G774" s="1">
         <v>1</v>
       </c>
-      <c r="H774" s="1"/>
+      <c r="H774" s="1">
+        <v>1</v>
+      </c>
       <c r="I774" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26919,7 +28465,9 @@
       <c r="G775" s="1">
         <v>1</v>
       </c>
-      <c r="H775" s="1"/>
+      <c r="H775" s="1">
+        <v>1</v>
+      </c>
       <c r="I775" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26946,7 +28494,9 @@
       <c r="G776" s="1">
         <v>1</v>
       </c>
-      <c r="H776" s="1"/>
+      <c r="H776" s="1">
+        <v>1</v>
+      </c>
       <c r="I776" s="1" t="s">
         <v>1509</v>
       </c>
@@ -26973,7 +28523,9 @@
       <c r="G777" s="1">
         <v>1</v>
       </c>
-      <c r="H777" s="1"/>
+      <c r="H777" s="1">
+        <v>1</v>
+      </c>
       <c r="I777" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27000,7 +28552,9 @@
       <c r="G778" s="1">
         <v>0</v>
       </c>
-      <c r="H778" s="1"/>
+      <c r="H778" s="1">
+        <v>1</v>
+      </c>
       <c r="I778" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27027,7 +28581,9 @@
       <c r="G779" s="1">
         <v>0</v>
       </c>
-      <c r="H779" s="1"/>
+      <c r="H779" s="1">
+        <v>1</v>
+      </c>
       <c r="I779" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27054,7 +28610,9 @@
       <c r="G780" s="1">
         <v>0</v>
       </c>
-      <c r="H780" s="1"/>
+      <c r="H780" s="1">
+        <v>1</v>
+      </c>
       <c r="I780" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27081,7 +28639,9 @@
       <c r="G781" s="1">
         <v>0</v>
       </c>
-      <c r="H781" s="1"/>
+      <c r="H781" s="1">
+        <v>1</v>
+      </c>
       <c r="I781" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27108,7 +28668,9 @@
       <c r="G782" s="1">
         <v>0</v>
       </c>
-      <c r="H782" s="1"/>
+      <c r="H782" s="1">
+        <v>1</v>
+      </c>
       <c r="I782" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27135,7 +28697,9 @@
       <c r="G783" s="1">
         <v>0</v>
       </c>
-      <c r="H783" s="1"/>
+      <c r="H783" s="1">
+        <v>1</v>
+      </c>
       <c r="I783" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27162,7 +28726,9 @@
       <c r="G784" s="1">
         <v>0</v>
       </c>
-      <c r="H784" s="1"/>
+      <c r="H784" s="1">
+        <v>1</v>
+      </c>
       <c r="I784" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27189,7 +28755,9 @@
       <c r="G785" s="1">
         <v>0</v>
       </c>
-      <c r="H785" s="1"/>
+      <c r="H785" s="1">
+        <v>1</v>
+      </c>
       <c r="I785" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27216,7 +28784,9 @@
       <c r="G786" s="1">
         <v>0</v>
       </c>
-      <c r="H786" s="1"/>
+      <c r="H786" s="1">
+        <v>1</v>
+      </c>
       <c r="I786" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27243,7 +28813,9 @@
       <c r="G787" s="1">
         <v>0</v>
       </c>
-      <c r="H787" s="1"/>
+      <c r="H787" s="1">
+        <v>1</v>
+      </c>
       <c r="I787" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27270,7 +28842,9 @@
       <c r="G788" s="1">
         <v>0</v>
       </c>
-      <c r="H788" s="1"/>
+      <c r="H788" s="1">
+        <v>1</v>
+      </c>
       <c r="I788" s="1" t="s">
         <v>1509</v>
       </c>
@@ -27297,7 +28871,9 @@
       <c r="G789" s="1">
         <v>307</v>
       </c>
-      <c r="H789" s="1"/>
+      <c r="H789" s="1">
+        <v>1</v>
+      </c>
       <c r="I789" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27324,7 +28900,9 @@
       <c r="G790" s="1">
         <v>296</v>
       </c>
-      <c r="H790" s="1"/>
+      <c r="H790" s="1">
+        <v>1</v>
+      </c>
       <c r="I790" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27351,7 +28929,9 @@
       <c r="G791" s="1">
         <v>293</v>
       </c>
-      <c r="H791" s="1"/>
+      <c r="H791" s="1">
+        <v>1</v>
+      </c>
       <c r="I791" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27378,7 +28958,9 @@
       <c r="G792" s="1">
         <v>293</v>
       </c>
-      <c r="H792" s="1"/>
+      <c r="H792" s="1">
+        <v>1</v>
+      </c>
       <c r="I792" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27405,7 +28987,9 @@
       <c r="G793" s="1">
         <v>286</v>
       </c>
-      <c r="H793" s="1"/>
+      <c r="H793" s="1">
+        <v>1</v>
+      </c>
       <c r="I793" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27432,7 +29016,9 @@
       <c r="G794" s="1">
         <v>176</v>
       </c>
-      <c r="H794" s="1"/>
+      <c r="H794" s="1">
+        <v>1</v>
+      </c>
       <c r="I794" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27459,7 +29045,9 @@
       <c r="G795" s="1">
         <v>165</v>
       </c>
-      <c r="H795" s="1"/>
+      <c r="H795" s="1">
+        <v>1</v>
+      </c>
       <c r="I795" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27486,7 +29074,9 @@
       <c r="G796" s="1">
         <v>128</v>
       </c>
-      <c r="H796" s="1"/>
+      <c r="H796" s="1">
+        <v>1</v>
+      </c>
       <c r="I796" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27513,7 +29103,9 @@
       <c r="G797" s="1">
         <v>95</v>
       </c>
-      <c r="H797" s="1"/>
+      <c r="H797" s="1">
+        <v>1</v>
+      </c>
       <c r="I797" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27540,7 +29132,9 @@
       <c r="G798" s="1">
         <v>94</v>
       </c>
-      <c r="H798" s="1"/>
+      <c r="H798" s="1">
+        <v>1</v>
+      </c>
       <c r="I798" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27567,7 +29161,9 @@
       <c r="G799" s="1">
         <v>92</v>
       </c>
-      <c r="H799" s="1"/>
+      <c r="H799" s="1">
+        <v>1</v>
+      </c>
       <c r="I799" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27594,7 +29190,9 @@
       <c r="G800" s="1">
         <v>89</v>
       </c>
-      <c r="H800" s="1"/>
+      <c r="H800" s="1">
+        <v>1</v>
+      </c>
       <c r="I800" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27621,7 +29219,9 @@
       <c r="G801" s="1">
         <v>76</v>
       </c>
-      <c r="H801" s="1"/>
+      <c r="H801" s="1">
+        <v>1</v>
+      </c>
       <c r="I801" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27648,7 +29248,9 @@
       <c r="G802" s="1">
         <v>63</v>
       </c>
-      <c r="H802" s="1"/>
+      <c r="H802" s="1">
+        <v>1</v>
+      </c>
       <c r="I802" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27675,7 +29277,9 @@
       <c r="G803" s="1">
         <v>62</v>
       </c>
-      <c r="H803" s="1"/>
+      <c r="H803" s="1">
+        <v>1</v>
+      </c>
       <c r="I803" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27702,7 +29306,9 @@
       <c r="G804" s="1">
         <v>57</v>
       </c>
-      <c r="H804" s="1"/>
+      <c r="H804" s="1">
+        <v>1</v>
+      </c>
       <c r="I804" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27729,7 +29335,9 @@
       <c r="G805" s="1">
         <v>52</v>
       </c>
-      <c r="H805" s="1"/>
+      <c r="H805" s="1">
+        <v>1</v>
+      </c>
       <c r="I805" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27756,7 +29364,9 @@
       <c r="G806" s="1">
         <v>46</v>
       </c>
-      <c r="H806" s="1"/>
+      <c r="H806" s="1">
+        <v>1</v>
+      </c>
       <c r="I806" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27783,7 +29393,9 @@
       <c r="G807" s="1">
         <v>42</v>
       </c>
-      <c r="H807" s="1"/>
+      <c r="H807" s="1">
+        <v>1</v>
+      </c>
       <c r="I807" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27810,7 +29422,9 @@
       <c r="G808" s="1">
         <v>42</v>
       </c>
-      <c r="H808" s="1"/>
+      <c r="H808" s="1">
+        <v>1</v>
+      </c>
       <c r="I808" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27837,7 +29451,9 @@
       <c r="G809" s="1">
         <v>34</v>
       </c>
-      <c r="H809" s="1"/>
+      <c r="H809" s="1">
+        <v>1</v>
+      </c>
       <c r="I809" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27864,7 +29480,9 @@
       <c r="G810" s="1">
         <v>33</v>
       </c>
-      <c r="H810" s="1"/>
+      <c r="H810" s="1">
+        <v>1</v>
+      </c>
       <c r="I810" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27891,7 +29509,9 @@
       <c r="G811" s="1">
         <v>31</v>
       </c>
-      <c r="H811" s="1"/>
+      <c r="H811" s="1">
+        <v>1</v>
+      </c>
       <c r="I811" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27918,7 +29538,9 @@
       <c r="G812" s="1">
         <v>31</v>
       </c>
-      <c r="H812" s="1"/>
+      <c r="H812" s="1">
+        <v>1</v>
+      </c>
       <c r="I812" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27945,7 +29567,9 @@
       <c r="G813" s="1">
         <v>25</v>
       </c>
-      <c r="H813" s="1"/>
+      <c r="H813" s="1">
+        <v>1</v>
+      </c>
       <c r="I813" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27972,7 +29596,9 @@
       <c r="G814" s="1">
         <v>23</v>
       </c>
-      <c r="H814" s="1"/>
+      <c r="H814" s="1">
+        <v>1</v>
+      </c>
       <c r="I814" s="1" t="s">
         <v>1664</v>
       </c>
@@ -27999,7 +29625,9 @@
       <c r="G815" s="1">
         <v>20</v>
       </c>
-      <c r="H815" s="1"/>
+      <c r="H815" s="1">
+        <v>1</v>
+      </c>
       <c r="I815" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28026,7 +29654,9 @@
       <c r="G816" s="1">
         <v>19</v>
       </c>
-      <c r="H816" s="1"/>
+      <c r="H816" s="1">
+        <v>1</v>
+      </c>
       <c r="I816" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28053,7 +29683,9 @@
       <c r="G817" s="1">
         <v>15</v>
       </c>
-      <c r="H817" s="1"/>
+      <c r="H817" s="1">
+        <v>1</v>
+      </c>
       <c r="I817" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28080,7 +29712,9 @@
       <c r="G818" s="1">
         <v>13</v>
       </c>
-      <c r="H818" s="1"/>
+      <c r="H818" s="1">
+        <v>1</v>
+      </c>
       <c r="I818" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28107,7 +29741,9 @@
       <c r="G819" s="1">
         <v>11</v>
       </c>
-      <c r="H819" s="1"/>
+      <c r="H819" s="1">
+        <v>1</v>
+      </c>
       <c r="I819" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28134,7 +29770,9 @@
       <c r="G820" s="1">
         <v>10</v>
       </c>
-      <c r="H820" s="1"/>
+      <c r="H820" s="1">
+        <v>1</v>
+      </c>
       <c r="I820" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28161,7 +29799,9 @@
       <c r="G821" s="1">
         <v>9</v>
       </c>
-      <c r="H821" s="1"/>
+      <c r="H821" s="1">
+        <v>1</v>
+      </c>
       <c r="I821" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28188,7 +29828,9 @@
       <c r="G822" s="1">
         <v>9</v>
       </c>
-      <c r="H822" s="1"/>
+      <c r="H822" s="1">
+        <v>1</v>
+      </c>
       <c r="I822" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28215,7 +29857,9 @@
       <c r="G823" s="1">
         <v>9</v>
       </c>
-      <c r="H823" s="1"/>
+      <c r="H823" s="1">
+        <v>1</v>
+      </c>
       <c r="I823" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28242,7 +29886,9 @@
       <c r="G824" s="1">
         <v>8</v>
       </c>
-      <c r="H824" s="1"/>
+      <c r="H824" s="1">
+        <v>1</v>
+      </c>
       <c r="I824" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28269,7 +29915,9 @@
       <c r="G825" s="1">
         <v>7</v>
       </c>
-      <c r="H825" s="1"/>
+      <c r="H825" s="1">
+        <v>1</v>
+      </c>
       <c r="I825" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28296,7 +29944,9 @@
       <c r="G826" s="1">
         <v>7</v>
       </c>
-      <c r="H826" s="1"/>
+      <c r="H826" s="1">
+        <v>1</v>
+      </c>
       <c r="I826" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28323,7 +29973,9 @@
       <c r="G827" s="1">
         <v>6</v>
       </c>
-      <c r="H827" s="1"/>
+      <c r="H827" s="1">
+        <v>1</v>
+      </c>
       <c r="I827" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28350,7 +30002,9 @@
       <c r="G828" s="1">
         <v>5</v>
       </c>
-      <c r="H828" s="1"/>
+      <c r="H828" s="1">
+        <v>1</v>
+      </c>
       <c r="I828" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28377,7 +30031,9 @@
       <c r="G829" s="1">
         <v>5</v>
       </c>
-      <c r="H829" s="1"/>
+      <c r="H829" s="1">
+        <v>1</v>
+      </c>
       <c r="I829" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28404,7 +30060,9 @@
       <c r="G830" s="1">
         <v>5</v>
       </c>
-      <c r="H830" s="1"/>
+      <c r="H830" s="1">
+        <v>1</v>
+      </c>
       <c r="I830" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28431,7 +30089,9 @@
       <c r="G831" s="1">
         <v>5</v>
       </c>
-      <c r="H831" s="1"/>
+      <c r="H831" s="1">
+        <v>1</v>
+      </c>
       <c r="I831" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28458,7 +30118,9 @@
       <c r="G832" s="1">
         <v>5</v>
       </c>
-      <c r="H832" s="1"/>
+      <c r="H832" s="1">
+        <v>1</v>
+      </c>
       <c r="I832" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28485,7 +30147,9 @@
       <c r="G833" s="1">
         <v>4</v>
       </c>
-      <c r="H833" s="1"/>
+      <c r="H833" s="1">
+        <v>1</v>
+      </c>
       <c r="I833" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28512,7 +30176,9 @@
       <c r="G834" s="1">
         <v>4</v>
       </c>
-      <c r="H834" s="1"/>
+      <c r="H834" s="1">
+        <v>1</v>
+      </c>
       <c r="I834" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28539,7 +30205,9 @@
       <c r="G835" s="1">
         <v>4</v>
       </c>
-      <c r="H835" s="1"/>
+      <c r="H835" s="1">
+        <v>1</v>
+      </c>
       <c r="I835" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28566,7 +30234,9 @@
       <c r="G836" s="1">
         <v>3</v>
       </c>
-      <c r="H836" s="1"/>
+      <c r="H836" s="1">
+        <v>1</v>
+      </c>
       <c r="I836" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28593,7 +30263,9 @@
       <c r="G837" s="1">
         <v>3</v>
       </c>
-      <c r="H837" s="1"/>
+      <c r="H837" s="1">
+        <v>1</v>
+      </c>
       <c r="I837" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28620,7 +30292,9 @@
       <c r="G838" s="1">
         <v>2</v>
       </c>
-      <c r="H838" s="1"/>
+      <c r="H838" s="1">
+        <v>1</v>
+      </c>
       <c r="I838" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28647,7 +30321,9 @@
       <c r="G839" s="1">
         <v>1</v>
       </c>
-      <c r="H839" s="1"/>
+      <c r="H839" s="1">
+        <v>1</v>
+      </c>
       <c r="I839" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28674,7 +30350,9 @@
       <c r="G840" s="1">
         <v>1</v>
       </c>
-      <c r="H840" s="1"/>
+      <c r="H840" s="1">
+        <v>1</v>
+      </c>
       <c r="I840" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28701,7 +30379,9 @@
       <c r="G841" s="1">
         <v>0</v>
       </c>
-      <c r="H841" s="1"/>
+      <c r="H841" s="1">
+        <v>1</v>
+      </c>
       <c r="I841" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28728,7 +30408,9 @@
       <c r="G842" s="1">
         <v>0</v>
       </c>
-      <c r="H842" s="1"/>
+      <c r="H842" s="1">
+        <v>1</v>
+      </c>
       <c r="I842" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28755,7 +30437,9 @@
       <c r="G843" s="1">
         <v>0</v>
       </c>
-      <c r="H843" s="1"/>
+      <c r="H843" s="1">
+        <v>1</v>
+      </c>
       <c r="I843" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28782,7 +30466,9 @@
       <c r="G844" s="1">
         <v>0</v>
       </c>
-      <c r="H844" s="1"/>
+      <c r="H844" s="1">
+        <v>1</v>
+      </c>
       <c r="I844" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28809,7 +30495,9 @@
       <c r="G845" s="1">
         <v>0</v>
       </c>
-      <c r="H845" s="1"/>
+      <c r="H845" s="1">
+        <v>1</v>
+      </c>
       <c r="I845" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28836,7 +30524,9 @@
       <c r="G846" s="1">
         <v>0</v>
       </c>
-      <c r="H846" s="1"/>
+      <c r="H846" s="1">
+        <v>1</v>
+      </c>
       <c r="I846" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28863,7 +30553,9 @@
       <c r="G847" s="1">
         <v>0</v>
       </c>
-      <c r="H847" s="1"/>
+      <c r="H847" s="1">
+        <v>1</v>
+      </c>
       <c r="I847" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28890,7 +30582,9 @@
       <c r="G848" s="1">
         <v>0</v>
       </c>
-      <c r="H848" s="1"/>
+      <c r="H848" s="1">
+        <v>1</v>
+      </c>
       <c r="I848" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28917,7 +30611,9 @@
       <c r="G849" s="1">
         <v>0</v>
       </c>
-      <c r="H849" s="1"/>
+      <c r="H849" s="1">
+        <v>1</v>
+      </c>
       <c r="I849" s="1" t="s">
         <v>1664</v>
       </c>
@@ -28944,7 +30640,9 @@
       <c r="G850" s="1">
         <v>21</v>
       </c>
-      <c r="H850" s="1"/>
+      <c r="H850" s="1">
+        <v>1</v>
+      </c>
       <c r="I850" s="1" t="s">
         <v>1837</v>
       </c>
@@ -28971,7 +30669,9 @@
       <c r="G851" s="1">
         <v>16</v>
       </c>
-      <c r="H851" s="1"/>
+      <c r="H851" s="1">
+        <v>1</v>
+      </c>
       <c r="I851" s="1" t="s">
         <v>1837</v>
       </c>
@@ -28998,7 +30698,9 @@
       <c r="G852" s="1">
         <v>14</v>
       </c>
-      <c r="H852" s="1"/>
+      <c r="H852" s="1">
+        <v>1</v>
+      </c>
       <c r="I852" s="1" t="s">
         <v>1837</v>
       </c>
@@ -29025,7 +30727,9 @@
       <c r="G853" s="1">
         <v>10</v>
       </c>
-      <c r="H853" s="1"/>
+      <c r="H853" s="1">
+        <v>1</v>
+      </c>
       <c r="I853" s="1" t="s">
         <v>1837</v>
       </c>
@@ -29052,7 +30756,9 @@
       <c r="G854" s="1">
         <v>10</v>
       </c>
-      <c r="H854" s="1"/>
+      <c r="H854" s="1">
+        <v>1</v>
+      </c>
       <c r="I854" s="1" t="s">
         <v>1837</v>
       </c>
@@ -29079,7 +30785,9 @@
       <c r="G855" s="1">
         <v>7</v>
       </c>
-      <c r="H855" s="1"/>
+      <c r="H855" s="1">
+        <v>1</v>
+      </c>
       <c r="I855" s="1" t="s">
         <v>1837</v>
       </c>
@@ -29092,5 +30800,6 @@
     <hyperlink ref="A604" r:id="rId3" location="/335413/" xr:uid="{339558C9-56E6-4A55-AC78-B9D7F7AF263B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>